--- a/Python/Comparacao_contours54BND.xlsx
+++ b/Python/Comparacao_contours54BND.xlsx
@@ -2,16 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.01" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.001" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -36,7 +35,7 @@
     <t>fourier_factor</t>
   </si>
   <si>
-    <t>fd_2Dbox</t>
+    <t>fd_2Dbox.1</t>
   </si>
   <si>
     <t>fd_1Dbox</t>
@@ -236,7 +235,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -245,24 +244,7 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -284,11 +266,48 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -299,75 +318,27 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="4" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -656,5927 +627,6530 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="G1" view="normal" workbookViewId="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100">
-      <selection activeCell="I1" activeCellId="0" pane="topLeft" sqref="I1"/>
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="28.86"/>
-    <col customWidth="1" max="2" min="2" style="5" width="19.71"/>
-    <col customWidth="1" max="4" min="3" style="5" width="22.28"/>
-    <col customWidth="1" max="5" min="5" style="5" width="17.29"/>
-    <col customWidth="1" max="6" min="6" style="5" width="19.57"/>
-    <col customWidth="1" max="7" min="7" style="5" width="15"/>
-    <col customWidth="1" max="8" min="8" style="5" width="24.86"/>
-    <col customWidth="1" max="9" min="9" style="5" width="23.01"/>
-    <col customWidth="1" max="10" min="10" style="5" width="23.28"/>
-    <col customWidth="1" max="11" min="11" style="5" width="22.57"/>
-    <col customWidth="1" max="15" min="12" style="5" width="30.28"/>
-    <col customWidth="1" max="17" min="16" style="5" width="9"/>
-    <col customWidth="1" max="1012" min="18" style="5" width="8.57"/>
-    <col customWidth="1" max="1022" min="1013" style="5" width="9.140000000000001"/>
-    <col customWidth="1" max="1025" min="1023" style="5" width="11.52"/>
+    <col customWidth="1" max="1" min="1" style="1" width="28.85546875"/>
+    <col customWidth="1" max="2" min="2" style="1" width="19.7109375"/>
+    <col customWidth="1" max="4" min="3" style="1" width="22.28515625"/>
+    <col customWidth="1" max="5" min="5" style="1" width="17.28515625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="19.5703125"/>
+    <col customWidth="1" max="7" min="7" style="1" width="23"/>
+    <col customWidth="1" max="8" min="8" style="1" width="23.28515625"/>
+    <col customWidth="1" max="9" min="9" style="1" width="22.5703125"/>
+    <col customWidth="1" max="21" min="10" style="1" width="30.28515625"/>
+    <col customWidth="1" max="1009" min="22" style="1" width="8.5703125"/>
+    <col customWidth="1" max="1019" min="1010" style="1" width="9.140625"/>
+    <col customWidth="1" max="1022" min="1020" style="1" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.9" r="1" s="6" spans="1:17">
-      <c r="A1" s="7" t="s">
+    <row customHeight="1" ht="13.9" r="1" s="1" spans="1:21">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="2" s="6" spans="1:17">
-      <c r="A2" s="9" t="s">
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="2" s="1" spans="1:21">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="3" t="n">
         <v>0.13968133402999</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="3" t="n">
         <v>0.262693703464763</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="3" t="n">
         <v>0.131346851732382</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="9" t="n">
+      <c r="F2" s="3" t="n">
         <v>0.483906507492065</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="3" t="n">
         <v>1.00836040957392</v>
       </c>
-      <c r="H2" s="9" t="n">
+      <c r="H2" s="3" t="n">
         <v>1.23577609770386</v>
       </c>
-      <c r="I2" s="9" t="n">
+      <c r="I2" s="3" t="n">
         <v>1.014003850275164</v>
       </c>
-      <c r="J2" s="9" t="n">
-        <v>1.117440328759197</v>
-      </c>
-      <c r="K2" s="9" t="n">
+      <c r="J2" s="3" t="n">
+        <v>1.116567110172431</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>1.113120963628011</v>
+      </c>
+      <c r="L2" s="3" t="n">
         <v>0.227698</v>
       </c>
-      <c r="L2" s="9" t="n">
+      <c r="M2" s="3" t="n">
         <v>0.06491</v>
       </c>
-      <c r="M2" s="9" t="n">
+      <c r="N2" s="3" t="n">
         <v>0.1978</v>
       </c>
-      <c r="N2" s="9" t="n">
+      <c r="O2" s="3" t="n">
         <v>1.0773</v>
       </c>
-      <c r="O2" s="9" t="n">
+      <c r="P2" s="3" t="n">
         <v>1.0875</v>
       </c>
-      <c r="P2" s="9" t="n">
+      <c r="Q2" s="3" t="n">
         <v>1.0164</v>
       </c>
-      <c r="Q2" s="9" t="n">
+      <c r="R2" s="3" t="n">
         <v>1.2835</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="3" s="6" spans="1:17">
-      <c r="A3" s="9" t="s">
+      <c r="S2" s="3" t="n"/>
+      <c r="T2" s="3" t="n"/>
+      <c r="U2" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="3" s="1" spans="1:21">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="3" t="n">
         <v>0.151915905709953</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="3" t="n">
         <v>0.603101976899283</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="3" t="n">
         <v>0.301550988449642</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="3" t="n">
         <v>0.0943229794502258</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="3" t="n">
         <v>1.08375403757614</v>
       </c>
-      <c r="H3" s="9" t="n">
+      <c r="H3" s="3" t="n">
         <v>1.27281501331121</v>
       </c>
-      <c r="I3" s="9" t="n">
+      <c r="I3" s="3" t="n">
         <v>1.026337913236353</v>
       </c>
-      <c r="J3" s="9" t="n">
-        <v>1.194818806646647</v>
-      </c>
-      <c r="K3" s="9" t="n">
+      <c r="J3" s="3" t="n">
+        <v>1.194392084664718</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>1.195426505020202</v>
+      </c>
+      <c r="L3" s="3" t="n">
         <v>0.218729</v>
       </c>
-      <c r="L3" s="9" t="n">
+      <c r="M3" s="3" t="n">
         <v>0.15591</v>
       </c>
-      <c r="M3" s="9" t="n">
+      <c r="N3" s="3" t="n">
         <v>0.2292</v>
       </c>
-      <c r="N3" s="9" t="n">
+      <c r="O3" s="3" t="n">
         <v>1.0606</v>
       </c>
-      <c r="O3" s="9" t="n">
+      <c r="P3" s="3" t="n">
         <v>1.1211</v>
       </c>
-      <c r="P3" s="9" t="n">
+      <c r="Q3" s="3" t="n">
         <v>1.027</v>
       </c>
-      <c r="Q3" s="9" t="n">
+      <c r="R3" s="3" t="n">
         <v>1.2671</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="4" s="6" spans="1:17">
-      <c r="A4" s="9" t="s">
+      <c r="S3" s="3" t="n"/>
+      <c r="T3" s="3" t="n"/>
+      <c r="U3" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="4" s="1" spans="1:21">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="3" t="n">
         <v>0.0654136405808988</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="3" t="n">
         <v>0.124990513884603</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="3" t="n">
         <v>0.0624952569423017</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="3" t="n">
         <v>0.192249536514282</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="3" t="n">
         <v>0.967918995891125</v>
       </c>
-      <c r="H4" s="9" t="n">
+      <c r="H4" s="3" t="n">
         <v>1.22001931444936</v>
       </c>
-      <c r="I4" s="9" t="n">
+      <c r="I4" s="3" t="n">
         <v>1.00957558245956</v>
       </c>
-      <c r="J4" s="9" t="n">
-        <v>1.137526777240683</v>
-      </c>
-      <c r="K4" s="9" t="n">
+      <c r="J4" s="3" t="n">
+        <v>1.127667301918909</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>1.128888280346222</v>
+      </c>
+      <c r="L4" s="3" t="n">
         <v>0.165208</v>
       </c>
-      <c r="L4" s="9" t="n">
+      <c r="M4" s="3" t="n">
         <v>0.040589</v>
       </c>
-      <c r="M4" s="9" t="n">
+      <c r="N4" s="3" t="n">
         <v>0.1469</v>
       </c>
-      <c r="N4" s="9" t="n">
+      <c r="O4" s="3" t="n">
         <v>1.0667</v>
       </c>
-      <c r="O4" s="9" t="n">
+      <c r="P4" s="3" t="n">
         <v>1.0957</v>
       </c>
-      <c r="P4" s="9" t="n">
+      <c r="Q4" s="3" t="n">
         <v>1.0107</v>
       </c>
-      <c r="Q4" s="9" t="n">
+      <c r="R4" s="3" t="n">
         <v>1.136</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="5" s="6" spans="1:17">
-      <c r="A5" s="9" t="s">
+      <c r="S4" s="3" t="n"/>
+      <c r="T4" s="3" t="n"/>
+      <c r="U4" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="5" s="1" spans="1:21">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="3" t="n">
         <v>0.203174424675253</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="3" t="n">
         <v>0.261821661134729</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="3" t="n">
         <v>0.130910830567365</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="3" t="n">
         <v>0.292682762134823</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="3" t="n">
         <v>0.111533761024475</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="3" t="n">
         <v>0.9911676466435509</v>
       </c>
-      <c r="H5" s="9" t="n">
+      <c r="H5" s="3" t="n">
         <v>1.20896342263363</v>
       </c>
-      <c r="I5" s="9" t="n">
+      <c r="I5" s="3" t="n">
         <v>1.020050910858225</v>
       </c>
-      <c r="J5" s="9" t="n">
-        <v>1.121128920720106</v>
-      </c>
-      <c r="K5" s="9" t="n">
+      <c r="J5" s="3" t="n">
+        <v>1.11351467158525</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>1.119469498924277</v>
+      </c>
+      <c r="L5" s="3" t="n">
         <v>0.303798</v>
       </c>
-      <c r="L5" s="9" t="n">
+      <c r="M5" s="3" t="n">
         <v>0.103913</v>
       </c>
-      <c r="M5" s="9" t="n">
+      <c r="N5" s="3" t="n">
         <v>0.2307</v>
       </c>
-      <c r="N5" s="9" t="n">
+      <c r="O5" s="3" t="n">
         <v>1.0535</v>
       </c>
-      <c r="O5" s="9" t="n">
+      <c r="P5" s="3" t="n">
         <v>1.0864</v>
       </c>
-      <c r="P5" s="9" t="n">
+      <c r="Q5" s="3" t="n">
         <v>1.0299</v>
       </c>
-      <c r="Q5" s="9" t="n">
+      <c r="R5" s="3" t="n">
         <v>1.1967</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="6" s="6" spans="1:17">
-      <c r="A6" s="9" t="s">
+      <c r="S5" s="3" t="n"/>
+      <c r="T5" s="3" t="n"/>
+      <c r="U5" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="6" s="1" spans="1:21">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="3" t="n">
         <v>0.157993596644472</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="3" t="n">
         <v>0.302129963518293</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="3" t="n">
         <v>0.151064981759146</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="3" t="n">
         <v>0.103471875190735</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="3" t="n">
         <v>0.940377056295869</v>
       </c>
-      <c r="H6" s="9" t="n">
+      <c r="H6" s="3" t="n">
         <v>1.23728362534172</v>
       </c>
-      <c r="I6" s="9" t="n">
+      <c r="I6" s="3" t="n">
         <v>1.022841441655486</v>
       </c>
-      <c r="J6" s="9" t="n">
-        <v>1.126454266766536</v>
-      </c>
-      <c r="K6" s="9" t="n">
+      <c r="J6" s="3" t="n">
+        <v>1.129455806770738</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>1.123096230403628</v>
+      </c>
+      <c r="L6" s="3" t="n">
         <v>0.227157</v>
       </c>
-      <c r="L6" s="9" t="n">
+      <c r="M6" s="3" t="n">
         <v>0.155508</v>
       </c>
-      <c r="M6" s="9" t="n">
+      <c r="N6" s="3" t="n">
         <v>0.2088</v>
       </c>
-      <c r="N6" s="9" t="n">
+      <c r="O6" s="3" t="n">
         <v>1.0372</v>
       </c>
-      <c r="O6" s="9" t="n">
+      <c r="P6" s="3" t="n">
         <v>1.1165</v>
       </c>
-      <c r="P6" s="9" t="n">
+      <c r="Q6" s="3" t="n">
         <v>1.021</v>
       </c>
-      <c r="Q6" s="9" t="n">
+      <c r="R6" s="3" t="n">
         <v>1.2379</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="7" s="6" spans="1:17">
-      <c r="A7" s="9" t="s">
+      <c r="S6" s="3" t="n"/>
+      <c r="T6" s="3" t="n"/>
+      <c r="U6" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="7" s="1" spans="1:21">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="3" t="n">
         <v>0.07896575404926399</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="3" t="n">
         <v>0.199859214832194</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="3" t="n">
         <v>0.09992960741609699</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="3" t="n">
         <v>0.11835914850235</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="3" t="n">
         <v>0.975455001181078</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="3" t="n">
         <v>1.23234516578126</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I7" s="3" t="n">
         <v>1.01783768226651</v>
       </c>
-      <c r="J7" s="9" t="n">
-        <v>1.144494475649426</v>
-      </c>
-      <c r="K7" s="9" t="n">
+      <c r="J7" s="3" t="n">
+        <v>1.144591082828287</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>1.137038720626879</v>
+      </c>
+      <c r="L7" s="3" t="n">
         <v>0.174948</v>
       </c>
-      <c r="L7" s="9" t="n">
+      <c r="M7" s="3" t="n">
         <v>0.07083100000000001</v>
       </c>
-      <c r="M7" s="9" t="n">
+      <c r="N7" s="3" t="n">
         <v>0.16</v>
       </c>
-      <c r="N7" s="9" t="n">
+      <c r="O7" s="3" t="n">
         <v>1.0394</v>
       </c>
-      <c r="O7" s="9" t="n">
+      <c r="P7" s="3" t="n">
         <v>1.0648</v>
       </c>
-      <c r="P7" s="9" t="n">
+      <c r="Q7" s="3" t="n">
         <v>1.0116</v>
       </c>
-      <c r="Q7" s="9" t="n">
+      <c r="R7" s="3" t="n">
         <v>1.1436</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="8" s="6" spans="1:17">
-      <c r="A8" s="9" t="s">
+      <c r="S7" s="3" t="n"/>
+      <c r="T7" s="3" t="n"/>
+      <c r="U7" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="8" s="1" spans="1:21">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="3" t="n">
         <v>0.298774127163334</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="3" t="n">
         <v>0.359876539667223</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="3" t="n">
         <v>0.179938269833612</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="3" t="n">
         <v>0.11320948600769</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="3" t="n">
         <v>1.12905201796646</v>
       </c>
-      <c r="H8" s="9" t="n">
+      <c r="H8" s="3" t="n">
         <v>1.20425258430016</v>
       </c>
-      <c r="I8" s="9" t="n">
+      <c r="I8" s="3" t="n">
         <v>1.026013472919775</v>
       </c>
-      <c r="J8" s="9" t="n">
-        <v>1.086701515661245</v>
-      </c>
-      <c r="K8" s="9" t="n">
+      <c r="J8" s="3" t="n">
+        <v>1.084241782817927</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>1.085522861146433</v>
+      </c>
+      <c r="L8" s="3" t="n">
         <v>0.401741</v>
       </c>
-      <c r="L8" s="9" t="n">
+      <c r="M8" s="3" t="n">
         <v>0.060529</v>
       </c>
-      <c r="M8" s="9" t="n">
+      <c r="N8" s="3" t="n">
         <v>0.213</v>
       </c>
-      <c r="N8" s="9" t="n">
+      <c r="O8" s="3" t="n">
         <v>1.1105</v>
       </c>
-      <c r="O8" s="9" t="n">
+      <c r="P8" s="3" t="n">
         <v>1.0372</v>
       </c>
-      <c r="P8" s="9" t="n">
+      <c r="Q8" s="3" t="n">
         <v>1.0424</v>
       </c>
-      <c r="Q8" s="9" t="n">
+      <c r="R8" s="3" t="n">
         <v>1.189</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="9" s="6" spans="1:17">
-      <c r="A9" s="9" t="s">
+      <c r="S8" s="3" t="n"/>
+      <c r="T8" s="3" t="n"/>
+      <c r="U8" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="9" s="1" spans="1:21">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="3" t="n">
         <v>0.111299125294673</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="3" t="n">
         <v>0.178940014052714</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="3" t="n">
         <v>0.0894700070263571</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="3" t="n">
         <v>0.52744734287262</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="3" t="n">
         <v>0.957672872047391</v>
       </c>
-      <c r="H9" s="9" t="n">
+      <c r="H9" s="3" t="n">
         <v>1.22792381540787</v>
       </c>
-      <c r="I9" s="9" t="n">
+      <c r="I9" s="3" t="n">
         <v>1.024159880570472</v>
       </c>
-      <c r="J9" s="9" t="n">
-        <v>1.180521939260828</v>
-      </c>
-      <c r="K9" s="9" t="n">
+      <c r="J9" s="3" t="n">
+        <v>1.17592172859677</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>1.173879500926583</v>
+      </c>
+      <c r="L9" s="3" t="n">
         <v>0.240387</v>
       </c>
-      <c r="L9" s="9" t="n">
+      <c r="M9" s="3" t="n">
         <v>0.134864</v>
       </c>
-      <c r="M9" s="9" t="n">
+      <c r="N9" s="3" t="n">
         <v>0.2258</v>
       </c>
-      <c r="N9" s="9" t="n">
+      <c r="O9" s="3" t="n">
         <v>1.0575</v>
       </c>
-      <c r="O9" s="9" t="n">
+      <c r="P9" s="3" t="n">
         <v>1.0788</v>
       </c>
-      <c r="P9" s="9" t="n">
+      <c r="Q9" s="3" t="n">
         <v>1.0268</v>
       </c>
-      <c r="Q9" s="9" t="n">
+      <c r="R9" s="3" t="n">
         <v>1.1663</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="10" s="6" spans="1:17">
-      <c r="A10" s="9" t="s">
+      <c r="S9" s="3" t="n"/>
+      <c r="T9" s="3" t="n"/>
+      <c r="U9" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="10" s="1" spans="1:21">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="3" t="n">
         <v>0.116057565692637</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="3" t="n">
         <v>0.252196211431202</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="3" t="n">
         <v>0.126098105715601</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="3" t="n">
         <v>0.115479409694672</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="3" t="n">
         <v>0.873292988211498</v>
       </c>
-      <c r="H10" s="9" t="n">
+      <c r="H10" s="3" t="n">
         <v>1.25303536562701</v>
       </c>
-      <c r="I10" s="9" t="n">
+      <c r="I10" s="3" t="n">
         <v>1.030880669525882</v>
       </c>
-      <c r="J10" s="9" t="n">
-        <v>1.210704610950029</v>
-      </c>
-      <c r="K10" s="9" t="n">
+      <c r="J10" s="3" t="n">
+        <v>1.22137354376799</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>1.218228881030733</v>
+      </c>
+      <c r="L10" s="3" t="n">
         <v>0.206925</v>
       </c>
-      <c r="L10" s="9" t="n">
+      <c r="M10" s="3" t="n">
         <v>0.125784</v>
       </c>
-      <c r="M10" s="9" t="n">
+      <c r="N10" s="3" t="n">
         <v>0.2255</v>
       </c>
-      <c r="N10" s="9" t="n">
+      <c r="O10" s="3" t="n">
         <v>1.0526</v>
       </c>
-      <c r="O10" s="9" t="n">
+      <c r="P10" s="3" t="n">
         <v>1.1254</v>
       </c>
-      <c r="P10" s="9" t="n">
+      <c r="Q10" s="3" t="n">
         <v>1.0313</v>
       </c>
-      <c r="Q10" s="9" t="n">
+      <c r="R10" s="3" t="n">
         <v>1.178</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="11" s="6" spans="1:17">
-      <c r="A11" s="9" t="s">
+      <c r="S10" s="3" t="n"/>
+      <c r="T10" s="3" t="n"/>
+      <c r="U10" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="11" s="1" spans="1:21">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="3" t="n">
         <v>0.0471674734594574</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="3" t="n">
         <v>0.134544612711812</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="3" t="n">
         <v>0.067272306355906</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="3" t="n">
         <v>0.167227625846863</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="3" t="n">
         <v>0.836596971105546</v>
       </c>
-      <c r="H11" s="9" t="n">
+      <c r="H11" s="3" t="n">
         <v>1.25397764068268</v>
       </c>
-      <c r="I11" s="9" t="n">
+      <c r="I11" s="3" t="n">
         <v>1.015753613372098</v>
       </c>
-      <c r="J11" s="9" t="n">
-        <v>1.167960670679868</v>
-      </c>
-      <c r="K11" s="9" t="n">
+      <c r="J11" s="3" t="n">
+        <v>1.172545816538396</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>1.170408637195833</v>
+      </c>
+      <c r="L11" s="3" t="n">
         <v>0.148963</v>
       </c>
-      <c r="L11" s="9" t="n">
+      <c r="M11" s="3" t="n">
         <v>0.060044</v>
       </c>
-      <c r="M11" s="9" t="n">
+      <c r="N11" s="3" t="n">
         <v>0.1577</v>
       </c>
-      <c r="N11" s="9" t="n">
+      <c r="O11" s="3" t="n">
         <v>1.063</v>
       </c>
-      <c r="O11" s="9" t="n">
+      <c r="P11" s="3" t="n">
         <v>1.1247</v>
       </c>
-      <c r="P11" s="9" t="n">
+      <c r="Q11" s="3" t="n">
         <v>1.0092</v>
       </c>
-      <c r="Q11" s="9" t="n">
+      <c r="R11" s="3" t="n">
         <v>1.1533</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="12" s="6" spans="1:17">
-      <c r="A12" s="9" t="s">
+      <c r="S11" s="3" t="n"/>
+      <c r="T11" s="3" t="n"/>
+      <c r="U11" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="12" s="1" spans="1:21">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="3" t="n">
         <v>0.415202110528887</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="3" t="n">
         <v>0.760248367489364</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="D12" s="3" t="n">
         <v>0.380124183744682</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="E12" s="3" t="n">
         <v>1.09006348633508</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="3" t="n">
         <v>0.638217329978943</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="3" t="n">
         <v>1.03723883368588</v>
       </c>
-      <c r="H12" s="9" t="n">
+      <c r="H12" s="3" t="n">
         <v>1.25914898531896</v>
       </c>
-      <c r="I12" s="9" t="n">
+      <c r="I12" s="3" t="n">
         <v>1.065713607559805</v>
       </c>
-      <c r="J12" s="9" t="n">
-        <v>1.181897853377302</v>
-      </c>
-      <c r="K12" s="9" t="n">
+      <c r="J12" s="3" t="n">
+        <v>1.180196776949876</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>1.177754654106873</v>
+      </c>
+      <c r="L12" s="3" t="n">
         <v>0.614821</v>
       </c>
-      <c r="L12" s="9" t="n">
+      <c r="M12" s="3" t="n">
         <v>0.32381</v>
       </c>
-      <c r="M12" s="9" t="n">
+      <c r="N12" s="3" t="n">
         <v>0.3459</v>
       </c>
-      <c r="N12" s="9" t="n">
+      <c r="O12" s="3" t="n">
         <v>1.0993</v>
       </c>
-      <c r="O12" s="9" t="n">
+      <c r="P12" s="3" t="n">
         <v>1.1193</v>
       </c>
-      <c r="P12" s="9" t="n">
+      <c r="Q12" s="3" t="n">
         <v>1.113</v>
       </c>
-      <c r="Q12" s="9" t="n">
+      <c r="R12" s="3" t="n">
         <v>1.2424</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="13" s="6" spans="1:17">
-      <c r="A13" s="9" t="s">
+      <c r="S12" s="3" t="n"/>
+      <c r="T12" s="3" t="n"/>
+      <c r="U12" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="13" s="1" spans="1:21">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="3" t="n">
         <v>0.715345912680222</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="3" t="n">
         <v>0.863022781932823</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="3" t="n">
         <v>0.431511390966412</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E13" s="3" t="n">
         <v>0.5984331364786309</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F13" s="3" t="n">
         <v>0.218058407306671</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="3" t="n">
         <v>1.03240729686187</v>
       </c>
-      <c r="H13" s="9" t="n">
+      <c r="H13" s="3" t="n">
         <v>1.22964708095624</v>
       </c>
-      <c r="I13" s="9" t="n">
+      <c r="I13" s="3" t="n">
         <v>1.081270904369236</v>
       </c>
-      <c r="J13" s="9" t="n">
-        <v>1.140899000601917</v>
-      </c>
-      <c r="K13" s="9" t="n">
+      <c r="J13" s="3" t="n">
+        <v>1.136281299572397</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>1.140940723394079</v>
+      </c>
+      <c r="L13" s="3" t="n">
         <v>0.7687850000000001</v>
       </c>
-      <c r="L13" s="9" t="n">
+      <c r="M13" s="3" t="n">
         <v>0.195094</v>
       </c>
-      <c r="M13" s="9" t="n">
+      <c r="N13" s="3" t="n">
         <v>0.3455</v>
       </c>
-      <c r="N13" s="9" t="n">
+      <c r="O13" s="3" t="n">
         <v>1.1343</v>
       </c>
-      <c r="O13" s="9" t="n">
+      <c r="P13" s="3" t="n">
         <v>1.0904</v>
       </c>
-      <c r="P13" s="9" t="n">
+      <c r="Q13" s="3" t="n">
         <v>1.182</v>
       </c>
-      <c r="Q13" s="9" t="n">
+      <c r="R13" s="3" t="n">
         <v>1.2539</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="14" s="6" spans="1:17">
-      <c r="A14" s="9" t="s">
+      <c r="S13" s="3" t="n"/>
+      <c r="T13" s="3" t="n"/>
+      <c r="U13" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="14" s="1" spans="1:21">
+      <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="3" t="n">
         <v>0.703927943731874</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="3" t="n">
         <v>1.03554450655714</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="3" t="n">
         <v>0.517772253278569</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="3" t="n">
         <v>0.700554592287934</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="3" t="n">
         <v>0.290927052497864</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="3" t="n">
         <v>1.07456223173007</v>
       </c>
-      <c r="H14" s="9" t="n">
+      <c r="H14" s="3" t="n">
         <v>1.27994095276332</v>
       </c>
-      <c r="I14" s="9" t="n">
+      <c r="I14" s="3" t="n">
         <v>1.093213582129042</v>
       </c>
-      <c r="J14" s="9" t="n">
-        <v>1.156876246114461</v>
-      </c>
-      <c r="K14" s="9" t="n">
+      <c r="J14" s="3" t="n">
+        <v>1.156155502888388</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>1.162011186097265</v>
+      </c>
+      <c r="L14" s="3" t="n">
         <v>0.762088</v>
       </c>
-      <c r="L14" s="9" t="n">
+      <c r="M14" s="3" t="n">
         <v>0.486904</v>
       </c>
-      <c r="M14" s="9" t="n">
+      <c r="N14" s="3" t="n">
         <v>0.4104</v>
       </c>
-      <c r="N14" s="9" t="n">
+      <c r="O14" s="3" t="n">
         <v>1.1465</v>
       </c>
-      <c r="O14" s="9" t="n">
+      <c r="P14" s="3" t="n">
         <v>1.132</v>
       </c>
-      <c r="P14" s="9" t="n">
+      <c r="Q14" s="3" t="n">
         <v>1.1808</v>
       </c>
-      <c r="Q14" s="9" t="n">
+      <c r="R14" s="3" t="n">
         <v>1.2271</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="15" s="6" spans="1:17">
-      <c r="A15" s="9" t="s">
+      <c r="S14" s="3" t="n"/>
+      <c r="T14" s="3" t="n"/>
+      <c r="U14" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="15" s="1" spans="1:21">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="3" t="n">
         <v>0.08779639202419801</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="3" t="n">
         <v>0.191881439298265</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="3" t="n">
         <v>0.0959407196491326</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="3" t="n">
         <v>0.0615205764770508</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="3" t="n">
         <v>0.978973113859003</v>
       </c>
-      <c r="H15" s="9" t="n">
+      <c r="H15" s="3" t="n">
         <v>1.20061389900344</v>
       </c>
-      <c r="I15" s="9" t="n">
+      <c r="I15" s="3" t="n">
         <v>1.009722280522787</v>
       </c>
-      <c r="J15" s="9" t="n">
-        <v>1.109795987717667</v>
-      </c>
-      <c r="K15" s="9" t="n">
+      <c r="J15" s="3" t="n">
+        <v>1.114671173241136</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>1.108356985744908</v>
+      </c>
+      <c r="L15" s="3" t="n">
         <v>0.185403</v>
       </c>
-      <c r="L15" s="9" t="n">
+      <c r="M15" s="3" t="n">
         <v>0.030539</v>
       </c>
-      <c r="M15" s="9" t="n">
+      <c r="N15" s="3" t="n">
         <v>0.1384</v>
       </c>
-      <c r="N15" s="9" t="n">
+      <c r="O15" s="3" t="n">
         <v>1.0502</v>
       </c>
-      <c r="O15" s="9" t="n">
+      <c r="P15" s="3" t="n">
         <v>1.0504</v>
       </c>
-      <c r="P15" s="9" t="n">
+      <c r="Q15" s="3" t="n">
         <v>1.0111</v>
       </c>
-      <c r="Q15" s="9" t="n">
+      <c r="R15" s="3" t="n">
         <v>1.1606</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="16" s="6" spans="1:17">
-      <c r="A16" s="9" t="s">
+      <c r="S15" s="3" t="n"/>
+      <c r="T15" s="3" t="n"/>
+      <c r="U15" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="16" s="1" spans="1:21">
+      <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="3" t="n">
         <v>0.0520271354511473</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="3" t="n">
         <v>0.212337468655482</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D16" s="3" t="n">
         <v>0.106168734327741</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F16" s="3" t="n">
         <v>0.216255187988281</v>
       </c>
-      <c r="G16" s="9" t="n">
+      <c r="G16" s="3" t="n">
         <v>1.00360406021788</v>
       </c>
-      <c r="H16" s="9" t="n">
+      <c r="H16" s="3" t="n">
         <v>1.27647414874444</v>
       </c>
-      <c r="I16" s="9" t="n">
+      <c r="I16" s="3" t="n">
         <v>1.016630596538889</v>
       </c>
-      <c r="J16" s="9" t="n">
-        <v>1.166964862413099</v>
-      </c>
-      <c r="K16" s="9" t="n">
+      <c r="J16" s="3" t="n">
+        <v>1.167514082251992</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>1.167440938202043</v>
+      </c>
+      <c r="L16" s="3" t="n">
         <v>0.148463</v>
       </c>
-      <c r="L16" s="9" t="n">
+      <c r="M16" s="3" t="n">
         <v>0.06883300000000001</v>
       </c>
-      <c r="M16" s="9" t="n">
+      <c r="N16" s="3" t="n">
         <v>0.1688</v>
       </c>
-      <c r="N16" s="9" t="n">
+      <c r="O16" s="3" t="n">
         <v>1.0513</v>
       </c>
-      <c r="O16" s="9" t="n">
+      <c r="P16" s="3" t="n">
         <v>1.0557</v>
       </c>
-      <c r="P16" s="9" t="n">
+      <c r="Q16" s="3" t="n">
         <v>1.0115</v>
       </c>
-      <c r="Q16" s="9" t="n">
+      <c r="R16" s="3" t="n">
         <v>1.122</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="17" s="6" spans="1:17">
-      <c r="A17" s="9" t="s">
+      <c r="S16" s="3" t="n"/>
+      <c r="T16" s="3" t="n"/>
+      <c r="U16" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="17" s="1" spans="1:21">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="3" t="n">
         <v>0.146073159757231</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="3" t="n">
         <v>0.253057559758552</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="D17" s="3" t="n">
         <v>0.126528779879276</v>
       </c>
-      <c r="E17" s="9" t="n">
+      <c r="E17" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="9" t="n">
+      <c r="F17" s="3" t="n">
         <v>0.207625806331634</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="G17" s="3" t="n">
         <v>1.03683772760733</v>
       </c>
-      <c r="H17" s="9" t="n">
+      <c r="H17" s="3" t="n">
         <v>1.20460705480704</v>
       </c>
-      <c r="I17" s="9" t="n">
+      <c r="I17" s="3" t="n">
         <v>1.013577038099465</v>
       </c>
-      <c r="J17" s="9" t="n">
-        <v>1.147324678790084</v>
-      </c>
-      <c r="K17" s="9" t="n">
+      <c r="J17" s="3" t="n">
+        <v>1.143326792918835</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>1.140524904402731</v>
+      </c>
+      <c r="L17" s="3" t="n">
         <v>0.271205</v>
       </c>
-      <c r="L17" s="9" t="n">
+      <c r="M17" s="3" t="n">
         <v>0.082303</v>
       </c>
-      <c r="M17" s="9" t="n">
+      <c r="N17" s="3" t="n">
         <v>0.2046</v>
       </c>
-      <c r="N17" s="9" t="n">
+      <c r="O17" s="3" t="n">
         <v>1.0826</v>
       </c>
-      <c r="O17" s="9" t="n">
+      <c r="P17" s="3" t="n">
         <v>1.1034</v>
       </c>
-      <c r="P17" s="9" t="n">
+      <c r="Q17" s="3" t="n">
         <v>1.028</v>
       </c>
-      <c r="Q17" s="9" t="n">
+      <c r="R17" s="3" t="n">
         <v>1.1885</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="18" s="6" spans="1:17">
-      <c r="A18" s="9" t="s">
+      <c r="S17" s="3" t="n"/>
+      <c r="T17" s="3" t="n"/>
+      <c r="U17" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="18" s="1" spans="1:21">
+      <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="3" t="n">
         <v>0.0909963937107465</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="3" t="n">
         <v>0.230274461426996</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D18" s="3" t="n">
         <v>0.115137230713498</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E18" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F18" s="3" t="n">
         <v>0.0326913595199585</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="3" t="n">
         <v>1.00607607898375</v>
       </c>
-      <c r="H18" s="9" t="n">
+      <c r="H18" s="3" t="n">
         <v>1.20572716708123</v>
       </c>
-      <c r="I18" s="9" t="n">
+      <c r="I18" s="3" t="n">
         <v>1.010519875409274</v>
       </c>
-      <c r="J18" s="9" t="n">
-        <v>1.1068482829518</v>
-      </c>
-      <c r="K18" s="9" t="n">
+      <c r="J18" s="3" t="n">
+        <v>1.108521499293542</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>1.105312056222487</v>
+      </c>
+      <c r="L18" s="3" t="n">
         <v>0.170425</v>
       </c>
-      <c r="L18" s="9" t="n">
+      <c r="M18" s="3" t="n">
         <v>0.076034</v>
       </c>
-      <c r="M18" s="9" t="n">
+      <c r="N18" s="3" t="n">
         <v>0.1448</v>
       </c>
-      <c r="N18" s="9" t="n">
+      <c r="O18" s="3" t="n">
         <v>1.0522</v>
       </c>
-      <c r="O18" s="9" t="n">
+      <c r="P18" s="3" t="n">
         <v>1.0563</v>
       </c>
-      <c r="P18" s="9" t="n">
+      <c r="Q18" s="3" t="n">
         <v>1.0134</v>
       </c>
-      <c r="Q18" s="9" t="n">
+      <c r="R18" s="3" t="n">
         <v>1.1463</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="19" s="6" spans="1:17">
-      <c r="A19" s="9" t="s">
+      <c r="S18" s="3" t="n"/>
+      <c r="T18" s="3" t="n"/>
+      <c r="U18" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="19" s="1" spans="1:21">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="3" t="n">
         <v>0.186152474968127</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="3" t="n">
         <v>0.296310904382165</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="3" t="n">
         <v>0.148155452191083</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="3" t="n">
         <v>0.0101142631155099</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="3" t="n">
         <v>0.181562900543213</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="3" t="n">
         <v>1.10487928257486</v>
       </c>
-      <c r="H19" s="9" t="n">
+      <c r="H19" s="3" t="n">
         <v>1.21906204819896</v>
       </c>
-      <c r="I19" s="9" t="n">
+      <c r="I19" s="3" t="n">
         <v>1.02049363391443</v>
       </c>
-      <c r="J19" s="9" t="n">
-        <v>1.106357484977613</v>
-      </c>
-      <c r="K19" s="9" t="n">
+      <c r="J19" s="3" t="n">
+        <v>1.105247127933485</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>1.10434609209217</v>
+      </c>
+      <c r="L19" s="3" t="n">
         <v>0.299456</v>
       </c>
-      <c r="L19" s="9" t="n">
+      <c r="M19" s="3" t="n">
         <v>0.135394</v>
       </c>
-      <c r="M19" s="9" t="n">
+      <c r="N19" s="3" t="n">
         <v>0.223</v>
       </c>
-      <c r="N19" s="9" t="n">
+      <c r="O19" s="3" t="n">
         <v>1.0734</v>
       </c>
-      <c r="O19" s="9" t="n">
+      <c r="P19" s="3" t="n">
         <v>1.0736</v>
       </c>
-      <c r="P19" s="9" t="n">
+      <c r="Q19" s="3" t="n">
         <v>1.0206</v>
       </c>
-      <c r="Q19" s="9" t="n">
+      <c r="R19" s="3" t="n">
         <v>1.1629</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="20" s="6" spans="1:17">
-      <c r="A20" s="9" t="s">
+      <c r="S19" s="3" t="n"/>
+      <c r="T19" s="3" t="n"/>
+      <c r="U19" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="20" s="1" spans="1:21">
+      <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="3" t="n">
         <v>0.615157631696464</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="3" t="n">
         <v>0.442436169880498</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="3" t="n">
         <v>0.221218084940249</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E20" s="3" t="n">
         <v>1.69893096910542</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="3" t="n">
         <v>0.262205719947815</v>
       </c>
-      <c r="G20" s="9" t="n">
+      <c r="G20" s="3" t="n">
         <v>1.02548721641659</v>
       </c>
-      <c r="H20" s="9" t="n">
+      <c r="H20" s="3" t="n">
         <v>1.20353372574118</v>
       </c>
-      <c r="I20" s="9" t="n">
+      <c r="I20" s="3" t="n">
         <v>1.067109122040408</v>
       </c>
-      <c r="J20" s="9" t="n">
-        <v>1.115322659177306</v>
-      </c>
-      <c r="K20" s="9" t="n">
+      <c r="J20" s="3" t="n">
+        <v>1.113940191733861</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>1.113117333230944</v>
+      </c>
+      <c r="L20" s="3" t="n">
         <v>0.6697650000000001</v>
       </c>
-      <c r="L20" s="9" t="n">
+      <c r="M20" s="3" t="n">
         <v>0.153087</v>
       </c>
-      <c r="M20" s="9" t="n">
+      <c r="N20" s="3" t="n">
         <v>0.3049</v>
       </c>
-      <c r="N20" s="9" t="n">
+      <c r="O20" s="3" t="n">
         <v>1.1183</v>
       </c>
-      <c r="O20" s="9" t="n">
+      <c r="P20" s="3" t="n">
         <v>1.0985</v>
       </c>
-      <c r="P20" s="9" t="n">
+      <c r="Q20" s="3" t="n">
         <v>1.084</v>
       </c>
-      <c r="Q20" s="9" t="n">
+      <c r="R20" s="3" t="n">
         <v>1.1657</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="21" s="6" spans="1:17">
-      <c r="A21" s="9" t="s">
+      <c r="S20" s="3" t="n"/>
+      <c r="T20" s="3" t="n"/>
+      <c r="U20" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="21" s="1" spans="1:21">
+      <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="3" t="n">
         <v>0.337810594667633</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="3" t="n">
         <v>0.308135636714206</v>
       </c>
-      <c r="D21" s="9" t="n">
+      <c r="D21" s="3" t="n">
         <v>0.154067818357103</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="3" t="n">
         <v>0.435824079031301</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="3" t="n">
         <v>0.365136504173279</v>
       </c>
-      <c r="G21" s="9" t="n">
+      <c r="G21" s="3" t="n">
         <v>0.934844557283936</v>
       </c>
-      <c r="H21" s="9" t="n">
+      <c r="H21" s="3" t="n">
         <v>1.19304177015298</v>
       </c>
-      <c r="I21" s="9" t="n">
+      <c r="I21" s="3" t="n">
         <v>1.043722767395279</v>
       </c>
-      <c r="J21" s="9" t="n">
-        <v>1.089657485359143</v>
-      </c>
-      <c r="K21" s="9" t="n">
+      <c r="J21" s="3" t="n">
+        <v>1.091458974660647</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>1.090407497346605</v>
+      </c>
+      <c r="L21" s="3" t="n">
         <v>0.440462</v>
       </c>
-      <c r="L21" s="9" t="n">
+      <c r="M21" s="3" t="n">
         <v>0.160229</v>
       </c>
-      <c r="M21" s="9" t="n">
+      <c r="N21" s="3" t="n">
         <v>0.2652</v>
       </c>
-      <c r="N21" s="9" t="n">
+      <c r="O21" s="3" t="n">
         <v>1.0279</v>
       </c>
-      <c r="O21" s="9" t="n">
+      <c r="P21" s="3" t="n">
         <v>0.99637</v>
       </c>
-      <c r="P21" s="9" t="n">
+      <c r="Q21" s="3" t="n">
         <v>1.0391</v>
       </c>
-      <c r="Q21" s="9" t="n">
+      <c r="R21" s="3" t="n">
         <v>1.0938</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="22" s="6" spans="1:17">
-      <c r="A22" s="9" t="s">
+      <c r="S21" s="3" t="n"/>
+      <c r="T21" s="3" t="n"/>
+      <c r="U21" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="22" s="1" spans="1:21">
+      <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="3" t="n">
         <v>0.249555920235367</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="3" t="n">
         <v>0.410454204351315</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="3" t="n">
         <v>0.205227102175658</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E22" s="3" t="n">
         <v>1.43490747478021</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="3" t="n">
         <v>0.466625034809112</v>
       </c>
-      <c r="G22" s="9" t="n">
+      <c r="G22" s="3" t="n">
         <v>0.982239587719443</v>
       </c>
-      <c r="H22" s="9" t="n">
+      <c r="H22" s="3" t="n">
         <v>1.24069196838035</v>
       </c>
-      <c r="I22" s="9" t="n">
+      <c r="I22" s="3" t="n">
         <v>1.041440980472908</v>
       </c>
-      <c r="J22" s="9" t="n">
-        <v>1.133833681109299</v>
-      </c>
-      <c r="K22" s="9" t="n">
+      <c r="J22" s="3" t="n">
+        <v>1.133073031965162</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>1.131821906681617</v>
+      </c>
+      <c r="L22" s="3" t="n">
         <v>0.397659</v>
       </c>
-      <c r="L22" s="9" t="n">
+      <c r="M22" s="3" t="n">
         <v>0.291695</v>
       </c>
-      <c r="M22" s="9" t="n">
+      <c r="N22" s="3" t="n">
         <v>0.2621</v>
       </c>
-      <c r="N22" s="9" t="n">
+      <c r="O22" s="3" t="n">
         <v>1.0747</v>
       </c>
-      <c r="O22" s="9" t="n">
+      <c r="P22" s="3" t="n">
         <v>1.1534</v>
       </c>
-      <c r="P22" s="9" t="n">
+      <c r="Q22" s="3" t="n">
         <v>1.0622</v>
       </c>
-      <c r="Q22" s="9" t="n">
+      <c r="R22" s="3" t="n">
         <v>1.2205</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="23" s="6" spans="1:17">
-      <c r="A23" s="9" t="s">
+      <c r="S22" s="3" t="n"/>
+      <c r="T22" s="3" t="n"/>
+      <c r="U22" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="23" s="1" spans="1:21">
+      <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="3" t="n">
         <v>0.691086894786279</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="3" t="n">
         <v>1.20356453738638</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="3" t="n">
         <v>0.601782268693192</v>
       </c>
-      <c r="E23" s="9" t="n">
+      <c r="E23" s="3" t="n">
         <v>0.521443649664157</v>
       </c>
-      <c r="F23" s="9" t="n">
+      <c r="F23" s="3" t="n">
         <v>0.299609959125519</v>
       </c>
-      <c r="G23" s="9" t="n">
+      <c r="G23" s="3" t="n">
         <v>0.985073077600542</v>
       </c>
-      <c r="H23" s="9" t="n">
+      <c r="H23" s="3" t="n">
         <v>1.40849129286373</v>
       </c>
-      <c r="I23" s="9" t="n">
+      <c r="I23" s="3" t="n">
         <v>1.157250283470321</v>
       </c>
-      <c r="J23" s="9" t="n">
-        <v>1.184597988702508</v>
-      </c>
-      <c r="K23" s="9" t="n">
+      <c r="J23" s="3" t="n">
+        <v>1.187740530319718</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>1.190868696218362</v>
+      </c>
+      <c r="L23" s="3" t="n">
         <v>0.78526</v>
       </c>
-      <c r="L23" s="9" t="n">
+      <c r="M23" s="3" t="n">
         <v>0.614273</v>
       </c>
-      <c r="M23" s="9" t="n">
+      <c r="N23" s="3" t="n">
         <v>0.4744</v>
       </c>
-      <c r="N23" s="9" t="n">
+      <c r="O23" s="3" t="n">
         <v>1.1302</v>
       </c>
-      <c r="O23" s="9" t="n">
+      <c r="P23" s="3" t="n">
         <v>1.2876</v>
       </c>
-      <c r="P23" s="9" t="n">
+      <c r="Q23" s="3" t="n">
         <v>1.2569</v>
       </c>
-      <c r="Q23" s="9" t="n">
+      <c r="R23" s="3" t="n">
         <v>1.4996</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="24" s="6" spans="1:17">
-      <c r="A24" s="9" t="s">
+      <c r="S23" s="3" t="n"/>
+      <c r="T23" s="3" t="n"/>
+      <c r="U23" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="24" s="1" spans="1:21">
+      <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="3" t="n">
         <v>0.540754542132273</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="C24" s="3" t="n">
         <v>0.7417011887696709</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="3" t="n">
         <v>0.370850594384835</v>
       </c>
-      <c r="E24" s="9" t="n">
+      <c r="E24" s="3" t="n">
         <v>1.32950065607571</v>
       </c>
-      <c r="F24" s="9" t="n">
+      <c r="F24" s="3" t="n">
         <v>0.327764689922333</v>
       </c>
-      <c r="G24" s="9" t="n">
+      <c r="G24" s="3" t="n">
         <v>0.999094573080154</v>
       </c>
-      <c r="H24" s="9" t="n">
+      <c r="H24" s="3" t="n">
         <v>1.30888190789662</v>
       </c>
-      <c r="I24" s="9" t="n">
+      <c r="I24" s="3" t="n">
         <v>1.106548964437539</v>
       </c>
-      <c r="J24" s="9" t="n">
-        <v>1.196097283457223</v>
-      </c>
-      <c r="K24" s="9" t="n">
+      <c r="J24" s="3" t="n">
+        <v>1.199323058525193</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>1.195783280446123</v>
+      </c>
+      <c r="L24" s="3" t="n">
         <v>0.657681</v>
       </c>
-      <c r="L24" s="9" t="n">
+      <c r="M24" s="3" t="n">
         <v>0.443082</v>
       </c>
-      <c r="M24" s="9" t="n">
+      <c r="N24" s="3" t="n">
         <v>0.4001</v>
       </c>
-      <c r="N24" s="9" t="n">
+      <c r="O24" s="3" t="n">
         <v>1.1273</v>
       </c>
-      <c r="O24" s="9" t="n">
+      <c r="P24" s="3" t="n">
         <v>1.1646</v>
       </c>
-      <c r="P24" s="9" t="n">
+      <c r="Q24" s="3" t="n">
         <v>1.1961</v>
       </c>
-      <c r="Q24" s="9" t="n">
+      <c r="R24" s="3" t="n">
         <v>1.3433</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="25" s="6" spans="1:17">
-      <c r="A25" s="9" t="s">
+      <c r="S24" s="3" t="n"/>
+      <c r="T24" s="3" t="n"/>
+      <c r="U24" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="25" s="1" spans="1:21">
+      <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="3" t="n">
         <v>0.657217398209252</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C25" s="3" t="n">
         <v>0.746295641040723</v>
       </c>
-      <c r="D25" s="9" t="n">
+      <c r="D25" s="3" t="n">
         <v>0.373147820520361</v>
       </c>
-      <c r="E25" s="9" t="n">
+      <c r="E25" s="3" t="n">
         <v>1.04395180512509</v>
       </c>
-      <c r="F25" s="9" t="n">
+      <c r="F25" s="3" t="n">
         <v>0.451439201831818</v>
       </c>
-      <c r="G25" s="9" t="n">
+      <c r="G25" s="3" t="n">
         <v>0.91990051694775</v>
       </c>
-      <c r="H25" s="9" t="n">
+      <c r="H25" s="3" t="n">
         <v>1.21880010892193</v>
       </c>
-      <c r="I25" s="9" t="n">
+      <c r="I25" s="3" t="n">
         <v>1.087587763696553</v>
       </c>
-      <c r="J25" s="9" t="n">
-        <v>1.096800058158623</v>
-      </c>
-      <c r="K25" s="9" t="n">
+      <c r="J25" s="3" t="n">
+        <v>1.09714456301779</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>1.097133288136552</v>
+      </c>
+      <c r="L25" s="3" t="n">
         <v>0.7262110000000001</v>
       </c>
-      <c r="L25" s="9" t="n">
+      <c r="M25" s="3" t="n">
         <v>0.477882</v>
       </c>
-      <c r="M25" s="9" t="n">
+      <c r="N25" s="3" t="n">
         <v>0.3316</v>
       </c>
-      <c r="N25" s="9" t="n">
+      <c r="O25" s="3" t="n">
         <v>1.119</v>
       </c>
-      <c r="O25" s="9" t="n">
+      <c r="P25" s="3" t="n">
         <v>1.0508</v>
       </c>
-      <c r="P25" s="9" t="n">
+      <c r="Q25" s="3" t="n">
         <v>1.1273</v>
       </c>
-      <c r="Q25" s="9" t="n">
+      <c r="R25" s="3" t="n">
         <v>1.1346</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="26" s="6" spans="1:17">
-      <c r="A26" s="9" t="s">
+      <c r="S25" s="3" t="n"/>
+      <c r="T25" s="3" t="n"/>
+      <c r="U25" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="26" s="1" spans="1:21">
+      <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="3" t="n">
         <v>0.894446261451062</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C26" s="3" t="n">
         <v>1.38071300531796</v>
       </c>
-      <c r="D26" s="9" t="n">
+      <c r="D26" s="3" t="n">
         <v>0.69035650265898</v>
       </c>
-      <c r="E26" s="9" t="n">
+      <c r="E26" s="3" t="n">
         <v>1.05843803095062</v>
       </c>
-      <c r="F26" s="9" t="n">
+      <c r="F26" s="3" t="n">
         <v>0.447205543518066</v>
       </c>
-      <c r="G26" s="9" t="n">
+      <c r="G26" s="3" t="n">
         <v>1.17537018296023</v>
       </c>
-      <c r="H26" s="9" t="n">
+      <c r="H26" s="3" t="n">
         <v>1.28960646820381</v>
       </c>
-      <c r="I26" s="9" t="n">
+      <c r="I26" s="3" t="n">
         <v>1.16585959566974</v>
       </c>
-      <c r="J26" s="9" t="n">
-        <v>1.220778456501008</v>
-      </c>
-      <c r="K26" s="9" t="n">
+      <c r="J26" s="3" t="n">
+        <v>1.218730359861518</v>
+      </c>
+      <c r="K26" s="3" t="n">
+        <v>1.218283995535589</v>
+      </c>
+      <c r="L26" s="3" t="n">
         <v>0.930828</v>
       </c>
-      <c r="L26" s="9" t="n">
+      <c r="M26" s="3" t="n">
         <v>0.53778</v>
       </c>
-      <c r="M26" s="9" t="n">
+      <c r="N26" s="3" t="n">
         <v>0.5283</v>
       </c>
-      <c r="N26" s="9" t="n">
+      <c r="O26" s="3" t="n">
         <v>1.2588</v>
       </c>
-      <c r="O26" s="9" t="n">
+      <c r="P26" s="3" t="n">
         <v>1.2547</v>
       </c>
-      <c r="P26" s="9" t="n">
+      <c r="Q26" s="3" t="n">
         <v>1.3138</v>
       </c>
-      <c r="Q26" s="9" t="n">
+      <c r="R26" s="3" t="n">
         <v>1.3339</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="27" s="6" spans="1:17">
-      <c r="A27" s="9" t="s">
+      <c r="S26" s="3" t="n"/>
+      <c r="T26" s="3" t="n"/>
+      <c r="U26" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="27" s="1" spans="1:21">
+      <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="9" t="n">
+      <c r="B27" s="3" t="n">
         <v>0.832707076995441</v>
       </c>
-      <c r="C27" s="9" t="n">
+      <c r="C27" s="3" t="n">
         <v>1.21080850101592</v>
       </c>
-      <c r="D27" s="9" t="n">
+      <c r="D27" s="3" t="n">
         <v>0.605404250507958</v>
       </c>
-      <c r="E27" s="9" t="n">
+      <c r="E27" s="3" t="n">
         <v>1.04400810366188</v>
       </c>
-      <c r="F27" s="9" t="n">
+      <c r="F27" s="3" t="n">
         <v>0.473297297954559</v>
       </c>
-      <c r="G27" s="9" t="n">
+      <c r="G27" s="3" t="n">
         <v>1.06823477285625</v>
       </c>
-      <c r="H27" s="9" t="n">
+      <c r="H27" s="3" t="n">
         <v>1.33770468250615</v>
       </c>
-      <c r="I27" s="9" t="n">
+      <c r="I27" s="3" t="n">
         <v>1.134731648162572</v>
       </c>
-      <c r="J27" s="9" t="n">
-        <v>1.172236699363626</v>
-      </c>
-      <c r="K27" s="9" t="n">
+      <c r="J27" s="3" t="n">
+        <v>1.174532865705256</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>1.172406890345087</v>
+      </c>
+      <c r="L27" s="3" t="n">
         <v>0.889093</v>
       </c>
-      <c r="L27" s="9" t="n">
+      <c r="M27" s="3" t="n">
         <v>0.382927</v>
       </c>
-      <c r="M27" s="9" t="n">
+      <c r="N27" s="3" t="n">
         <v>0.5133</v>
       </c>
-      <c r="N27" s="9" t="n">
+      <c r="O27" s="3" t="n">
         <v>1.2218</v>
       </c>
-      <c r="O27" s="9" t="n">
+      <c r="P27" s="3" t="n">
         <v>1.2131</v>
       </c>
-      <c r="P27" s="9" t="n">
+      <c r="Q27" s="3" t="n">
         <v>1.2971</v>
       </c>
-      <c r="Q27" s="9" t="n">
+      <c r="R27" s="3" t="n">
         <v>1.264</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="28" s="6" spans="1:17">
-      <c r="A28" s="9" t="s">
+      <c r="S27" s="3" t="n"/>
+      <c r="T27" s="3" t="n"/>
+      <c r="U27" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="28" s="1" spans="1:21">
+      <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="9" t="n">
+      <c r="B28" s="3" t="n">
         <v>0.664532967548201</v>
       </c>
-      <c r="C28" s="9" t="n">
+      <c r="C28" s="3" t="n">
         <v>1.33216804604639</v>
       </c>
-      <c r="D28" s="9" t="n">
+      <c r="D28" s="3" t="n">
         <v>0.666084023023197</v>
       </c>
-      <c r="E28" s="9" t="n">
+      <c r="E28" s="3" t="n">
         <v>0.204435014879304</v>
       </c>
-      <c r="F28" s="9" t="n">
+      <c r="F28" s="3" t="n">
         <v>0.522755265235901</v>
       </c>
-      <c r="G28" s="9" t="n">
+      <c r="G28" s="3" t="n">
         <v>1.06539834120621</v>
       </c>
-      <c r="H28" s="9" t="n">
+      <c r="H28" s="3" t="n">
         <v>1.32879696596175</v>
       </c>
-      <c r="I28" s="9" t="n">
+      <c r="I28" s="3" t="n">
         <v>1.115147749416449</v>
       </c>
-      <c r="J28" s="9" t="n">
-        <v>1.201372470148493</v>
-      </c>
-      <c r="K28" s="9" t="n">
+      <c r="J28" s="3" t="n">
+        <v>1.201940248440906</v>
+      </c>
+      <c r="K28" s="3" t="n">
+        <v>1.203843192777092</v>
+      </c>
+      <c r="L28" s="3" t="n">
         <v>0.762977</v>
       </c>
-      <c r="L28" s="9" t="n">
+      <c r="M28" s="3" t="n">
         <v>0.501748</v>
       </c>
-      <c r="M28" s="9" t="n">
+      <c r="N28" s="3" t="n">
         <v>0.4314</v>
       </c>
-      <c r="N28" s="9" t="n">
+      <c r="O28" s="3" t="n">
         <v>1.1879</v>
       </c>
-      <c r="O28" s="9" t="n">
+      <c r="P28" s="3" t="n">
         <v>1.2172</v>
       </c>
-      <c r="P28" s="9" t="n">
+      <c r="Q28" s="3" t="n">
         <v>1.2508</v>
       </c>
-      <c r="Q28" s="9" t="n">
+      <c r="R28" s="3" t="n">
         <v>1.4068</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="29" s="6" spans="1:17">
-      <c r="A29" s="9" t="s">
+      <c r="S28" s="3" t="n"/>
+      <c r="T28" s="3" t="n"/>
+      <c r="U28" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="29" s="1" spans="1:21">
+      <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="3" t="n">
         <v>0.740218822489316</v>
       </c>
-      <c r="C29" s="9" t="n">
+      <c r="C29" s="3" t="n">
         <v>0.773599109499971</v>
       </c>
-      <c r="D29" s="9" t="n">
+      <c r="D29" s="3" t="n">
         <v>0.386799554749985</v>
       </c>
-      <c r="E29" s="9" t="n">
+      <c r="E29" s="3" t="n">
         <v>1.88857896195205</v>
       </c>
-      <c r="F29" s="9" t="n">
+      <c r="F29" s="3" t="n">
         <v>0.323351085186005</v>
       </c>
-      <c r="G29" s="9" t="n">
+      <c r="G29" s="3" t="n">
         <v>1.10341496484561</v>
       </c>
-      <c r="H29" s="9" t="n">
+      <c r="H29" s="3" t="n">
         <v>1.23268971285371</v>
       </c>
-      <c r="I29" s="9" t="n">
+      <c r="I29" s="3" t="n">
         <v>1.085834607048132</v>
       </c>
-      <c r="J29" s="9" t="n">
-        <v>1.108136078048928</v>
-      </c>
-      <c r="K29" s="9" t="n">
+      <c r="J29" s="3" t="n">
+        <v>1.109424624549351</v>
+      </c>
+      <c r="K29" s="3" t="n">
+        <v>1.110584145035965</v>
+      </c>
+      <c r="L29" s="3" t="n">
         <v>0.788571</v>
       </c>
-      <c r="L29" s="9" t="n">
+      <c r="M29" s="3" t="n">
         <v>0.324919</v>
       </c>
-      <c r="M29" s="9" t="n">
+      <c r="N29" s="3" t="n">
         <v>0.3656</v>
       </c>
-      <c r="N29" s="9" t="n">
+      <c r="O29" s="3" t="n">
         <v>1.1553</v>
       </c>
-      <c r="O29" s="9" t="n">
+      <c r="P29" s="3" t="n">
         <v>1.0975</v>
       </c>
-      <c r="P29" s="9" t="n">
+      <c r="Q29" s="3" t="n">
         <v>1.137</v>
       </c>
-      <c r="Q29" s="9" t="n">
+      <c r="R29" s="3" t="n">
         <v>1.1603</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="30" s="6" spans="1:17">
-      <c r="A30" s="9" t="s">
+      <c r="S29" s="3" t="n"/>
+      <c r="T29" s="3" t="n"/>
+      <c r="U29" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="30" s="1" spans="1:21">
+      <c r="A30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="9" t="n">
+      <c r="B30" s="3" t="n">
         <v>0.647292167050452</v>
       </c>
-      <c r="C30" s="9" t="n">
+      <c r="C30" s="3" t="n">
         <v>0.939837248962757</v>
       </c>
-      <c r="D30" s="9" t="n">
+      <c r="D30" s="3" t="n">
         <v>0.469918624481379</v>
       </c>
-      <c r="E30" s="9" t="n">
+      <c r="E30" s="3" t="n">
         <v>0.870552906864295</v>
       </c>
-      <c r="F30" s="9" t="n">
+      <c r="F30" s="3" t="n">
         <v>0.585348963737488</v>
       </c>
-      <c r="G30" s="9" t="n">
+      <c r="G30" s="3" t="n">
         <v>1.03776916825352</v>
       </c>
-      <c r="H30" s="9" t="n">
+      <c r="H30" s="3" t="n">
         <v>1.27227627784062</v>
       </c>
-      <c r="I30" s="9" t="n">
+      <c r="I30" s="3" t="n">
         <v>1.096417211811874</v>
       </c>
-      <c r="J30" s="9" t="n">
-        <v>1.145977482409014</v>
-      </c>
-      <c r="K30" s="9" t="n">
+      <c r="J30" s="3" t="n">
+        <v>1.141969277378056</v>
+      </c>
+      <c r="K30" s="3" t="n">
+        <v>1.146862668937266</v>
+      </c>
+      <c r="L30" s="3" t="n">
         <v>0.7415</v>
       </c>
-      <c r="L30" s="9" t="n">
+      <c r="M30" s="3" t="n">
         <v>0.159188</v>
       </c>
-      <c r="M30" s="9" t="n">
+      <c r="N30" s="3" t="n">
         <v>0.4273</v>
       </c>
-      <c r="N30" s="9" t="n">
+      <c r="O30" s="3" t="n">
         <v>1.1371</v>
       </c>
-      <c r="O30" s="9" t="n">
+      <c r="P30" s="3" t="n">
         <v>1.1512</v>
       </c>
-      <c r="P30" s="9" t="n">
+      <c r="Q30" s="3" t="n">
         <v>1.1644</v>
       </c>
-      <c r="Q30" s="9" t="n">
+      <c r="R30" s="3" t="n">
         <v>1.3217</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="31" s="6" spans="1:17">
-      <c r="A31" s="9" t="s">
+      <c r="S30" s="3" t="n"/>
+      <c r="T30" s="3" t="n"/>
+      <c r="U30" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="31" s="1" spans="1:21">
+      <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="9" t="n">
+      <c r="B31" s="3" t="n">
         <v>0.585758101403587</v>
       </c>
-      <c r="C31" s="9" t="n">
+      <c r="C31" s="3" t="n">
         <v>0.861409305146047</v>
       </c>
-      <c r="D31" s="9" t="n">
+      <c r="D31" s="3" t="n">
         <v>0.430704652573024</v>
       </c>
-      <c r="E31" s="9" t="n">
+      <c r="E31" s="3" t="n">
         <v>1.13879365381169</v>
       </c>
-      <c r="F31" s="9" t="n">
+      <c r="F31" s="3" t="n">
         <v>0.375564575195312</v>
       </c>
-      <c r="G31" s="9" t="n">
+      <c r="G31" s="3" t="n">
         <v>1.06188729172184</v>
       </c>
-      <c r="H31" s="9" t="n">
+      <c r="H31" s="3" t="n">
         <v>1.29360080114762</v>
       </c>
-      <c r="I31" s="9" t="n">
+      <c r="I31" s="3" t="n">
         <v>1.10084554421732</v>
       </c>
-      <c r="J31" s="9" t="n">
-        <v>1.223654504597238</v>
-      </c>
-      <c r="K31" s="9" t="n">
+      <c r="J31" s="3" t="n">
+        <v>1.220480455270021</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <v>1.213361823544751</v>
+      </c>
+      <c r="L31" s="3" t="n">
         <v>0.674964</v>
       </c>
-      <c r="L31" s="9" t="n">
+      <c r="M31" s="3" t="n">
         <v>0.399171</v>
       </c>
-      <c r="M31" s="9" t="n">
+      <c r="N31" s="3" t="n">
         <v>0.4304</v>
       </c>
-      <c r="N31" s="9" t="n">
+      <c r="O31" s="3" t="n">
         <v>1.1243</v>
       </c>
-      <c r="O31" s="9" t="n">
+      <c r="P31" s="3" t="n">
         <v>1.2119</v>
       </c>
-      <c r="P31" s="9" t="n">
+      <c r="Q31" s="3" t="n">
         <v>1.1823</v>
       </c>
-      <c r="Q31" s="9" t="n">
+      <c r="R31" s="3" t="n">
         <v>1.3658</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="32" s="6" spans="1:17">
-      <c r="A32" s="9" t="s">
+      <c r="S31" s="3" t="n"/>
+      <c r="T31" s="3" t="n"/>
+      <c r="U31" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="32" s="1" spans="1:21">
+      <c r="A32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="9" t="n">
+      <c r="B32" s="3" t="n">
         <v>0.862770258175694</v>
       </c>
-      <c r="C32" s="9" t="n">
+      <c r="C32" s="3" t="n">
         <v>1.40357401143189</v>
       </c>
-      <c r="D32" s="9" t="n">
+      <c r="D32" s="3" t="n">
         <v>0.701787005715946</v>
       </c>
-      <c r="E32" s="9" t="n">
+      <c r="E32" s="3" t="n">
         <v>0.432435752029095</v>
       </c>
-      <c r="F32" s="9" t="n">
+      <c r="F32" s="3" t="n">
         <v>0.35609245300293</v>
       </c>
-      <c r="G32" s="9" t="n">
+      <c r="G32" s="3" t="n">
         <v>0.989281247304024</v>
       </c>
-      <c r="H32" s="9" t="n">
+      <c r="H32" s="3" t="n">
         <v>1.28243100972189</v>
       </c>
-      <c r="I32" s="9" t="n">
+      <c r="I32" s="3" t="n">
         <v>1.141045841900256</v>
       </c>
-      <c r="J32" s="9" t="n">
-        <v>1.144521071183155</v>
-      </c>
-      <c r="K32" s="9" t="n">
+      <c r="J32" s="3" t="n">
+        <v>1.146441959353236</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>1.149426478387191</v>
+      </c>
+      <c r="L32" s="3" t="n">
         <v>0.888363</v>
       </c>
-      <c r="L32" s="9" t="n">
+      <c r="M32" s="3" t="n">
         <v>0.582844</v>
       </c>
-      <c r="M32" s="9" t="n">
+      <c r="N32" s="3" t="n">
         <v>0.4882</v>
       </c>
-      <c r="N32" s="9" t="n">
+      <c r="O32" s="3" t="n">
         <v>1.2037</v>
       </c>
-      <c r="O32" s="9" t="n">
+      <c r="P32" s="3" t="n">
         <v>1.1918</v>
       </c>
-      <c r="P32" s="9" t="n">
+      <c r="Q32" s="3" t="n">
         <v>1.2723</v>
       </c>
-      <c r="Q32" s="9" t="n">
+      <c r="R32" s="3" t="n">
         <v>1.1946</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="33" s="6" spans="1:17">
-      <c r="A33" s="9" t="s">
+      <c r="S32" s="3" t="n"/>
+      <c r="T32" s="3" t="n"/>
+      <c r="U32" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="33" s="1" spans="1:21">
+      <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="9" t="n">
+      <c r="B33" s="3" t="n">
         <v>0.88192371589899</v>
       </c>
-      <c r="C33" s="9" t="n">
+      <c r="C33" s="3" t="n">
         <v>1.45763046580904</v>
       </c>
-      <c r="D33" s="9" t="n">
+      <c r="D33" s="3" t="n">
         <v>0.728815232904519</v>
       </c>
-      <c r="E33" s="9" t="n">
+      <c r="E33" s="3" t="n">
         <v>1.08738482678834</v>
       </c>
-      <c r="F33" s="9" t="n">
+      <c r="F33" s="3" t="n">
         <v>0.652997255325317</v>
       </c>
-      <c r="G33" s="9" t="n">
+      <c r="G33" s="3" t="n">
         <v>1.20991356280926</v>
       </c>
-      <c r="H33" s="9" t="n">
+      <c r="H33" s="3" t="n">
         <v>1.32479486416713</v>
       </c>
-      <c r="I33" s="9" t="n">
+      <c r="I33" s="3" t="n">
         <v>1.134635112819945</v>
       </c>
-      <c r="J33" s="9" t="n">
-        <v>1.175180106435868</v>
-      </c>
-      <c r="K33" s="9" t="n">
+      <c r="J33" s="3" t="n">
+        <v>1.174561171426998</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>1.178528826251584</v>
+      </c>
+      <c r="L33" s="3" t="n">
         <v>0.9192979999999999</v>
       </c>
-      <c r="L33" s="9" t="n">
+      <c r="M33" s="3" t="n">
         <v>0.577555</v>
       </c>
-      <c r="M33" s="9" t="n">
+      <c r="N33" s="3" t="n">
         <v>0.5209</v>
       </c>
-      <c r="N33" s="9" t="n">
+      <c r="O33" s="3" t="n">
         <v>1.2508</v>
       </c>
-      <c r="O33" s="9" t="n">
+      <c r="P33" s="3" t="n">
         <v>1.222</v>
       </c>
-      <c r="P33" s="9" t="n">
+      <c r="Q33" s="3" t="n">
         <v>1.2334</v>
       </c>
-      <c r="Q33" s="9" t="n">
+      <c r="R33" s="3" t="n">
         <v>1.3312</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="34" s="6" spans="1:17">
-      <c r="A34" s="9" t="s">
+      <c r="S33" s="3" t="n"/>
+      <c r="T33" s="3" t="n"/>
+      <c r="U33" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="34" s="1" spans="1:21">
+      <c r="A34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="9" t="n">
+      <c r="B34" s="3" t="n">
         <v>0.879812074928402</v>
       </c>
-      <c r="C34" s="9" t="n">
+      <c r="C34" s="3" t="n">
         <v>1.61427348310532</v>
       </c>
-      <c r="D34" s="9" t="n">
+      <c r="D34" s="3" t="n">
         <v>0.807136741552658</v>
       </c>
-      <c r="E34" s="9" t="n">
+      <c r="E34" s="3" t="n">
         <v>0.780856745239997</v>
       </c>
-      <c r="F34" s="9" t="n">
+      <c r="F34" s="3" t="n">
         <v>0.431490540504456</v>
       </c>
-      <c r="G34" s="9" t="n">
+      <c r="G34" s="3" t="n">
         <v>1.14772453092802</v>
       </c>
-      <c r="H34" s="9" t="n">
+      <c r="H34" s="3" t="n">
         <v>1.36553851247991</v>
       </c>
-      <c r="I34" s="9" t="n">
+      <c r="I34" s="3" t="n">
         <v>1.157301642328681</v>
       </c>
-      <c r="J34" s="9" t="n">
-        <v>1.168638303636639</v>
-      </c>
-      <c r="K34" s="9" t="n">
+      <c r="J34" s="3" t="n">
+        <v>1.163198291862489</v>
+      </c>
+      <c r="K34" s="3" t="n">
+        <v>1.159761051916119</v>
+      </c>
+      <c r="L34" s="3" t="n">
         <v>0.933409</v>
       </c>
-      <c r="L34" s="9" t="n">
+      <c r="M34" s="3" t="n">
         <v>0.488927</v>
       </c>
-      <c r="M34" s="9" t="n">
+      <c r="N34" s="3" t="n">
         <v>0.5977</v>
       </c>
-      <c r="N34" s="9" t="n">
+      <c r="O34" s="3" t="n">
         <v>1.3032</v>
       </c>
-      <c r="O34" s="9" t="n">
+      <c r="P34" s="3" t="n">
         <v>1.2705</v>
       </c>
-      <c r="P34" s="9" t="n">
+      <c r="Q34" s="3" t="n">
         <v>1.3401</v>
       </c>
-      <c r="Q34" s="9" t="n">
+      <c r="R34" s="3" t="n">
         <v>1.3314</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="35" s="6" spans="1:17">
-      <c r="A35" s="9" t="s">
+      <c r="S34" s="3" t="n"/>
+      <c r="T34" s="3" t="n"/>
+      <c r="U34" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="35" s="1" spans="1:21">
+      <c r="A35" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="9" t="n">
+      <c r="B35" s="3" t="n">
         <v>0.8985937416370769</v>
       </c>
-      <c r="C35" s="9" t="n">
+      <c r="C35" s="3" t="n">
         <v>1.73643777318872</v>
       </c>
-      <c r="D35" s="9" t="n">
+      <c r="D35" s="3" t="n">
         <v>0.868218886594362</v>
       </c>
-      <c r="E35" s="9" t="n">
+      <c r="E35" s="3" t="n">
         <v>0.502004243653284</v>
       </c>
-      <c r="F35" s="9" t="n">
+      <c r="F35" s="3" t="n">
         <v>0.437312304973602</v>
       </c>
-      <c r="G35" s="9" t="n">
+      <c r="G35" s="3" t="n">
         <v>1.22798169271423</v>
       </c>
-      <c r="H35" s="9" t="n">
+      <c r="H35" s="3" t="n">
         <v>1.3668658867626</v>
       </c>
-      <c r="I35" s="9" t="n">
+      <c r="I35" s="3" t="n">
         <v>1.176583115038659</v>
       </c>
-      <c r="J35" s="9" t="n">
-        <v>1.237913104332333</v>
-      </c>
-      <c r="K35" s="9" t="n">
+      <c r="J35" s="3" t="n">
+        <v>1.237504029998569</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>1.237437836400769</v>
+      </c>
+      <c r="L35" s="3" t="n">
         <v>0.93057</v>
       </c>
-      <c r="L35" s="9" t="n">
+      <c r="M35" s="3" t="n">
         <v>0.450154</v>
       </c>
-      <c r="M35" s="9" t="n">
+      <c r="N35" s="3" t="n">
         <v>0.5625</v>
       </c>
-      <c r="N35" s="9" t="n">
+      <c r="O35" s="3" t="n">
         <v>1.2419</v>
       </c>
-      <c r="O35" s="9" t="n">
+      <c r="P35" s="3" t="n">
         <v>1.2761</v>
       </c>
-      <c r="P35" s="9" t="n">
+      <c r="Q35" s="3" t="n">
         <v>1.4374</v>
       </c>
-      <c r="Q35" s="9" t="n">
+      <c r="R35" s="3" t="n">
         <v>1.3861</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="36" s="6" spans="1:17">
-      <c r="A36" s="9" t="s">
+      <c r="S35" s="3" t="n"/>
+      <c r="T35" s="3" t="n"/>
+      <c r="U35" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="36" s="1" spans="1:21">
+      <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="9" t="n">
+      <c r="B36" s="3" t="n">
         <v>0.742765799546953</v>
       </c>
-      <c r="C36" s="9" t="n">
+      <c r="C36" s="3" t="n">
         <v>1.22357995637557</v>
       </c>
-      <c r="D36" s="9" t="n">
+      <c r="D36" s="3" t="n">
         <v>0.611789978187784</v>
       </c>
-      <c r="E36" s="9" t="n">
+      <c r="E36" s="3" t="n">
         <v>1.05892695179077</v>
       </c>
-      <c r="F36" s="9" t="n">
+      <c r="F36" s="3" t="n">
         <v>0.611054658889771</v>
       </c>
-      <c r="G36" s="9" t="n">
+      <c r="G36" s="3" t="n">
         <v>1.03197336226218</v>
       </c>
-      <c r="H36" s="9" t="n">
+      <c r="H36" s="3" t="n">
         <v>1.36351683269727</v>
       </c>
-      <c r="I36" s="9" t="n">
+      <c r="I36" s="3" t="n">
         <v>1.14197394463672</v>
       </c>
-      <c r="J36" s="9" t="n">
-        <v>1.262328399396314</v>
-      </c>
-      <c r="K36" s="9" t="n">
+      <c r="J36" s="3" t="n">
+        <v>1.258595237433085</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>1.26016977962464</v>
+      </c>
+      <c r="L36" s="3" t="n">
         <v>0.869261</v>
       </c>
-      <c r="L36" s="9" t="n">
+      <c r="M36" s="3" t="n">
         <v>0.533749</v>
       </c>
-      <c r="M36" s="9" t="n">
+      <c r="N36" s="3" t="n">
         <v>0.5276999999999999</v>
       </c>
-      <c r="N36" s="9" t="n">
+      <c r="O36" s="3" t="n">
         <v>1.2339</v>
       </c>
-      <c r="O36" s="9" t="n">
+      <c r="P36" s="3" t="n">
         <v>1.28</v>
       </c>
-      <c r="P36" s="9" t="n">
+      <c r="Q36" s="3" t="n">
         <v>1.3244</v>
       </c>
-      <c r="Q36" s="9" t="n">
+      <c r="R36" s="3" t="n">
         <v>1.4912</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="37" s="6" spans="1:17">
-      <c r="A37" s="9" t="s">
+      <c r="S36" s="3" t="n"/>
+      <c r="T36" s="3" t="n"/>
+      <c r="U36" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="37" s="1" spans="1:21">
+      <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="9" t="n">
+      <c r="B37" s="3" t="n">
         <v>0.804028236194043</v>
       </c>
-      <c r="C37" s="9" t="n">
+      <c r="C37" s="3" t="n">
         <v>1.37660208706309</v>
       </c>
-      <c r="D37" s="9" t="n">
+      <c r="D37" s="3" t="n">
         <v>0.688301043531543</v>
       </c>
-      <c r="E37" s="9" t="n">
+      <c r="E37" s="3" t="n">
         <v>0.975464322524257</v>
       </c>
-      <c r="F37" s="9" t="n">
+      <c r="F37" s="3" t="n">
         <v>0.470258474349976</v>
       </c>
-      <c r="G37" s="9" t="n">
+      <c r="G37" s="3" t="n">
         <v>1.15028466997661</v>
       </c>
-      <c r="H37" s="9" t="n">
+      <c r="H37" s="3" t="n">
         <v>1.28917212019725</v>
       </c>
-      <c r="I37" s="9" t="n">
+      <c r="I37" s="3" t="n">
         <v>1.14298621145227</v>
       </c>
-      <c r="J37" s="9" t="n">
-        <v>1.20376347211644</v>
-      </c>
-      <c r="K37" s="9" t="n">
+      <c r="J37" s="3" t="n">
+        <v>1.201959704845388</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>1.194883946031911</v>
+      </c>
+      <c r="L37" s="3" t="n">
         <v>0.912504</v>
       </c>
-      <c r="L37" s="9" t="n">
+      <c r="M37" s="3" t="n">
         <v>0.558214</v>
       </c>
-      <c r="M37" s="9" t="n">
+      <c r="N37" s="3" t="n">
         <v>0.5461</v>
       </c>
-      <c r="N37" s="9" t="n">
+      <c r="O37" s="3" t="n">
         <v>1.2487</v>
       </c>
-      <c r="O37" s="9" t="n">
+      <c r="P37" s="3" t="n">
         <v>1.2836</v>
       </c>
-      <c r="P37" s="9" t="n">
+      <c r="Q37" s="3" t="n">
         <v>1.302</v>
       </c>
-      <c r="Q37" s="9" t="n">
+      <c r="R37" s="3" t="n">
         <v>1.4548</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="38" s="6" spans="1:17">
-      <c r="A38" s="9" t="s">
+      <c r="S37" s="3" t="n"/>
+      <c r="T37" s="3" t="n"/>
+      <c r="U37" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="38" s="1" spans="1:21">
+      <c r="A38" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="9" t="n">
+      <c r="B38" s="3" t="n">
         <v>0.849427763968201</v>
       </c>
-      <c r="C38" s="9" t="n">
+      <c r="C38" s="3" t="n">
         <v>1.6209664068892</v>
       </c>
-      <c r="D38" s="9" t="n">
+      <c r="D38" s="3" t="n">
         <v>0.810483203444601</v>
       </c>
-      <c r="E38" s="9" t="n">
+      <c r="E38" s="3" t="n">
         <v>1.06532009680046</v>
       </c>
-      <c r="F38" s="9" t="n">
+      <c r="F38" s="3" t="n">
         <v>0.3646399974823</v>
       </c>
-      <c r="G38" s="9" t="n">
+      <c r="G38" s="3" t="n">
         <v>1.19888720785878</v>
       </c>
-      <c r="H38" s="9" t="n">
+      <c r="H38" s="3" t="n">
         <v>1.33817994450045</v>
       </c>
-      <c r="I38" s="9" t="n">
+      <c r="I38" s="3" t="n">
         <v>1.167125036038406</v>
       </c>
-      <c r="J38" s="9" t="n">
-        <v>1.20044880528998</v>
-      </c>
-      <c r="K38" s="9" t="n">
+      <c r="J38" s="3" t="n">
+        <v>1.196671735122372</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>1.195918186352459</v>
+      </c>
+      <c r="L38" s="3" t="n">
         <v>0.904311</v>
       </c>
-      <c r="L38" s="9" t="n">
+      <c r="M38" s="3" t="n">
         <v>0.464757</v>
       </c>
-      <c r="M38" s="9" t="n">
+      <c r="N38" s="3" t="n">
         <v>0.5326</v>
       </c>
-      <c r="N38" s="9" t="n">
+      <c r="O38" s="3" t="n">
         <v>1.2812</v>
       </c>
-      <c r="O38" s="9" t="n">
+      <c r="P38" s="3" t="n">
         <v>1.2401</v>
       </c>
-      <c r="P38" s="9" t="n">
+      <c r="Q38" s="3" t="n">
         <v>1.3295</v>
       </c>
-      <c r="Q38" s="9" t="n">
+      <c r="R38" s="3" t="n">
         <v>1.3687</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="39" s="6" spans="1:17">
-      <c r="A39" s="9" t="s">
+      <c r="S38" s="3" t="n"/>
+      <c r="T38" s="3" t="n"/>
+      <c r="U38" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="39" s="1" spans="1:21">
+      <c r="A39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="9" t="n">
+      <c r="B39" s="3" t="n">
         <v>0.783221008609865</v>
       </c>
-      <c r="C39" s="9" t="n">
+      <c r="C39" s="3" t="n">
         <v>1.31872738973166</v>
       </c>
-      <c r="D39" s="9" t="n">
+      <c r="D39" s="3" t="n">
         <v>0.659363694865832</v>
       </c>
-      <c r="E39" s="9" t="n">
+      <c r="E39" s="3" t="n">
         <v>1.44114817037578</v>
       </c>
-      <c r="F39" s="9" t="n">
+      <c r="F39" s="3" t="n">
         <v>0.451700389385223</v>
       </c>
-      <c r="G39" s="9" t="n">
+      <c r="G39" s="3" t="n">
         <v>1.10519734341572</v>
       </c>
-      <c r="H39" s="9" t="n">
+      <c r="H39" s="3" t="n">
         <v>1.23328224686864</v>
       </c>
-      <c r="I39" s="9" t="n">
+      <c r="I39" s="3" t="n">
         <v>1.157781812808186</v>
       </c>
-      <c r="J39" s="9" t="n">
-        <v>1.2208600553608</v>
-      </c>
-      <c r="K39" s="9" t="n">
+      <c r="J39" s="3" t="n">
+        <v>1.227127904435604</v>
+      </c>
+      <c r="K39" s="3" t="n">
+        <v>1.223767910078064</v>
+      </c>
+      <c r="L39" s="3" t="n">
         <v>0.904236</v>
       </c>
-      <c r="L39" s="9" t="n">
+      <c r="M39" s="3" t="n">
         <v>0.526381</v>
       </c>
-      <c r="M39" s="9" t="n">
+      <c r="N39" s="3" t="n">
         <v>0.4999</v>
       </c>
-      <c r="N39" s="9" t="n">
+      <c r="O39" s="3" t="n">
         <v>1.228</v>
       </c>
-      <c r="O39" s="9" t="n">
+      <c r="P39" s="3" t="n">
         <v>1.2817</v>
       </c>
-      <c r="P39" s="9" t="n">
+      <c r="Q39" s="3" t="n">
         <v>1.408</v>
       </c>
-      <c r="Q39" s="9" t="n">
+      <c r="R39" s="3" t="n">
         <v>1.4546</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="40" s="6" spans="1:17">
-      <c r="A40" s="9" t="s">
+      <c r="S39" s="3" t="n"/>
+      <c r="T39" s="3" t="n"/>
+      <c r="U39" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="40" s="1" spans="1:21">
+      <c r="A40" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="9" t="n">
+      <c r="B40" s="3" t="n">
         <v>0.559557227572725</v>
       </c>
-      <c r="C40" s="9" t="n">
+      <c r="C40" s="3" t="n">
         <v>0.895775533060772</v>
       </c>
-      <c r="D40" s="9" t="n">
+      <c r="D40" s="3" t="n">
         <v>0.447887766530386</v>
       </c>
-      <c r="E40" s="9" t="n">
+      <c r="E40" s="3" t="n">
         <v>0.59515643867582</v>
       </c>
-      <c r="F40" s="9" t="n">
+      <c r="F40" s="3" t="n">
         <v>0.265589475631714</v>
       </c>
-      <c r="G40" s="9" t="n">
+      <c r="G40" s="3" t="n">
         <v>1.18367818722391</v>
       </c>
-      <c r="H40" s="9" t="n">
+      <c r="H40" s="3" t="n">
         <v>1.29342277640328</v>
       </c>
-      <c r="I40" s="9" t="n">
+      <c r="I40" s="3" t="n">
         <v>1.089308770732773</v>
       </c>
-      <c r="J40" s="9" t="n">
-        <v>1.24295662080622</v>
-      </c>
-      <c r="K40" s="9" t="n">
+      <c r="J40" s="3" t="n">
+        <v>1.240475452347322</v>
+      </c>
+      <c r="K40" s="3" t="n">
+        <v>1.247073466737749</v>
+      </c>
+      <c r="L40" s="3" t="n">
         <v>0.747117</v>
       </c>
-      <c r="L40" s="9" t="n">
+      <c r="M40" s="3" t="n">
         <v>0.363322</v>
       </c>
-      <c r="M40" s="9" t="n">
+      <c r="N40" s="3" t="n">
         <v>0.4076</v>
       </c>
-      <c r="N40" s="9" t="n">
+      <c r="O40" s="3" t="n">
         <v>1.1793</v>
       </c>
-      <c r="O40" s="9" t="n">
+      <c r="P40" s="3" t="n">
         <v>1.2536</v>
       </c>
-      <c r="P40" s="9" t="n">
+      <c r="Q40" s="3" t="n">
         <v>1.2726</v>
       </c>
-      <c r="Q40" s="9" t="n">
+      <c r="R40" s="3" t="n">
         <v>1.5242</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="41" s="6" spans="1:17">
-      <c r="A41" s="9" t="s">
+      <c r="S40" s="3" t="n"/>
+      <c r="T40" s="3" t="n"/>
+      <c r="U40" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="41" s="1" spans="1:21">
+      <c r="A41" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="9" t="n">
+      <c r="B41" s="3" t="n">
         <v>0.8561598081160779</v>
       </c>
-      <c r="C41" s="9" t="n">
+      <c r="C41" s="3" t="n">
         <v>1.54515647941065</v>
       </c>
-      <c r="D41" s="9" t="n">
+      <c r="D41" s="3" t="n">
         <v>0.772578239705325</v>
       </c>
-      <c r="E41" s="9" t="n">
+      <c r="E41" s="3" t="n">
         <v>1.22808532192185</v>
       </c>
-      <c r="F41" s="9" t="n">
+      <c r="F41" s="3" t="n">
         <v>0.424239039421082</v>
       </c>
-      <c r="G41" s="9" t="n">
+      <c r="G41" s="3" t="n">
         <v>1.09066425913973</v>
       </c>
-      <c r="H41" s="9" t="n">
+      <c r="H41" s="3" t="n">
         <v>1.31952886744636</v>
       </c>
-      <c r="I41" s="9" t="n">
+      <c r="I41" s="3" t="n">
         <v>1.194742838246942</v>
       </c>
-      <c r="J41" s="9" t="n">
-        <v>1.233017635739538</v>
-      </c>
-      <c r="K41" s="9" t="n">
+      <c r="J41" s="3" t="n">
+        <v>1.241647407977453</v>
+      </c>
+      <c r="K41" s="3" t="n">
+        <v>1.240349659061727</v>
+      </c>
+      <c r="L41" s="3" t="n">
         <v>0.898734</v>
       </c>
-      <c r="L41" s="9" t="n">
+      <c r="M41" s="3" t="n">
         <v>0.57441</v>
       </c>
-      <c r="M41" s="9" t="n">
+      <c r="N41" s="3" t="n">
         <v>0.5115</v>
       </c>
-      <c r="N41" s="9" t="n">
+      <c r="O41" s="3" t="n">
         <v>1.2873</v>
       </c>
-      <c r="O41" s="9" t="n">
+      <c r="P41" s="3" t="n">
         <v>1.2278</v>
       </c>
-      <c r="P41" s="9" t="n">
+      <c r="Q41" s="3" t="n">
         <v>1.4454</v>
       </c>
-      <c r="Q41" s="9" t="n">
+      <c r="R41" s="3" t="n">
         <v>1.4145</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="42" s="6" spans="1:17">
-      <c r="A42" s="9" t="s">
+      <c r="S41" s="3" t="n"/>
+      <c r="T41" s="3" t="n"/>
+      <c r="U41" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="42" s="1" spans="1:21">
+      <c r="A42" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="9" t="n">
+      <c r="B42" s="3" t="n">
         <v>0.788129470939972</v>
       </c>
-      <c r="C42" s="9" t="n">
+      <c r="C42" s="3" t="n">
         <v>1.35215208922516</v>
       </c>
-      <c r="D42" s="9" t="n">
+      <c r="D42" s="3" t="n">
         <v>0.676076044612578</v>
       </c>
-      <c r="E42" s="9" t="n">
+      <c r="E42" s="3" t="n">
         <v>1.01311773097414</v>
       </c>
-      <c r="F42" s="9" t="n">
+      <c r="F42" s="3" t="n">
         <v>0.427247643470764</v>
       </c>
-      <c r="G42" s="9" t="n">
+      <c r="G42" s="3" t="n">
         <v>1.06242561871507</v>
       </c>
-      <c r="H42" s="9" t="n">
+      <c r="H42" s="3" t="n">
         <v>1.27655156975183</v>
       </c>
-      <c r="I42" s="9" t="n">
+      <c r="I42" s="3" t="n">
         <v>1.116310574755182</v>
       </c>
-      <c r="J42" s="9" t="n">
-        <v>1.1709773738279</v>
-      </c>
-      <c r="K42" s="9" t="n">
+      <c r="J42" s="3" t="n">
+        <v>1.177555947273112</v>
+      </c>
+      <c r="K42" s="3" t="n">
+        <v>1.1739106384436</v>
+      </c>
+      <c r="L42" s="3" t="n">
         <v>0.859006</v>
       </c>
-      <c r="L42" s="9" t="n">
+      <c r="M42" s="3" t="n">
         <v>0.531775</v>
       </c>
-      <c r="M42" s="9" t="n">
+      <c r="N42" s="3" t="n">
         <v>0.4761</v>
       </c>
-      <c r="N42" s="9" t="n">
+      <c r="O42" s="3" t="n">
         <v>1.174</v>
       </c>
-      <c r="O42" s="9" t="n">
+      <c r="P42" s="3" t="n">
         <v>1.1947</v>
       </c>
-      <c r="P42" s="9" t="n">
+      <c r="Q42" s="3" t="n">
         <v>1.2817</v>
       </c>
-      <c r="Q42" s="9" t="n">
+      <c r="R42" s="3" t="n">
         <v>1.2705</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="43" s="6" spans="1:17">
-      <c r="A43" s="9" t="s">
+      <c r="S42" s="3" t="n"/>
+      <c r="T42" s="3" t="n"/>
+      <c r="U42" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="43" s="1" spans="1:21">
+      <c r="A43" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="9" t="n">
+      <c r="B43" s="3" t="n">
         <v>0.626555706907142</v>
       </c>
-      <c r="C43" s="9" t="n">
+      <c r="C43" s="3" t="n">
         <v>1.03993086611552</v>
       </c>
-      <c r="D43" s="9" t="n">
+      <c r="D43" s="3" t="n">
         <v>0.51996543305776</v>
       </c>
-      <c r="E43" s="9" t="n">
+      <c r="E43" s="3" t="n">
         <v>1.05822241433738</v>
       </c>
-      <c r="F43" s="9" t="n">
+      <c r="F43" s="3" t="n">
         <v>0.358170866966248</v>
       </c>
-      <c r="G43" s="9" t="n">
+      <c r="G43" s="3" t="n">
         <v>1.13001418835368</v>
       </c>
-      <c r="H43" s="9" t="n">
+      <c r="H43" s="3" t="n">
         <v>1.25123394323544</v>
       </c>
-      <c r="I43" s="9" t="n">
+      <c r="I43" s="3" t="n">
         <v>1.094576700633135</v>
       </c>
-      <c r="J43" s="9" t="n">
-        <v>1.189409850555953</v>
-      </c>
-      <c r="K43" s="9" t="n">
+      <c r="J43" s="3" t="n">
+        <v>1.189519482370824</v>
+      </c>
+      <c r="K43" s="3" t="n">
+        <v>1.191816718926481</v>
+      </c>
+      <c r="L43" s="3" t="n">
         <v>0.727048</v>
       </c>
-      <c r="L43" s="9" t="n">
+      <c r="M43" s="3" t="n">
         <v>0.288678</v>
       </c>
-      <c r="M43" s="9" t="n">
+      <c r="N43" s="3" t="n">
         <v>0.399</v>
       </c>
-      <c r="N43" s="9" t="n">
+      <c r="O43" s="3" t="n">
         <v>1.1383</v>
       </c>
-      <c r="O43" s="9" t="n">
+      <c r="P43" s="3" t="n">
         <v>1.1147</v>
       </c>
-      <c r="P43" s="9" t="n">
+      <c r="Q43" s="3" t="n">
         <v>1.1921</v>
       </c>
-      <c r="Q43" s="9" t="n">
+      <c r="R43" s="3" t="n">
         <v>1.3239</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="44" s="6" spans="1:17">
-      <c r="A44" s="9" t="s">
+      <c r="S43" s="3" t="n"/>
+      <c r="T43" s="3" t="n"/>
+      <c r="U43" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="44" s="1" spans="1:21">
+      <c r="A44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="9" t="n">
+      <c r="B44" s="3" t="n">
         <v>0.550340325559472</v>
       </c>
-      <c r="C44" s="9" t="n">
+      <c r="C44" s="3" t="n">
         <v>0.532566216223572</v>
       </c>
-      <c r="D44" s="9" t="n">
+      <c r="D44" s="3" t="n">
         <v>0.266283108111786</v>
       </c>
-      <c r="E44" s="9" t="n">
+      <c r="E44" s="3" t="n">
         <v>1.57353155272252</v>
       </c>
-      <c r="F44" s="9" t="n">
+      <c r="F44" s="3" t="n">
         <v>0.23161369562149</v>
       </c>
-      <c r="G44" s="9" t="n">
+      <c r="G44" s="3" t="n">
         <v>1.0034168638062</v>
       </c>
-      <c r="H44" s="9" t="n">
+      <c r="H44" s="3" t="n">
         <v>1.20243111961961</v>
       </c>
-      <c r="I44" s="9" t="n">
+      <c r="I44" s="3" t="n">
         <v>1.058886823043479</v>
       </c>
-      <c r="J44" s="9" t="n">
-        <v>1.125202719082413</v>
-      </c>
-      <c r="K44" s="9" t="n">
+      <c r="J44" s="3" t="n">
+        <v>1.12863463631771</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>1.129858525609788</v>
+      </c>
+      <c r="L44" s="3" t="n">
         <v>0.645937</v>
       </c>
-      <c r="L44" s="9" t="n">
+      <c r="M44" s="3" t="n">
         <v>0.290303</v>
       </c>
-      <c r="M44" s="9" t="n">
+      <c r="N44" s="3" t="n">
         <v>0.3341</v>
       </c>
-      <c r="N44" s="9" t="n">
+      <c r="O44" s="3" t="n">
         <v>1.0877</v>
       </c>
-      <c r="O44" s="9" t="n">
+      <c r="P44" s="3" t="n">
         <v>1.0701</v>
       </c>
-      <c r="P44" s="9" t="n">
+      <c r="Q44" s="3" t="n">
         <v>1.0617</v>
       </c>
-      <c r="Q44" s="9" t="n">
+      <c r="R44" s="3" t="n">
         <v>1.181</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="45" s="6" spans="1:17">
-      <c r="A45" s="9" t="s">
+      <c r="S44" s="3" t="n"/>
+      <c r="T44" s="3" t="n"/>
+      <c r="U44" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="45" s="1" spans="1:21">
+      <c r="A45" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="9" t="n">
+      <c r="B45" s="3" t="n">
         <v>0.99543220837211</v>
       </c>
-      <c r="C45" s="9" t="n">
+      <c r="C45" s="3" t="n">
         <v>1.44988293928785</v>
       </c>
-      <c r="D45" s="9" t="n">
+      <c r="D45" s="3" t="n">
         <v>0.724941469643924</v>
       </c>
-      <c r="E45" s="9" t="n">
+      <c r="E45" s="3" t="n">
         <v>0.94966431683749</v>
       </c>
-      <c r="F45" s="9" t="n">
+      <c r="F45" s="3" t="n">
         <v>0.568386554718018</v>
       </c>
-      <c r="G45" s="9" t="n">
+      <c r="G45" s="3" t="n">
         <v>1.23208121938963</v>
       </c>
-      <c r="H45" s="9" t="n">
+      <c r="H45" s="3" t="n">
         <v>1.42447163090744</v>
       </c>
-      <c r="I45" s="9" t="n">
+      <c r="I45" s="3" t="n">
         <v>1.175983639538602</v>
       </c>
-      <c r="J45" s="9" t="n">
-        <v>1.208402743966494</v>
-      </c>
-      <c r="K45" s="9" t="n">
+      <c r="J45" s="3" t="n">
+        <v>1.19915463992892</v>
+      </c>
+      <c r="K45" s="3" t="n">
+        <v>1.195547202281809</v>
+      </c>
+      <c r="L45" s="3" t="n">
         <v>0.912624</v>
       </c>
-      <c r="L45" s="9" t="n">
+      <c r="M45" s="3" t="n">
         <v>0.488782</v>
       </c>
-      <c r="M45" s="9" t="n">
+      <c r="N45" s="3" t="n">
         <v>0.5628</v>
       </c>
-      <c r="N45" s="9" t="n">
+      <c r="O45" s="3" t="n">
         <v>1.2759</v>
       </c>
-      <c r="O45" s="9" t="n">
+      <c r="P45" s="3" t="n">
         <v>1.3548</v>
       </c>
-      <c r="P45" s="9" t="n">
+      <c r="Q45" s="3" t="n">
         <v>1.3624</v>
       </c>
-      <c r="Q45" s="9" t="n">
+      <c r="R45" s="3" t="n">
         <v>1.4581</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="46" s="6" spans="1:17">
-      <c r="A46" s="9" t="s">
+      <c r="S45" s="3" t="n"/>
+      <c r="T45" s="3" t="n"/>
+      <c r="U45" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="46" s="1" spans="1:21">
+      <c r="A46" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="9" t="n">
+      <c r="B46" s="3" t="n">
         <v>0.82157806076689</v>
       </c>
-      <c r="C46" s="9" t="n">
+      <c r="C46" s="3" t="n">
         <v>1.31600319806226</v>
       </c>
-      <c r="D46" s="9" t="n">
+      <c r="D46" s="3" t="n">
         <v>0.658001599031128</v>
       </c>
-      <c r="E46" s="9" t="n">
+      <c r="E46" s="3" t="n">
         <v>0.907446421167431</v>
       </c>
-      <c r="F46" s="9" t="n">
+      <c r="F46" s="3" t="n">
         <v>0.361801505088806</v>
       </c>
-      <c r="G46" s="9" t="n">
+      <c r="G46" s="3" t="n">
         <v>1.06933279676424</v>
       </c>
-      <c r="H46" s="9" t="n">
+      <c r="H46" s="3" t="n">
         <v>1.28016192025244</v>
       </c>
-      <c r="I46" s="9" t="n">
+      <c r="I46" s="3" t="n">
         <v>1.144772016552701</v>
       </c>
-      <c r="J46" s="9" t="n">
-        <v>1.238532939697595</v>
-      </c>
-      <c r="K46" s="9" t="n">
+      <c r="J46" s="3" t="n">
+        <v>1.227272993499154</v>
+      </c>
+      <c r="K46" s="3" t="n">
+        <v>1.228943107991743</v>
+      </c>
+      <c r="L46" s="3" t="n">
         <v>0.8525740000000001</v>
       </c>
-      <c r="L46" s="9" t="n">
+      <c r="M46" s="3" t="n">
         <v>0.465703</v>
       </c>
-      <c r="M46" s="9" t="n">
+      <c r="N46" s="3" t="n">
         <v>0.4948</v>
       </c>
-      <c r="N46" s="9" t="n">
+      <c r="O46" s="3" t="n">
         <v>1.1489</v>
       </c>
-      <c r="O46" s="9" t="n">
+      <c r="P46" s="3" t="n">
         <v>1.239</v>
       </c>
-      <c r="P46" s="9" t="n">
+      <c r="Q46" s="3" t="n">
         <v>1.2679</v>
       </c>
-      <c r="Q46" s="9" t="n">
+      <c r="R46" s="3" t="n">
         <v>1.278</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="47" s="6" spans="1:17">
-      <c r="A47" s="9" t="s">
+      <c r="S46" s="3" t="n"/>
+      <c r="T46" s="3" t="n"/>
+      <c r="U46" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="47" s="1" spans="1:21">
+      <c r="A47" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="9" t="n">
+      <c r="B47" s="3" t="n">
         <v>0.86946260469425</v>
       </c>
-      <c r="C47" s="9" t="n">
+      <c r="C47" s="3" t="n">
         <v>1.65089633737038</v>
       </c>
-      <c r="D47" s="9" t="n">
+      <c r="D47" s="3" t="n">
         <v>0.825448168685189</v>
       </c>
-      <c r="E47" s="9" t="n">
+      <c r="E47" s="3" t="n">
         <v>0.91654917962493</v>
       </c>
-      <c r="F47" s="9" t="n">
+      <c r="F47" s="3" t="n">
         <v>0.511030435562134</v>
       </c>
-      <c r="G47" s="9" t="n">
+      <c r="G47" s="3" t="n">
         <v>1.17873790313822</v>
       </c>
-      <c r="H47" s="9" t="n">
+      <c r="H47" s="3" t="n">
         <v>1.42920695863055</v>
       </c>
-      <c r="I47" s="9" t="n">
+      <c r="I47" s="3" t="n">
         <v>1.189978337941719</v>
       </c>
-      <c r="J47" s="9" t="n">
-        <v>1.228276800409226</v>
-      </c>
-      <c r="K47" s="9" t="n">
+      <c r="J47" s="3" t="n">
+        <v>1.223774146831023</v>
+      </c>
+      <c r="K47" s="3" t="n">
+        <v>1.227538252418749</v>
+      </c>
+      <c r="L47" s="3" t="n">
         <v>0.925098</v>
       </c>
-      <c r="L47" s="9" t="n">
+      <c r="M47" s="3" t="n">
         <v>0.578667</v>
       </c>
-      <c r="M47" s="9" t="n">
+      <c r="N47" s="3" t="n">
         <v>0.5814</v>
       </c>
-      <c r="N47" s="9" t="n">
+      <c r="O47" s="3" t="n">
         <v>1.2847</v>
       </c>
-      <c r="O47" s="9" t="n">
+      <c r="P47" s="3" t="n">
         <v>1.3702</v>
       </c>
-      <c r="P47" s="9" t="n">
+      <c r="Q47" s="3" t="n">
         <v>1.4716</v>
       </c>
-      <c r="Q47" s="9" t="n">
+      <c r="R47" s="3" t="n">
         <v>1.4698</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="48" s="6" spans="1:17">
-      <c r="A48" s="9" t="s">
+      <c r="S47" s="3" t="n"/>
+      <c r="T47" s="3" t="n"/>
+      <c r="U47" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="48" s="1" spans="1:21">
+      <c r="A48" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="9" t="n">
+      <c r="B48" s="3" t="n">
         <v>0.772435384000798</v>
       </c>
-      <c r="C48" s="9" t="n">
+      <c r="C48" s="3" t="n">
         <v>1.2160528992908</v>
       </c>
-      <c r="D48" s="9" t="n">
+      <c r="D48" s="3" t="n">
         <v>0.608026449645402</v>
       </c>
-      <c r="E48" s="9" t="n">
+      <c r="E48" s="3" t="n">
         <v>1.41702558519322</v>
       </c>
-      <c r="F48" s="9" t="n">
+      <c r="F48" s="3" t="n">
         <v>0.296215653419495</v>
       </c>
-      <c r="G48" s="9" t="n">
+      <c r="G48" s="3" t="n">
         <v>1.05585001233047</v>
       </c>
-      <c r="H48" s="9" t="n">
+      <c r="H48" s="3" t="n">
         <v>1.28485863607916</v>
       </c>
-      <c r="I48" s="9" t="n">
+      <c r="I48" s="3" t="n">
         <v>1.108999548802858</v>
       </c>
-      <c r="J48" s="9" t="n">
-        <v>1.135195261594813</v>
-      </c>
-      <c r="K48" s="9" t="n">
+      <c r="J48" s="3" t="n">
+        <v>1.137640209706372</v>
+      </c>
+      <c r="K48" s="3" t="n">
+        <v>1.137167708735964</v>
+      </c>
+      <c r="L48" s="3" t="n">
         <v>0.86177</v>
       </c>
-      <c r="L48" s="9" t="n">
+      <c r="M48" s="3" t="n">
         <v>0.463975</v>
       </c>
-      <c r="M48" s="9" t="n">
+      <c r="N48" s="3" t="n">
         <v>0.4899</v>
       </c>
-      <c r="N48" s="9" t="n">
+      <c r="O48" s="3" t="n">
         <v>1.1891</v>
       </c>
-      <c r="O48" s="9" t="n">
+      <c r="P48" s="3" t="n">
         <v>1.1946</v>
       </c>
-      <c r="P48" s="9" t="n">
+      <c r="Q48" s="3" t="n">
         <v>1.2477</v>
       </c>
-      <c r="Q48" s="9" t="n">
+      <c r="R48" s="3" t="n">
         <v>1.3713</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="49" s="6" spans="1:17">
-      <c r="A49" s="9" t="s">
+      <c r="S48" s="3" t="n"/>
+      <c r="T48" s="3" t="n"/>
+      <c r="U48" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="49" s="1" spans="1:21">
+      <c r="A49" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="9" t="n">
+      <c r="B49" s="3" t="n">
         <v>0.864978626231705</v>
       </c>
-      <c r="C49" s="9" t="n">
+      <c r="C49" s="3" t="n">
         <v>1.53880818679507</v>
       </c>
-      <c r="D49" s="9" t="n">
+      <c r="D49" s="3" t="n">
         <v>0.769404093397535</v>
       </c>
-      <c r="E49" s="9" t="n">
+      <c r="E49" s="3" t="n">
         <v>0.684350974537706</v>
       </c>
-      <c r="F49" s="9" t="n">
+      <c r="F49" s="3" t="n">
         <v>0.338607490062714</v>
       </c>
-      <c r="G49" s="9" t="n">
+      <c r="G49" s="3" t="n">
         <v>1.18536496832969</v>
       </c>
-      <c r="H49" s="9" t="n">
+      <c r="H49" s="3" t="n">
         <v>1.31971219486986</v>
       </c>
-      <c r="I49" s="9" t="n">
+      <c r="I49" s="3" t="n">
         <v>1.153452927321005</v>
       </c>
-      <c r="J49" s="9" t="n">
-        <v>1.202889479718606</v>
-      </c>
-      <c r="K49" s="9" t="n">
+      <c r="J49" s="3" t="n">
+        <v>1.20399506385106</v>
+      </c>
+      <c r="K49" s="3" t="n">
+        <v>1.201319180706008</v>
+      </c>
+      <c r="L49" s="3" t="n">
         <v>0.926806</v>
       </c>
-      <c r="L49" s="9" t="n">
+      <c r="M49" s="3" t="n">
         <v>0.502066</v>
       </c>
-      <c r="M49" s="9" t="n">
+      <c r="N49" s="3" t="n">
         <v>0.5753</v>
       </c>
-      <c r="N49" s="9" t="n">
+      <c r="O49" s="3" t="n">
         <v>1.2796</v>
       </c>
-      <c r="O49" s="9" t="n">
+      <c r="P49" s="3" t="n">
         <v>1.2654</v>
       </c>
-      <c r="P49" s="9" t="n">
+      <c r="Q49" s="3" t="n">
         <v>1.3727</v>
       </c>
-      <c r="Q49" s="9" t="n">
+      <c r="R49" s="3" t="n">
         <v>1.3448</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="50" s="6" spans="1:17">
-      <c r="A50" s="9" t="s">
+      <c r="S49" s="3" t="n"/>
+      <c r="T49" s="3" t="n"/>
+      <c r="U49" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="50" s="1" spans="1:21">
+      <c r="A50" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="9" t="n">
+      <c r="B50" s="3" t="n">
         <v>0.817361603514976</v>
       </c>
-      <c r="C50" s="9" t="n">
+      <c r="C50" s="3" t="n">
         <v>1.30484321271752</v>
       </c>
-      <c r="D50" s="9" t="n">
+      <c r="D50" s="3" t="n">
         <v>0.652421606358762</v>
       </c>
-      <c r="E50" s="9" t="n">
+      <c r="E50" s="3" t="n">
         <v>1.50946970798751</v>
       </c>
-      <c r="F50" s="9" t="n">
+      <c r="F50" s="3" t="n">
         <v>0.396878063678742</v>
       </c>
-      <c r="G50" s="9" t="n">
+      <c r="G50" s="3" t="n">
         <v>1.12207568665033</v>
       </c>
-      <c r="H50" s="9" t="n">
+      <c r="H50" s="3" t="n">
         <v>1.35000730653433</v>
       </c>
-      <c r="I50" s="9" t="n">
+      <c r="I50" s="3" t="n">
         <v>1.170624955226844</v>
       </c>
-      <c r="J50" s="9" t="n">
-        <v>1.146910608929249</v>
-      </c>
-      <c r="K50" s="9" t="n">
+      <c r="J50" s="3" t="n">
+        <v>1.149499401180704</v>
+      </c>
+      <c r="K50" s="3" t="n">
+        <v>1.148036792455933</v>
+      </c>
+      <c r="L50" s="3" t="n">
         <v>0.8805269999999999</v>
       </c>
-      <c r="L50" s="9" t="n">
+      <c r="M50" s="3" t="n">
         <v>0.620149</v>
       </c>
-      <c r="M50" s="9" t="n">
+      <c r="N50" s="3" t="n">
         <v>0.5259</v>
       </c>
-      <c r="N50" s="9" t="n">
+      <c r="O50" s="3" t="n">
         <v>1.2203</v>
       </c>
-      <c r="O50" s="9" t="n">
+      <c r="P50" s="3" t="n">
         <v>1.2355</v>
       </c>
-      <c r="P50" s="9" t="n">
+      <c r="Q50" s="3" t="n">
         <v>1.3562</v>
       </c>
-      <c r="Q50" s="9" t="n">
+      <c r="R50" s="3" t="n">
         <v>1.414</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="51" s="6" spans="1:17">
-      <c r="A51" s="9" t="s">
+      <c r="S50" s="3" t="n"/>
+      <c r="T50" s="3" t="n"/>
+      <c r="U50" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="51" s="1" spans="1:21">
+      <c r="A51" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="9" t="n">
+      <c r="B51" s="3" t="n">
         <v>0.763083028950556</v>
       </c>
-      <c r="C51" s="9" t="n">
+      <c r="C51" s="3" t="n">
         <v>1.31308016622336</v>
       </c>
-      <c r="D51" s="9" t="n">
+      <c r="D51" s="3" t="n">
         <v>0.656540083111678</v>
       </c>
-      <c r="E51" s="9" t="n">
+      <c r="E51" s="3" t="n">
         <v>0.877821489507561</v>
       </c>
-      <c r="F51" s="9" t="n">
+      <c r="F51" s="3" t="n">
         <v>0.454712152481079</v>
       </c>
-      <c r="G51" s="9" t="n">
+      <c r="G51" s="3" t="n">
         <v>1.1458901563748</v>
       </c>
-      <c r="H51" s="9" t="n">
+      <c r="H51" s="3" t="n">
         <v>1.34272966169706</v>
       </c>
-      <c r="I51" s="9" t="n">
+      <c r="I51" s="3" t="n">
         <v>1.156978064071023</v>
       </c>
-      <c r="J51" s="9" t="n">
-        <v>1.206998281772763</v>
-      </c>
-      <c r="K51" s="9" t="n">
+      <c r="J51" s="3" t="n">
+        <v>1.202604680074506</v>
+      </c>
+      <c r="K51" s="3" t="n">
+        <v>1.204080596812992</v>
+      </c>
+      <c r="L51" s="3" t="n">
         <v>0.840001</v>
       </c>
-      <c r="L51" s="9" t="n">
+      <c r="M51" s="3" t="n">
         <v>0.547784</v>
       </c>
-      <c r="M51" s="9" t="n">
+      <c r="N51" s="3" t="n">
         <v>0.4989</v>
       </c>
-      <c r="N51" s="9" t="n">
+      <c r="O51" s="3" t="n">
         <v>1.1901</v>
       </c>
-      <c r="O51" s="9" t="n">
+      <c r="P51" s="3" t="n">
         <v>1.2433</v>
       </c>
-      <c r="P51" s="9" t="n">
+      <c r="Q51" s="3" t="n">
         <v>1.3272</v>
       </c>
-      <c r="Q51" s="9" t="n">
+      <c r="R51" s="3" t="n">
         <v>1.3233</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="52" s="6" spans="1:17">
-      <c r="A52" s="9" t="s">
+      <c r="S51" s="3" t="n"/>
+      <c r="T51" s="3" t="n"/>
+      <c r="U51" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="52" s="1" spans="1:21">
+      <c r="A52" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="9" t="n">
+      <c r="B52" s="3" t="n">
         <v>0.906134713176415</v>
       </c>
-      <c r="C52" s="9" t="n">
+      <c r="C52" s="3" t="n">
         <v>1.29026624741302</v>
       </c>
-      <c r="D52" s="9" t="n">
+      <c r="D52" s="3" t="n">
         <v>0.645133123706508</v>
       </c>
-      <c r="E52" s="9" t="n">
+      <c r="E52" s="3" t="n">
         <v>0.6526153064558911</v>
       </c>
-      <c r="F52" s="9" t="n">
+      <c r="F52" s="3" t="n">
         <v>0.470722734928131</v>
       </c>
-      <c r="G52" s="9" t="n">
+      <c r="G52" s="3" t="n">
         <v>1.15510297259393</v>
       </c>
-      <c r="H52" s="9" t="n">
+      <c r="H52" s="3" t="n">
         <v>1.21465018479272</v>
       </c>
-      <c r="I52" s="9" t="n">
+      <c r="I52" s="3" t="n">
         <v>1.164015818518301</v>
       </c>
-      <c r="J52" s="9" t="n">
-        <v>1.119732487885715</v>
-      </c>
-      <c r="K52" s="9" t="n">
+      <c r="J52" s="3" t="n">
+        <v>1.121678673566693</v>
+      </c>
+      <c r="K52" s="3" t="n">
+        <v>1.117639524353621</v>
+      </c>
+      <c r="L52" s="3" t="n">
         <v>0.950831</v>
       </c>
-      <c r="L52" s="9" t="n">
+      <c r="M52" s="3" t="n">
         <v>0.437713</v>
       </c>
-      <c r="M52" s="9" t="n">
+      <c r="N52" s="3" t="n">
         <v>0.474</v>
       </c>
-      <c r="N52" s="9" t="n">
+      <c r="O52" s="3" t="n">
         <v>1.2574</v>
       </c>
-      <c r="O52" s="9" t="n">
+      <c r="P52" s="3" t="n">
         <v>1.1182</v>
       </c>
-      <c r="P52" s="9" t="n">
+      <c r="Q52" s="3" t="n">
         <v>1.2976</v>
       </c>
-      <c r="Q52" s="9" t="n">
+      <c r="R52" s="3" t="n">
         <v>1.2685</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="53" s="6" spans="1:17">
-      <c r="A53" s="9" t="s">
+      <c r="S52" s="3" t="n"/>
+      <c r="T52" s="3" t="n"/>
+      <c r="U52" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="53" s="1" spans="1:21">
+      <c r="A53" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="9" t="n">
+      <c r="B53" s="3" t="n">
         <v>0.801698813215033</v>
       </c>
-      <c r="C53" s="9" t="n">
+      <c r="C53" s="3" t="n">
         <v>1.22156977029528</v>
       </c>
-      <c r="D53" s="9" t="n">
+      <c r="D53" s="3" t="n">
         <v>0.610784885147641</v>
       </c>
-      <c r="E53" s="9" t="n">
+      <c r="E53" s="3" t="n">
         <v>1.41224514653946</v>
       </c>
-      <c r="F53" s="9" t="n">
+      <c r="F53" s="3" t="n">
         <v>0.266249358654022</v>
       </c>
-      <c r="G53" s="9" t="n">
+      <c r="G53" s="3" t="n">
         <v>1.148804060823</v>
       </c>
-      <c r="H53" s="9" t="n">
+      <c r="H53" s="3" t="n">
         <v>1.28296400648678</v>
       </c>
-      <c r="I53" s="9" t="n">
+      <c r="I53" s="3" t="n">
         <v>1.149677080241239</v>
       </c>
-      <c r="J53" s="9" t="n">
-        <v>1.204958287196541</v>
-      </c>
-      <c r="K53" s="9" t="n">
+      <c r="J53" s="3" t="n">
+        <v>1.204480989741882</v>
+      </c>
+      <c r="K53" s="3" t="n">
+        <v>1.202108575208288</v>
+      </c>
+      <c r="L53" s="3" t="n">
         <v>0.9346449999999999</v>
       </c>
-      <c r="L53" s="9" t="n">
+      <c r="M53" s="3" t="n">
         <v>0.463629</v>
       </c>
-      <c r="M53" s="9" t="n">
+      <c r="N53" s="3" t="n">
         <v>0.4938</v>
       </c>
-      <c r="N53" s="9" t="n">
+      <c r="O53" s="3" t="n">
         <v>1.2759</v>
       </c>
-      <c r="O53" s="9" t="n">
+      <c r="P53" s="3" t="n">
         <v>1.3121</v>
       </c>
-      <c r="P53" s="9" t="n">
+      <c r="Q53" s="3" t="n">
         <v>1.3009</v>
       </c>
-      <c r="Q53" s="9" t="n">
+      <c r="R53" s="3" t="n">
         <v>1.4096</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="54" s="6" spans="1:17">
-      <c r="A54" s="10" t="s">
+      <c r="S53" s="3" t="n"/>
+      <c r="T53" s="3" t="n"/>
+      <c r="U53" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="54" s="1" spans="1:21">
+      <c r="A54" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="10" t="n">
+      <c r="B54" s="4" t="n">
         <v>0.716984921341697</v>
       </c>
-      <c r="C54" s="10" t="n">
+      <c r="C54" s="4" t="n">
         <v>0.931320600116482</v>
       </c>
-      <c r="D54" s="10" t="n">
+      <c r="D54" s="4" t="n">
         <v>0.465660300058241</v>
       </c>
-      <c r="E54" s="10" t="n">
+      <c r="E54" s="4" t="n">
         <v>1.23944577943349</v>
       </c>
-      <c r="F54" s="10" t="n">
+      <c r="F54" s="4" t="n">
         <v>0.248997211456299</v>
       </c>
-      <c r="G54" s="10" t="n">
+      <c r="G54" s="4" t="n">
         <v>1.13541810035664</v>
       </c>
-      <c r="H54" s="10" t="n">
+      <c r="H54" s="4" t="n">
         <v>1.22846330235821</v>
       </c>
-      <c r="I54" s="10" t="n">
+      <c r="I54" s="4" t="n">
         <v>1.116028678484924</v>
       </c>
-      <c r="J54" s="10" t="n">
-        <v>1.157823586947792</v>
-      </c>
-      <c r="K54" s="10" t="n">
+      <c r="J54" s="4" t="n">
+        <v>1.158757552653906</v>
+      </c>
+      <c r="K54" s="4" t="n">
+        <v>1.158752342167217</v>
+      </c>
+      <c r="L54" s="4" t="n">
         <v>0.79074</v>
       </c>
-      <c r="L54" s="10" t="n">
+      <c r="M54" s="4" t="n">
         <v>0.325364</v>
       </c>
-      <c r="M54" s="10" t="n">
+      <c r="N54" s="4" t="n">
         <v>0.3913</v>
       </c>
-      <c r="N54" s="10" t="n">
+      <c r="O54" s="4" t="n">
         <v>1.1495</v>
       </c>
-      <c r="O54" s="10" t="n">
+      <c r="P54" s="4" t="n">
         <v>1.1355</v>
       </c>
-      <c r="P54" s="10" t="n">
+      <c r="Q54" s="4" t="n">
         <v>1.2323</v>
       </c>
-      <c r="Q54" s="10" t="n">
+      <c r="R54" s="4" t="n">
         <v>1.2699</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="55" s="6" spans="1:17">
-      <c r="A55" s="9" t="s">
+      <c r="S54" s="4" t="n"/>
+      <c r="T54" s="4" t="n"/>
+      <c r="U54" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="55" s="1" spans="1:21">
+      <c r="A55" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="9" t="n">
+      <c r="B55" s="3" t="n">
         <v>0.729545826608055</v>
       </c>
-      <c r="C55" s="9" t="n">
+      <c r="C55" s="3" t="n">
         <v>1.17005442980653</v>
       </c>
-      <c r="D55" s="9" t="n">
+      <c r="D55" s="3" t="n">
         <v>0.585027214903265</v>
       </c>
-      <c r="E55" s="9" t="n">
+      <c r="E55" s="3" t="n">
         <v>1.35026429561861</v>
       </c>
-      <c r="F55" s="9" t="n">
+      <c r="F55" s="3" t="n">
         <v>0.305614650249481</v>
       </c>
-      <c r="G55" s="9" t="n">
+      <c r="G55" s="3" t="n">
         <v>1.08013018728018</v>
       </c>
-      <c r="H55" s="9" t="n">
+      <c r="H55" s="3" t="n">
         <v>1.29889766078364</v>
       </c>
-      <c r="I55" s="9" t="n">
+      <c r="I55" s="3" t="n">
         <v>1.121773883587793</v>
       </c>
-      <c r="J55" s="9" t="n">
-        <v>1.177949653915116</v>
-      </c>
-      <c r="K55" s="9" t="n">
+      <c r="J55" s="3" t="n">
+        <v>1.166018538615361</v>
+      </c>
+      <c r="K55" s="3" t="n">
+        <v>1.174302223602149</v>
+      </c>
+      <c r="L55" s="3" t="n">
         <v>0.821589</v>
       </c>
-      <c r="L55" s="9" t="n">
+      <c r="M55" s="3" t="n">
         <v>0.396803</v>
       </c>
-      <c r="M55" s="9" t="n">
+      <c r="N55" s="3" t="n">
         <v>0.4465</v>
       </c>
-      <c r="N55" s="9" t="n">
+      <c r="O55" s="3" t="n">
         <v>1.1474</v>
       </c>
-      <c r="O55" s="9" t="n">
+      <c r="P55" s="3" t="n">
         <v>1.2065</v>
       </c>
-      <c r="P55" s="9" t="n">
+      <c r="Q55" s="3" t="n">
         <v>1.2087</v>
       </c>
-      <c r="Q55" s="9" t="n">
+      <c r="R55" s="3" t="n">
         <v>1.2201</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="56" s="6" spans="1:17"/>
-    <row customHeight="1" ht="13.9" r="57" s="6" spans="1:17"/>
-    <row customHeight="1" ht="13.9" r="58" s="6" spans="1:17"/>
+      <c r="S55" s="3" t="n"/>
+      <c r="T55" s="3" t="n"/>
+      <c r="U55" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="56" s="1" spans="1:21"/>
+    <row customHeight="1" ht="13.9" r="57" s="1" spans="1:21"/>
+    <row customHeight="1" ht="13.9" r="58" s="1" spans="1:21"/>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="100">
-      <selection activeCell="I1" activeCellId="0" pane="topLeft" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="5" width="28.86"/>
-    <col customWidth="1" max="2" min="2" style="5" width="19.71"/>
-    <col customWidth="1" max="4" min="3" style="5" width="22.28"/>
-    <col customWidth="1" max="5" min="5" style="5" width="19.99"/>
-    <col customWidth="1" max="6" min="6" style="5" width="20.99"/>
-    <col customWidth="1" max="7" min="7" style="5" width="15"/>
-    <col customWidth="1" max="8" min="8" style="5" width="23.42"/>
-    <col customWidth="1" max="9" min="9" style="5" width="23.28"/>
-    <col customWidth="1" max="10" min="10" style="5" width="25"/>
-    <col customWidth="1" max="11" min="11" style="5" width="30.28"/>
-    <col customWidth="1" max="12" min="12" style="5" width="25.14"/>
-    <col customWidth="1" max="13" min="13" style="5" width="9.710000000000001"/>
-    <col customWidth="1" max="17" min="14" style="5" width="9"/>
-    <col customWidth="1" max="1012" min="18" style="5" width="8.57"/>
-    <col customWidth="1" max="1022" min="1013" style="5" width="9.140000000000001"/>
-    <col customWidth="1" max="1025" min="1023" style="5" width="11.52"/>
+    <col customWidth="1" max="1" min="1" style="1" width="28.85546875"/>
+    <col customWidth="1" max="2" min="2" style="1" width="19.7109375"/>
+    <col customWidth="1" max="4" min="3" style="1" width="22.28515625"/>
+    <col customWidth="1" max="5" min="5" style="1" width="20"/>
+    <col customWidth="1" max="6" min="6" style="1" width="21"/>
+    <col customWidth="1" max="7" min="7" style="1" width="23.28515625"/>
+    <col customWidth="1" max="8" min="8" style="1" width="25"/>
+    <col customWidth="1" max="9" min="9" style="1" width="30.28515625"/>
+    <col customWidth="1" max="20" min="10" style="1" width="15.7109375"/>
+    <col customWidth="1" max="1009" min="21" style="1" width="8.5703125"/>
+    <col customWidth="1" max="1019" min="1010" style="1" width="9.140625"/>
+    <col customWidth="1" max="1022" min="1020" style="1" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.9" r="1" s="6" spans="1:17">
-      <c r="A1" s="7" t="s">
+    <row customHeight="1" ht="13.9" r="1" s="1" spans="1:20">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="2" s="6" spans="1:17">
-      <c r="A2" s="9" t="s">
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="2" s="1" spans="1:20">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="3" t="n">
         <v>0.135471784</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="3" t="n">
         <v>0.07712494444</v>
       </c>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="3" t="n">
         <v>0.03856247222</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="3" t="n">
         <v>1.0478953190932</v>
       </c>
-      <c r="F2" s="9" t="n">
+      <c r="F2" s="3" t="n">
         <v>0.452315449714661</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="3" t="n">
         <v>1.01340088727433</v>
       </c>
-      <c r="H2" s="9" t="n">
+      <c r="H2" s="3" t="n">
         <v>1.2381835013913</v>
       </c>
-      <c r="I2" s="9" t="n">
+      <c r="I2" s="3" t="n">
         <v>1.014058218720832</v>
       </c>
-      <c r="J2" s="9" t="n">
-        <v>1.112540198637214</v>
-      </c>
-      <c r="K2" s="9" t="n">
+      <c r="J2" s="3" t="n">
+        <v>1.111455539343198</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>1.112614451319565</v>
+      </c>
+      <c r="L2" s="3" t="n">
         <v>0.227698</v>
       </c>
-      <c r="L2" s="9" t="n">
+      <c r="M2" s="3" t="n">
         <v>0.06491</v>
       </c>
-      <c r="M2" s="9" t="n">
+      <c r="N2" s="3" t="n">
         <v>0.1978</v>
       </c>
-      <c r="N2" s="9" t="n">
+      <c r="O2" s="3" t="n">
         <v>1.0773</v>
       </c>
-      <c r="O2" s="9" t="n">
+      <c r="P2" s="3" t="n">
         <v>1.0875</v>
       </c>
-      <c r="P2" s="9" t="n">
+      <c r="Q2" s="3" t="n">
         <v>1.0164</v>
       </c>
-      <c r="Q2" s="9" t="n">
+      <c r="R2" s="3" t="n">
         <v>1.2835</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="3" s="6" spans="1:17">
-      <c r="A3" s="9" t="s">
+      <c r="S2" s="3" t="n"/>
+      <c r="T2" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="3" s="1" spans="1:20">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="3" t="n">
         <v>0.1861203114</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="3" t="n">
         <v>0.2381155545</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="3" t="n">
         <v>0.1190577773</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="3" t="n">
         <v>0.9380537043323089</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="3" t="n">
         <v>0.169713020324707</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="3" t="n">
         <v>1.02730556678453</v>
       </c>
-      <c r="H3" s="9" t="n">
+      <c r="H3" s="3" t="n">
         <v>1.27383224495927</v>
       </c>
-      <c r="I3" s="9" t="n">
+      <c r="I3" s="3" t="n">
         <v>1.027521058689886</v>
       </c>
-      <c r="J3" s="9" t="n">
-        <v>1.182176804521187</v>
-      </c>
-      <c r="K3" s="9" t="n">
+      <c r="J3" s="3" t="n">
+        <v>1.188009533585394</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>1.184670365270647</v>
+      </c>
+      <c r="L3" s="3" t="n">
         <v>0.218729</v>
       </c>
-      <c r="L3" s="9" t="n">
+      <c r="M3" s="3" t="n">
         <v>0.15591</v>
       </c>
-      <c r="M3" s="9" t="n">
+      <c r="N3" s="3" t="n">
         <v>0.2292</v>
       </c>
-      <c r="N3" s="9" t="n">
+      <c r="O3" s="3" t="n">
         <v>1.0606</v>
       </c>
-      <c r="O3" s="9" t="n">
+      <c r="P3" s="3" t="n">
         <v>1.1211</v>
       </c>
-      <c r="P3" s="9" t="n">
+      <c r="Q3" s="3" t="n">
         <v>1.027</v>
       </c>
-      <c r="Q3" s="9" t="n">
+      <c r="R3" s="3" t="n">
         <v>1.2671</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="4" s="6" spans="1:17">
-      <c r="A4" s="9" t="s">
+      <c r="S3" s="3" t="n"/>
+      <c r="T3" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="4" s="1" spans="1:20">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="3" t="n">
         <v>0.06070930245</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="3" t="n">
         <v>0.08458543752</v>
       </c>
-      <c r="D4" s="9" t="n">
+      <c r="D4" s="3" t="n">
         <v>0.04229271876</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="3" t="n">
         <v>0.525094389206857</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="3" t="n">
         <v>0.125258445739746</v>
       </c>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="3" t="n">
         <v>0.974445859190513</v>
       </c>
-      <c r="H4" s="9" t="n">
+      <c r="H4" s="3" t="n">
         <v>1.20592804672808</v>
       </c>
-      <c r="I4" s="9" t="n">
+      <c r="I4" s="3" t="n">
         <v>1.008240929746407</v>
       </c>
-      <c r="J4" s="9" t="n">
-        <v>1.116806875187924</v>
-      </c>
-      <c r="K4" s="9" t="n">
+      <c r="J4" s="3" t="n">
+        <v>1.11778174702428</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>1.115670801465144</v>
+      </c>
+      <c r="L4" s="3" t="n">
         <v>0.165208</v>
       </c>
-      <c r="L4" s="9" t="n">
+      <c r="M4" s="3" t="n">
         <v>0.040589</v>
       </c>
-      <c r="M4" s="9" t="n">
+      <c r="N4" s="3" t="n">
         <v>0.1469</v>
       </c>
-      <c r="N4" s="9" t="n">
+      <c r="O4" s="3" t="n">
         <v>1.0667</v>
       </c>
-      <c r="O4" s="9" t="n">
+      <c r="P4" s="3" t="n">
         <v>1.0957</v>
       </c>
-      <c r="P4" s="9" t="n">
+      <c r="Q4" s="3" t="n">
         <v>1.0107</v>
       </c>
-      <c r="Q4" s="9" t="n">
+      <c r="R4" s="3" t="n">
         <v>1.136</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="5" s="6" spans="1:17">
-      <c r="A5" s="9" t="s">
+      <c r="S4" s="3" t="n"/>
+      <c r="T4" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="5" s="1" spans="1:20">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="3" t="n">
         <v>0.2429371867</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="3" t="n">
         <v>0.1776869382</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D5" s="3" t="n">
         <v>0.08884346909</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="3" t="n">
         <v>1.22417164175614</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="3" t="n">
         <v>0.175954699516296</v>
       </c>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="3" t="n">
         <v>1.00698281712223</v>
       </c>
-      <c r="H5" s="9" t="n">
+      <c r="H5" s="3" t="n">
         <v>1.21496769983144</v>
       </c>
-      <c r="I5" s="9" t="n">
+      <c r="I5" s="3" t="n">
         <v>1.024964648066423</v>
       </c>
-      <c r="J5" s="9" t="n">
-        <v>1.118030140876514</v>
-      </c>
-      <c r="K5" s="9" t="n">
+      <c r="J5" s="3" t="n">
+        <v>1.11525925722983</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>1.115648663918383</v>
+      </c>
+      <c r="L5" s="3" t="n">
         <v>0.303798</v>
       </c>
-      <c r="L5" s="9" t="n">
+      <c r="M5" s="3" t="n">
         <v>0.103913</v>
       </c>
-      <c r="M5" s="9" t="n">
+      <c r="N5" s="3" t="n">
         <v>0.2307</v>
       </c>
-      <c r="N5" s="9" t="n">
+      <c r="O5" s="3" t="n">
         <v>1.0535</v>
       </c>
-      <c r="O5" s="9" t="n">
+      <c r="P5" s="3" t="n">
         <v>1.0864</v>
       </c>
-      <c r="P5" s="9" t="n">
+      <c r="Q5" s="3" t="n">
         <v>1.0299</v>
       </c>
-      <c r="Q5" s="9" t="n">
+      <c r="R5" s="3" t="n">
         <v>1.1967</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="6" s="6" spans="1:17">
-      <c r="A6" s="9" t="s">
+      <c r="S5" s="3" t="n"/>
+      <c r="T5" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="6" s="1" spans="1:20">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="3" t="n">
         <v>0.2153411431</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="3" t="n">
         <v>0.2746123381</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="3" t="n">
         <v>0.137306169</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="3" t="n">
         <v>0.80857299239022</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="3" t="n">
         <v>0.155705094337463</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="3" t="n">
         <v>0.9450035040045</v>
       </c>
-      <c r="H6" s="9" t="n">
+      <c r="H6" s="3" t="n">
         <v>1.23906332422624</v>
       </c>
-      <c r="I6" s="9" t="n">
+      <c r="I6" s="3" t="n">
         <v>1.025686435536195</v>
       </c>
-      <c r="J6" s="9" t="n">
-        <v>1.131975132285905</v>
-      </c>
-      <c r="K6" s="9" t="n">
+      <c r="J6" s="3" t="n">
+        <v>1.125367795069492</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>1.134611719318568</v>
+      </c>
+      <c r="L6" s="3" t="n">
         <v>0.227157</v>
       </c>
-      <c r="L6" s="9" t="n">
+      <c r="M6" s="3" t="n">
         <v>0.155508</v>
       </c>
-      <c r="M6" s="9" t="n">
+      <c r="N6" s="3" t="n">
         <v>0.2088</v>
       </c>
-      <c r="N6" s="9" t="n">
+      <c r="O6" s="3" t="n">
         <v>1.0372</v>
       </c>
-      <c r="O6" s="9" t="n">
+      <c r="P6" s="3" t="n">
         <v>1.1165</v>
       </c>
-      <c r="P6" s="9" t="n">
+      <c r="Q6" s="3" t="n">
         <v>1.021</v>
       </c>
-      <c r="Q6" s="9" t="n">
+      <c r="R6" s="3" t="n">
         <v>1.2379</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="7" s="6" spans="1:17">
-      <c r="A7" s="9" t="s">
+      <c r="S6" s="3" t="n"/>
+      <c r="T6" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="7" s="1" spans="1:20">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="3" t="n">
         <v>0.140433243</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="3" t="n">
         <v>0.2540033242</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="3" t="n">
         <v>0.1270016621</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="3" t="n">
         <v>0.935887621537699</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="3" t="n">
         <v>0.105082213878632</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="3" t="n">
         <v>0.9402926987792281</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="3" t="n">
         <v>1.25177816837865</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I7" s="3" t="n">
         <v>1.023021305309296</v>
       </c>
-      <c r="J7" s="9" t="n">
-        <v>1.149130351818626</v>
-      </c>
-      <c r="K7" s="9" t="n">
+      <c r="J7" s="3" t="n">
+        <v>1.157610739276542</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>1.151353405581858</v>
+      </c>
+      <c r="L7" s="3" t="n">
         <v>0.174948</v>
       </c>
-      <c r="L7" s="9" t="n">
+      <c r="M7" s="3" t="n">
         <v>0.07083100000000001</v>
       </c>
-      <c r="M7" s="9" t="n">
+      <c r="N7" s="3" t="n">
         <v>0.16</v>
       </c>
-      <c r="N7" s="9" t="n">
+      <c r="O7" s="3" t="n">
         <v>1.0394</v>
       </c>
-      <c r="O7" s="9" t="n">
+      <c r="P7" s="3" t="n">
         <v>1.0648</v>
       </c>
-      <c r="P7" s="9" t="n">
+      <c r="Q7" s="3" t="n">
         <v>1.0116</v>
       </c>
-      <c r="Q7" s="9" t="n">
+      <c r="R7" s="3" t="n">
         <v>1.1436</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="8" s="6" spans="1:17">
-      <c r="A8" s="9" t="s">
+      <c r="S7" s="3" t="n"/>
+      <c r="T7" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="8" s="1" spans="1:20">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="3" t="n">
         <v>0.3160427553</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="3" t="n">
         <v>0.1519210962</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="3" t="n">
         <v>0.0759605481</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="3" t="n">
         <v>0.8188428563482399</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="3" t="n">
         <v>0.139397859573364</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="3" t="n">
         <v>1.13739749117436</v>
       </c>
-      <c r="H8" s="9" t="n">
+      <c r="H8" s="3" t="n">
         <v>1.19076836074332</v>
       </c>
-      <c r="I8" s="9" t="n">
+      <c r="I8" s="3" t="n">
         <v>1.027763487970042</v>
       </c>
-      <c r="J8" s="9" t="n">
-        <v>1.082777795588557</v>
-      </c>
-      <c r="K8" s="9" t="n">
+      <c r="J8" s="3" t="n">
+        <v>1.081629736980676</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>1.081993222071423</v>
+      </c>
+      <c r="L8" s="3" t="n">
         <v>0.401741</v>
       </c>
-      <c r="L8" s="9" t="n">
+      <c r="M8" s="3" t="n">
         <v>0.060529</v>
       </c>
-      <c r="M8" s="9" t="n">
+      <c r="N8" s="3" t="n">
         <v>0.213</v>
       </c>
-      <c r="N8" s="9" t="n">
+      <c r="O8" s="3" t="n">
         <v>1.1105</v>
       </c>
-      <c r="O8" s="9" t="n">
+      <c r="P8" s="3" t="n">
         <v>1.0372</v>
       </c>
-      <c r="P8" s="9" t="n">
+      <c r="Q8" s="3" t="n">
         <v>1.0424</v>
       </c>
-      <c r="Q8" s="9" t="n">
+      <c r="R8" s="3" t="n">
         <v>1.189</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="9" s="6" spans="1:17">
-      <c r="A9" s="9" t="s">
+      <c r="S8" s="3" t="n"/>
+      <c r="T8" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="9" s="1" spans="1:20">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="3" t="n">
         <v>0.2022796451</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="3" t="n">
         <v>0.2838189149</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="3" t="n">
         <v>0.1419094574</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="3" t="n">
         <v>0.822522505896256</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="3" t="n">
         <v>0.590219855308533</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="3" t="n">
         <v>0.952270365228311</v>
       </c>
-      <c r="H9" s="9" t="n">
+      <c r="H9" s="3" t="n">
         <v>1.24859776373834</v>
       </c>
-      <c r="I9" s="9" t="n">
+      <c r="I9" s="3" t="n">
         <v>1.035620080150779</v>
       </c>
-      <c r="J9" s="9" t="n">
-        <v>1.208862455707874</v>
-      </c>
-      <c r="K9" s="9" t="n">
+      <c r="J9" s="3" t="n">
+        <v>1.222424580915601</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>1.215077163358973</v>
+      </c>
+      <c r="L9" s="3" t="n">
         <v>0.240387</v>
       </c>
-      <c r="L9" s="9" t="n">
+      <c r="M9" s="3" t="n">
         <v>0.134864</v>
       </c>
-      <c r="M9" s="9" t="n">
+      <c r="N9" s="3" t="n">
         <v>0.2258</v>
       </c>
-      <c r="N9" s="9" t="n">
+      <c r="O9" s="3" t="n">
         <v>1.0575</v>
       </c>
-      <c r="O9" s="9" t="n">
+      <c r="P9" s="3" t="n">
         <v>1.0788</v>
       </c>
-      <c r="P9" s="9" t="n">
+      <c r="Q9" s="3" t="n">
         <v>1.0268</v>
       </c>
-      <c r="Q9" s="9" t="n">
+      <c r="R9" s="3" t="n">
         <v>1.1663</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="10" s="6" spans="1:17">
-      <c r="A10" s="9" t="s">
+      <c r="S9" s="3" t="n"/>
+      <c r="T9" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="10" s="1" spans="1:20">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="3" t="n">
         <v>0.1973689429</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="3" t="n">
         <v>0.2987698154</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="3" t="n">
         <v>0.1493849077</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="3" t="n">
         <v>1.26890428858675</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="3" t="n">
         <v>0.151651740074158</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="3" t="n">
         <v>0.872519612707799</v>
       </c>
-      <c r="H10" s="9" t="n">
+      <c r="H10" s="3" t="n">
         <v>1.25838532568791</v>
       </c>
-      <c r="I10" s="9" t="n">
+      <c r="I10" s="3" t="n">
         <v>1.03597906398927</v>
       </c>
-      <c r="J10" s="9" t="n">
-        <v>1.223248529991156</v>
-      </c>
-      <c r="K10" s="9" t="n">
+      <c r="J10" s="3" t="n">
+        <v>1.237062654323592</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>1.225746517789379</v>
+      </c>
+      <c r="L10" s="3" t="n">
         <v>0.206925</v>
       </c>
-      <c r="L10" s="9" t="n">
+      <c r="M10" s="3" t="n">
         <v>0.125784</v>
       </c>
-      <c r="M10" s="9" t="n">
+      <c r="N10" s="3" t="n">
         <v>0.2255</v>
       </c>
-      <c r="N10" s="9" t="n">
+      <c r="O10" s="3" t="n">
         <v>1.0526</v>
       </c>
-      <c r="O10" s="9" t="n">
+      <c r="P10" s="3" t="n">
         <v>1.1254</v>
       </c>
-      <c r="P10" s="9" t="n">
+      <c r="Q10" s="3" t="n">
         <v>1.0313</v>
       </c>
-      <c r="Q10" s="9" t="n">
+      <c r="R10" s="3" t="n">
         <v>1.178</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="11" s="6" spans="1:17">
-      <c r="A11" s="9" t="s">
+      <c r="S10" s="3" t="n"/>
+      <c r="T10" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="11" s="1" spans="1:20">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="3" t="n">
         <v>0.1133495253</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="3" t="n">
         <v>0.2130635906</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="3" t="n">
         <v>0.1065317953</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="3" t="n">
         <v>1.03020717224111</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="3" t="n">
         <v>0.120693564414978</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="3" t="n">
         <v>0.840591774102059</v>
       </c>
-      <c r="H11" s="9" t="n">
+      <c r="H11" s="3" t="n">
         <v>1.27038192334625</v>
       </c>
-      <c r="I11" s="9" t="n">
+      <c r="I11" s="3" t="n">
         <v>1.018857715633784</v>
       </c>
-      <c r="J11" s="9" t="n">
-        <v>1.165961819439458</v>
-      </c>
-      <c r="K11" s="9" t="n">
+      <c r="J11" s="3" t="n">
+        <v>1.18181327384822</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>1.173588695420103</v>
+      </c>
+      <c r="L11" s="3" t="n">
         <v>0.148963</v>
       </c>
-      <c r="L11" s="9" t="n">
+      <c r="M11" s="3" t="n">
         <v>0.060044</v>
       </c>
-      <c r="M11" s="9" t="n">
+      <c r="N11" s="3" t="n">
         <v>0.1577</v>
       </c>
-      <c r="N11" s="9" t="n">
+      <c r="O11" s="3" t="n">
         <v>1.063</v>
       </c>
-      <c r="O11" s="9" t="n">
+      <c r="P11" s="3" t="n">
         <v>1.1247</v>
       </c>
-      <c r="P11" s="9" t="n">
+      <c r="Q11" s="3" t="n">
         <v>1.0092</v>
       </c>
-      <c r="Q11" s="9" t="n">
+      <c r="R11" s="3" t="n">
         <v>1.1533</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="12" s="6" spans="1:17">
-      <c r="A12" s="9" t="s">
+      <c r="S11" s="3" t="n"/>
+      <c r="T11" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="12" s="1" spans="1:20">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="3" t="n">
         <v>0.542684638</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="3" t="n">
         <v>0.3377289931</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="D12" s="3" t="n">
         <v>0.1688644965</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="E12" s="3" t="n">
         <v>1.11222491326826</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="3" t="n">
         <v>0.680139899253845</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="3" t="n">
         <v>1.06288196132581</v>
       </c>
-      <c r="H12" s="9" t="n">
+      <c r="H12" s="3" t="n">
         <v>1.31293577998809</v>
       </c>
-      <c r="I12" s="9" t="n">
+      <c r="I12" s="3" t="n">
         <v>1.101283650112051</v>
       </c>
-      <c r="J12" s="9" t="n">
-        <v>1.252793884194187</v>
-      </c>
-      <c r="K12" s="9" t="n">
+      <c r="J12" s="3" t="n">
+        <v>1.268613064182876</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>1.264273497613428</v>
+      </c>
+      <c r="L12" s="3" t="n">
         <v>0.614821</v>
       </c>
-      <c r="L12" s="9" t="n">
+      <c r="M12" s="3" t="n">
         <v>0.32381</v>
       </c>
-      <c r="M12" s="9" t="n">
+      <c r="N12" s="3" t="n">
         <v>0.3459</v>
       </c>
-      <c r="N12" s="9" t="n">
+      <c r="O12" s="3" t="n">
         <v>1.0993</v>
       </c>
-      <c r="O12" s="9" t="n">
+      <c r="P12" s="3" t="n">
         <v>1.1193</v>
       </c>
-      <c r="P12" s="9" t="n">
+      <c r="Q12" s="3" t="n">
         <v>1.113</v>
       </c>
-      <c r="Q12" s="9" t="n">
+      <c r="R12" s="3" t="n">
         <v>1.2424</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="13" s="6" spans="1:17">
-      <c r="A13" s="9" t="s">
+      <c r="S12" s="3" t="n"/>
+      <c r="T12" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="13" s="1" spans="1:20">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="3" t="n">
         <v>0.7363996013</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="3" t="n">
         <v>0.1748155785</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="3" t="n">
         <v>0.08740778924000001</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E13" s="3" t="n">
         <v>0.218925839691683</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F13" s="3" t="n">
         <v>0.293205797672272</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="3" t="n">
         <v>1.03940234687629</v>
       </c>
-      <c r="H13" s="9" t="n">
+      <c r="H13" s="3" t="n">
         <v>1.23696853350222</v>
       </c>
-      <c r="I13" s="9" t="n">
+      <c r="I13" s="3" t="n">
         <v>1.093002278834122</v>
       </c>
-      <c r="J13" s="9" t="n">
-        <v>1.153370872982707</v>
-      </c>
-      <c r="K13" s="9" t="n">
+      <c r="J13" s="3" t="n">
+        <v>1.14915579067241</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>1.148106161528101</v>
+      </c>
+      <c r="L13" s="3" t="n">
         <v>0.7687850000000001</v>
       </c>
-      <c r="L13" s="9" t="n">
+      <c r="M13" s="3" t="n">
         <v>0.195094</v>
       </c>
-      <c r="M13" s="9" t="n">
+      <c r="N13" s="3" t="n">
         <v>0.3455</v>
       </c>
-      <c r="N13" s="9" t="n">
+      <c r="O13" s="3" t="n">
         <v>1.1343</v>
       </c>
-      <c r="O13" s="9" t="n">
+      <c r="P13" s="3" t="n">
         <v>1.0904</v>
       </c>
-      <c r="P13" s="9" t="n">
+      <c r="Q13" s="3" t="n">
         <v>1.182</v>
       </c>
-      <c r="Q13" s="9" t="n">
+      <c r="R13" s="3" t="n">
         <v>1.2539</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="14" s="6" spans="1:17">
-      <c r="A14" s="9" t="s">
+      <c r="S13" s="3" t="n"/>
+      <c r="T13" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="14" s="1" spans="1:20">
+      <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="3" t="n">
         <v>0.7316064498</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="3" t="n">
         <v>0.1873743828</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="3" t="n">
         <v>0.09368719139999999</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="3" t="n">
         <v>1.0247928216204</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="3" t="n">
         <v>0.404803276062012</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="3" t="n">
         <v>1.09458124404161</v>
       </c>
-      <c r="H14" s="9" t="n">
+      <c r="H14" s="3" t="n">
         <v>1.28282832634542</v>
       </c>
-      <c r="I14" s="9" t="n">
+      <c r="I14" s="3" t="n">
         <v>1.100794563725477</v>
       </c>
-      <c r="J14" s="9" t="n">
-        <v>1.152458345026493</v>
-      </c>
-      <c r="K14" s="9" t="n">
+      <c r="J14" s="3" t="n">
+        <v>1.154305330759311</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>1.158938692661686</v>
+      </c>
+      <c r="L14" s="3" t="n">
         <v>0.762088</v>
       </c>
-      <c r="L14" s="9" t="n">
+      <c r="M14" s="3" t="n">
         <v>0.486904</v>
       </c>
-      <c r="M14" s="9" t="n">
+      <c r="N14" s="3" t="n">
         <v>0.4104</v>
       </c>
-      <c r="N14" s="9" t="n">
+      <c r="O14" s="3" t="n">
         <v>1.1465</v>
       </c>
-      <c r="O14" s="9" t="n">
+      <c r="P14" s="3" t="n">
         <v>1.132</v>
       </c>
-      <c r="P14" s="9" t="n">
+      <c r="Q14" s="3" t="n">
         <v>1.1808</v>
       </c>
-      <c r="Q14" s="9" t="n">
+      <c r="R14" s="3" t="n">
         <v>1.2271</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="15" s="6" spans="1:17">
-      <c r="A15" s="9" t="s">
+      <c r="S14" s="3" t="n"/>
+      <c r="T14" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="15" s="1" spans="1:20">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="3" t="n">
         <v>0.07997631136</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="3" t="n">
         <v>0.04653506125</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="3" t="n">
         <v>0.02326753062</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="3" t="n">
         <v>0.92792305702723</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="3" t="n">
         <v>0.0811212658882141</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="3" t="n">
         <v>0.9764725631926759</v>
       </c>
-      <c r="H15" s="9" t="n">
+      <c r="H15" s="3" t="n">
         <v>1.19688021636567</v>
       </c>
-      <c r="I15" s="9" t="n">
+      <c r="I15" s="3" t="n">
         <v>1.008169758034104</v>
       </c>
-      <c r="J15" s="9" t="n">
-        <v>1.117461711521265</v>
-      </c>
-      <c r="K15" s="9" t="n">
+      <c r="J15" s="3" t="n">
+        <v>1.1142087917148</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>1.111856870937833</v>
+      </c>
+      <c r="L15" s="3" t="n">
         <v>0.185403</v>
       </c>
-      <c r="L15" s="9" t="n">
+      <c r="M15" s="3" t="n">
         <v>0.030539</v>
       </c>
-      <c r="M15" s="9" t="n">
+      <c r="N15" s="3" t="n">
         <v>0.1384</v>
       </c>
-      <c r="N15" s="9" t="n">
+      <c r="O15" s="3" t="n">
         <v>1.0502</v>
       </c>
-      <c r="O15" s="9" t="n">
+      <c r="P15" s="3" t="n">
         <v>1.0504</v>
       </c>
-      <c r="P15" s="9" t="n">
+      <c r="Q15" s="3" t="n">
         <v>1.0111</v>
       </c>
-      <c r="Q15" s="9" t="n">
+      <c r="R15" s="3" t="n">
         <v>1.1606</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="16" s="6" spans="1:17">
-      <c r="A16" s="9" t="s">
+      <c r="S15" s="3" t="n"/>
+      <c r="T15" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="16" s="1" spans="1:20">
+      <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="3" t="n">
         <v>0.09977780358</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="3" t="n">
         <v>0.2146196853</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D16" s="3" t="n">
         <v>0.1073098426</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="3" t="n">
         <v>1.26505552866412</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F16" s="3" t="n">
         <v>0.110920310020447</v>
       </c>
-      <c r="G16" s="9" t="n">
+      <c r="G16" s="3" t="n">
         <v>1.00226846824849</v>
       </c>
-      <c r="H16" s="9" t="n">
+      <c r="H16" s="3" t="n">
         <v>1.30313099506066</v>
       </c>
-      <c r="I16" s="9" t="n">
+      <c r="I16" s="3" t="n">
         <v>1.019899548973347</v>
       </c>
-      <c r="J16" s="9" t="n">
-        <v>1.16639264451406</v>
-      </c>
-      <c r="K16" s="9" t="n">
+      <c r="J16" s="3" t="n">
+        <v>1.17544710332599</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>1.168034378659475</v>
+      </c>
+      <c r="L16" s="3" t="n">
         <v>0.148463</v>
       </c>
-      <c r="L16" s="9" t="n">
+      <c r="M16" s="3" t="n">
         <v>0.06883300000000001</v>
       </c>
-      <c r="M16" s="9" t="n">
+      <c r="N16" s="3" t="n">
         <v>0.1688</v>
       </c>
-      <c r="N16" s="9" t="n">
+      <c r="O16" s="3" t="n">
         <v>1.0513</v>
       </c>
-      <c r="O16" s="9" t="n">
+      <c r="P16" s="3" t="n">
         <v>1.0557</v>
       </c>
-      <c r="P16" s="9" t="n">
+      <c r="Q16" s="3" t="n">
         <v>1.0115</v>
       </c>
-      <c r="Q16" s="9" t="n">
+      <c r="R16" s="3" t="n">
         <v>1.122</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="17" s="6" spans="1:17">
-      <c r="A17" s="9" t="s">
+      <c r="S16" s="3" t="n"/>
+      <c r="T16" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="17" s="1" spans="1:20">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="3" t="n">
         <v>0.1900950166</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="3" t="n">
         <v>0.1275553575</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="D17" s="3" t="n">
         <v>0.06377767875</v>
       </c>
-      <c r="E17" s="9" t="n">
+      <c r="E17" s="3" t="n">
         <v>0.860572253105349</v>
       </c>
-      <c r="F17" s="9" t="n">
+      <c r="F17" s="3" t="n">
         <v>0.167626798152924</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="G17" s="3" t="n">
         <v>1.02626528865104</v>
       </c>
-      <c r="H17" s="9" t="n">
+      <c r="H17" s="3" t="n">
         <v>1.20485631625069</v>
       </c>
-      <c r="I17" s="9" t="n">
+      <c r="I17" s="3" t="n">
         <v>1.017508886977981</v>
       </c>
-      <c r="J17" s="9" t="n">
-        <v>1.131853522440347</v>
-      </c>
-      <c r="K17" s="9" t="n">
+      <c r="J17" s="3" t="n">
+        <v>1.12676016191737</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>1.130754750382093</v>
+      </c>
+      <c r="L17" s="3" t="n">
         <v>0.271205</v>
       </c>
-      <c r="L17" s="9" t="n">
+      <c r="M17" s="3" t="n">
         <v>0.082303</v>
       </c>
-      <c r="M17" s="9" t="n">
+      <c r="N17" s="3" t="n">
         <v>0.2046</v>
       </c>
-      <c r="N17" s="9" t="n">
+      <c r="O17" s="3" t="n">
         <v>1.0826</v>
       </c>
-      <c r="O17" s="9" t="n">
+      <c r="P17" s="3" t="n">
         <v>1.1034</v>
       </c>
-      <c r="P17" s="9" t="n">
+      <c r="Q17" s="3" t="n">
         <v>1.028</v>
       </c>
-      <c r="Q17" s="9" t="n">
+      <c r="R17" s="3" t="n">
         <v>1.1885</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="18" s="6" spans="1:17">
-      <c r="A18" s="9" t="s">
+      <c r="S17" s="3" t="n"/>
+      <c r="T17" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="18" s="1" spans="1:20">
+      <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="3" t="n">
         <v>0.1101932634</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="3" t="n">
         <v>0.159119213</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D18" s="3" t="n">
         <v>0.07955960648</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E18" s="3" t="n">
         <v>0.844646109776242</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F18" s="3" t="n">
         <v>0.088028609752655</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="3" t="n">
         <v>1.00719548665978</v>
       </c>
-      <c r="H18" s="9" t="n">
+      <c r="H18" s="3" t="n">
         <v>1.21006216469694</v>
       </c>
-      <c r="I18" s="9" t="n">
+      <c r="I18" s="3" t="n">
         <v>1.012571666861221</v>
       </c>
-      <c r="J18" s="9" t="n">
-        <v>1.120417698964012</v>
-      </c>
-      <c r="K18" s="9" t="n">
+      <c r="J18" s="3" t="n">
+        <v>1.122719088428597</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>1.121460197912543</v>
+      </c>
+      <c r="L18" s="3" t="n">
         <v>0.170425</v>
       </c>
-      <c r="L18" s="9" t="n">
+      <c r="M18" s="3" t="n">
         <v>0.076034</v>
       </c>
-      <c r="M18" s="9" t="n">
+      <c r="N18" s="3" t="n">
         <v>0.1448</v>
       </c>
-      <c r="N18" s="9" t="n">
+      <c r="O18" s="3" t="n">
         <v>1.0522</v>
       </c>
-      <c r="O18" s="9" t="n">
+      <c r="P18" s="3" t="n">
         <v>1.0563</v>
       </c>
-      <c r="P18" s="9" t="n">
+      <c r="Q18" s="3" t="n">
         <v>1.0134</v>
       </c>
-      <c r="Q18" s="9" t="n">
+      <c r="R18" s="3" t="n">
         <v>1.1463</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="19" s="6" spans="1:17">
-      <c r="A19" s="9" t="s">
+      <c r="S18" s="3" t="n"/>
+      <c r="T18" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="19" s="1" spans="1:20">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="3" t="n">
         <v>0.2278651346</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="3" t="n">
         <v>0.2083141311</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="3" t="n">
         <v>0.1041570655</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="3" t="n">
         <v>0.9084497126443229</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="3" t="n">
         <v>0.187930881977081</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="3" t="n">
         <v>1.10713063187818</v>
       </c>
-      <c r="H19" s="9" t="n">
+      <c r="H19" s="3" t="n">
         <v>1.24059116040739</v>
       </c>
-      <c r="I19" s="9" t="n">
+      <c r="I19" s="3" t="n">
         <v>1.027425169951946</v>
       </c>
-      <c r="J19" s="9" t="n">
-        <v>1.108042278629974</v>
-      </c>
-      <c r="K19" s="9" t="n">
+      <c r="J19" s="3" t="n">
+        <v>1.108613066618775</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>1.107443921223298</v>
+      </c>
+      <c r="L19" s="3" t="n">
         <v>0.299456</v>
       </c>
-      <c r="L19" s="9" t="n">
+      <c r="M19" s="3" t="n">
         <v>0.135394</v>
       </c>
-      <c r="M19" s="9" t="n">
+      <c r="N19" s="3" t="n">
         <v>0.223</v>
       </c>
-      <c r="N19" s="9" t="n">
+      <c r="O19" s="3" t="n">
         <v>1.0734</v>
       </c>
-      <c r="O19" s="9" t="n">
+      <c r="P19" s="3" t="n">
         <v>1.0736</v>
       </c>
-      <c r="P19" s="9" t="n">
+      <c r="Q19" s="3" t="n">
         <v>1.0206</v>
       </c>
-      <c r="Q19" s="9" t="n">
+      <c r="R19" s="3" t="n">
         <v>1.1629</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="20" s="6" spans="1:17">
-      <c r="A20" s="9" t="s">
+      <c r="S19" s="3" t="n"/>
+      <c r="T19" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="20" s="1" spans="1:20">
+      <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="3" t="n">
         <v>0.6255013138</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="3" t="n">
         <v>0.09553233751</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="3" t="n">
         <v>0.04776616876</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E20" s="3" t="n">
         <v>1.04822189844448</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="3" t="n">
         <v>0.235147178173065</v>
       </c>
-      <c r="G20" s="9" t="n">
+      <c r="G20" s="3" t="n">
         <v>1.03944135376862</v>
       </c>
-      <c r="H20" s="9" t="n">
+      <c r="H20" s="3" t="n">
         <v>1.19626556878141</v>
       </c>
-      <c r="I20" s="9" t="n">
+      <c r="I20" s="3" t="n">
         <v>1.068906853420371</v>
       </c>
-      <c r="J20" s="9" t="n">
-        <v>1.113792425693809</v>
-      </c>
-      <c r="K20" s="9" t="n">
+      <c r="J20" s="3" t="n">
+        <v>1.1122894883477</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>1.112149673691717</v>
+      </c>
+      <c r="L20" s="3" t="n">
         <v>0.6697650000000001</v>
       </c>
-      <c r="L20" s="9" t="n">
+      <c r="M20" s="3" t="n">
         <v>0.153087</v>
       </c>
-      <c r="M20" s="9" t="n">
+      <c r="N20" s="3" t="n">
         <v>0.3049</v>
       </c>
-      <c r="N20" s="9" t="n">
+      <c r="O20" s="3" t="n">
         <v>1.1183</v>
       </c>
-      <c r="O20" s="9" t="n">
+      <c r="P20" s="3" t="n">
         <v>1.0985</v>
       </c>
-      <c r="P20" s="9" t="n">
+      <c r="Q20" s="3" t="n">
         <v>1.084</v>
       </c>
-      <c r="Q20" s="9" t="n">
+      <c r="R20" s="3" t="n">
         <v>1.1657</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="21" s="6" spans="1:17">
-      <c r="A21" s="9" t="s">
+      <c r="S20" s="3" t="n"/>
+      <c r="T20" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="21" s="1" spans="1:20">
+      <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="3" t="n">
         <v>0.4047282576</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="3" t="n">
         <v>0.213536743</v>
       </c>
-      <c r="D21" s="9" t="n">
+      <c r="D21" s="3" t="n">
         <v>0.1067683715</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="3" t="n">
         <v>1.04878152533859</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="3" t="n">
         <v>0.357396304607391</v>
       </c>
-      <c r="G21" s="9" t="n">
+      <c r="G21" s="3" t="n">
         <v>0.950123173553892</v>
       </c>
-      <c r="H21" s="9" t="n">
+      <c r="H21" s="3" t="n">
         <v>1.20134714576302</v>
       </c>
-      <c r="I21" s="9" t="n">
+      <c r="I21" s="3" t="n">
         <v>1.047924869074254</v>
       </c>
-      <c r="J21" s="9" t="n">
-        <v>1.095421723511291</v>
-      </c>
-      <c r="K21" s="9" t="n">
+      <c r="J21" s="3" t="n">
+        <v>1.095088141122654</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>1.094214967545214</v>
+      </c>
+      <c r="L21" s="3" t="n">
         <v>0.440462</v>
       </c>
-      <c r="L21" s="9" t="n">
+      <c r="M21" s="3" t="n">
         <v>0.160229</v>
       </c>
-      <c r="M21" s="9" t="n">
+      <c r="N21" s="3" t="n">
         <v>0.2652</v>
       </c>
-      <c r="N21" s="9" t="n">
+      <c r="O21" s="3" t="n">
         <v>1.0279</v>
       </c>
-      <c r="O21" s="9" t="n">
+      <c r="P21" s="3" t="n">
         <v>0.99637</v>
       </c>
-      <c r="P21" s="9" t="n">
+      <c r="Q21" s="3" t="n">
         <v>1.0391</v>
       </c>
-      <c r="Q21" s="9" t="n">
+      <c r="R21" s="3" t="n">
         <v>1.0938</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="22" s="6" spans="1:17">
-      <c r="A22" s="9" t="s">
+      <c r="S21" s="3" t="n"/>
+      <c r="T21" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="22" s="1" spans="1:20">
+      <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="3" t="n">
         <v>0.3427012638</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="3" t="n">
         <v>0.2189281884</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="3" t="n">
         <v>0.1094640942</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E22" s="3" t="n">
         <v>1.47239448699152</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="3" t="n">
         <v>0.542864322662354</v>
       </c>
-      <c r="G22" s="9" t="n">
+      <c r="G22" s="3" t="n">
         <v>0.992349106839121</v>
       </c>
-      <c r="H22" s="9" t="n">
+      <c r="H22" s="3" t="n">
         <v>1.26151167107298</v>
       </c>
-      <c r="I22" s="9" t="n">
+      <c r="I22" s="3" t="n">
         <v>1.057219222581083</v>
       </c>
-      <c r="J22" s="9" t="n">
-        <v>1.145729065593881</v>
-      </c>
-      <c r="K22" s="9" t="n">
+      <c r="J22" s="3" t="n">
+        <v>1.141098758847651</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>1.144230189355771</v>
+      </c>
+      <c r="L22" s="3" t="n">
         <v>0.397659</v>
       </c>
-      <c r="L22" s="9" t="n">
+      <c r="M22" s="3" t="n">
         <v>0.291695</v>
       </c>
-      <c r="M22" s="9" t="n">
+      <c r="N22" s="3" t="n">
         <v>0.2621</v>
       </c>
-      <c r="N22" s="9" t="n">
+      <c r="O22" s="3" t="n">
         <v>1.0747</v>
       </c>
-      <c r="O22" s="9" t="n">
+      <c r="P22" s="3" t="n">
         <v>1.1534</v>
       </c>
-      <c r="P22" s="9" t="n">
+      <c r="Q22" s="3" t="n">
         <v>1.0622</v>
       </c>
-      <c r="Q22" s="9" t="n">
+      <c r="R22" s="3" t="n">
         <v>1.2205</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="23" s="6" spans="1:17">
-      <c r="A23" s="9" t="s">
+      <c r="S22" s="3" t="n"/>
+      <c r="T22" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="23" s="1" spans="1:20">
+      <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="3" t="n">
         <v>0.7576835948</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="3" t="n">
         <v>0.3317321699</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="3" t="n">
         <v>0.1658660849</v>
       </c>
-      <c r="E23" s="9" t="n">
+      <c r="E23" s="3" t="n">
         <v>1.053559250502</v>
       </c>
-      <c r="F23" s="9" t="n">
+      <c r="F23" s="3" t="n">
         <v>0.386141538619995</v>
       </c>
-      <c r="G23" s="9" t="n">
+      <c r="G23" s="3" t="n">
         <v>1.00957407788589</v>
       </c>
-      <c r="H23" s="9" t="n">
+      <c r="H23" s="3" t="n">
         <v>1.43378365961619</v>
       </c>
-      <c r="I23" s="9" t="n">
+      <c r="I23" s="3" t="n">
         <v>1.173113351304496</v>
       </c>
-      <c r="J23" s="9" t="n">
-        <v>1.194489182625861</v>
-      </c>
-      <c r="K23" s="9" t="n">
+      <c r="J23" s="3" t="n">
+        <v>1.195203247821131</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>1.197588237535332</v>
+      </c>
+      <c r="L23" s="3" t="n">
         <v>0.78526</v>
       </c>
-      <c r="L23" s="9" t="n">
+      <c r="M23" s="3" t="n">
         <v>0.614273</v>
       </c>
-      <c r="M23" s="9" t="n">
+      <c r="N23" s="3" t="n">
         <v>0.4744</v>
       </c>
-      <c r="N23" s="9" t="n">
+      <c r="O23" s="3" t="n">
         <v>1.1302</v>
       </c>
-      <c r="O23" s="9" t="n">
+      <c r="P23" s="3" t="n">
         <v>1.2876</v>
       </c>
-      <c r="P23" s="9" t="n">
+      <c r="Q23" s="3" t="n">
         <v>1.2569</v>
       </c>
-      <c r="Q23" s="9" t="n">
+      <c r="R23" s="3" t="n">
         <v>1.4996</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="24" s="6" spans="1:17">
-      <c r="A24" s="9" t="s">
+      <c r="S23" s="3" t="n"/>
+      <c r="T23" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="24" s="1" spans="1:20">
+      <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="3" t="n">
         <v>0.6192660368</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="C24" s="3" t="n">
         <v>0.3672259729</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="3" t="n">
         <v>0.1836129865</v>
       </c>
-      <c r="E24" s="9" t="n">
+      <c r="E24" s="3" t="n">
         <v>1.10504372880768</v>
       </c>
-      <c r="F24" s="9" t="n">
+      <c r="F24" s="3" t="n">
         <v>0.404039084911346</v>
       </c>
-      <c r="G24" s="9" t="n">
+      <c r="G24" s="3" t="n">
         <v>1.01192458346862</v>
       </c>
-      <c r="H24" s="9" t="n">
+      <c r="H24" s="3" t="n">
         <v>1.33721398784783</v>
       </c>
-      <c r="I24" s="9" t="n">
+      <c r="I24" s="3" t="n">
         <v>1.126912774123872</v>
       </c>
-      <c r="J24" s="9" t="n">
-        <v>1.190724914384254</v>
-      </c>
-      <c r="K24" s="9" t="n">
+      <c r="J24" s="3" t="n">
+        <v>1.196310467901666</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>1.189106406637645</v>
+      </c>
+      <c r="L24" s="3" t="n">
         <v>0.657681</v>
       </c>
-      <c r="L24" s="9" t="n">
+      <c r="M24" s="3" t="n">
         <v>0.443082</v>
       </c>
-      <c r="M24" s="9" t="n">
+      <c r="N24" s="3" t="n">
         <v>0.4001</v>
       </c>
-      <c r="N24" s="9" t="n">
+      <c r="O24" s="3" t="n">
         <v>1.1273</v>
       </c>
-      <c r="O24" s="9" t="n">
+      <c r="P24" s="3" t="n">
         <v>1.1646</v>
       </c>
-      <c r="P24" s="9" t="n">
+      <c r="Q24" s="3" t="n">
         <v>1.1961</v>
       </c>
-      <c r="Q24" s="9" t="n">
+      <c r="R24" s="3" t="n">
         <v>1.3433</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="25" s="6" spans="1:17">
-      <c r="A25" s="9" t="s">
+      <c r="S24" s="3" t="n"/>
+      <c r="T24" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="25" s="1" spans="1:20">
+      <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="3" t="n">
         <v>0.7047616732</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C25" s="3" t="n">
         <v>0.2717965535</v>
       </c>
-      <c r="D25" s="9" t="n">
+      <c r="D25" s="3" t="n">
         <v>0.1358982768</v>
       </c>
-      <c r="E25" s="9" t="n">
+      <c r="E25" s="3" t="n">
         <v>0.835990625816013</v>
       </c>
-      <c r="F25" s="9" t="n">
+      <c r="F25" s="3" t="n">
         <v>0.5119349360466</v>
       </c>
-      <c r="G25" s="9" t="n">
+      <c r="G25" s="3" t="n">
         <v>0.92603761856792</v>
       </c>
-      <c r="H25" s="9" t="n">
+      <c r="H25" s="3" t="n">
         <v>1.21764363334265</v>
       </c>
-      <c r="I25" s="9" t="n">
+      <c r="I25" s="3" t="n">
         <v>1.100396195518428</v>
       </c>
-      <c r="J25" s="9" t="n">
-        <v>1.104915246821336</v>
-      </c>
-      <c r="K25" s="9" t="n">
+      <c r="J25" s="3" t="n">
+        <v>1.106036249401151</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>1.10387552795483</v>
+      </c>
+      <c r="L25" s="3" t="n">
         <v>0.7262110000000001</v>
       </c>
-      <c r="L25" s="9" t="n">
+      <c r="M25" s="3" t="n">
         <v>0.477882</v>
       </c>
-      <c r="M25" s="9" t="n">
+      <c r="N25" s="3" t="n">
         <v>0.3316</v>
       </c>
-      <c r="N25" s="9" t="n">
+      <c r="O25" s="3" t="n">
         <v>1.119</v>
       </c>
-      <c r="O25" s="9" t="n">
+      <c r="P25" s="3" t="n">
         <v>1.0508</v>
       </c>
-      <c r="P25" s="9" t="n">
+      <c r="Q25" s="3" t="n">
         <v>1.1273</v>
       </c>
-      <c r="Q25" s="9" t="n">
+      <c r="R25" s="3" t="n">
         <v>1.1346</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="26" s="6" spans="1:17">
-      <c r="A26" s="9" t="s">
+      <c r="S25" s="3" t="n"/>
+      <c r="T25" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="26" s="1" spans="1:20">
+      <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="3" t="n">
         <v>0.9184985617</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C26" s="3" t="n">
         <v>0.3047104361</v>
       </c>
-      <c r="D26" s="9" t="n">
+      <c r="D26" s="3" t="n">
         <v>0.152355218</v>
       </c>
-      <c r="E26" s="9" t="n">
+      <c r="E26" s="3" t="n">
         <v>1.34473877848343</v>
       </c>
-      <c r="F26" s="9" t="n">
+      <c r="F26" s="3" t="n">
         <v>0.570146501064301</v>
       </c>
-      <c r="G26" s="9" t="n">
+      <c r="G26" s="3" t="n">
         <v>1.20269038167983</v>
       </c>
-      <c r="H26" s="9" t="n">
+      <c r="H26" s="3" t="n">
         <v>1.30188293585088</v>
       </c>
-      <c r="I26" s="9" t="n">
+      <c r="I26" s="3" t="n">
         <v>1.184102974108779</v>
       </c>
-      <c r="J26" s="9" t="n">
-        <v>1.240837983955294</v>
-      </c>
-      <c r="K26" s="9" t="n">
+      <c r="J26" s="3" t="n">
+        <v>1.241679860379829</v>
+      </c>
+      <c r="K26" s="3" t="n">
+        <v>1.243715725158663</v>
+      </c>
+      <c r="L26" s="3" t="n">
         <v>0.930828</v>
       </c>
-      <c r="L26" s="9" t="n">
+      <c r="M26" s="3" t="n">
         <v>0.53778</v>
       </c>
-      <c r="M26" s="9" t="n">
+      <c r="N26" s="3" t="n">
         <v>0.5283</v>
       </c>
-      <c r="N26" s="9" t="n">
+      <c r="O26" s="3" t="n">
         <v>1.2588</v>
       </c>
-      <c r="O26" s="9" t="n">
+      <c r="P26" s="3" t="n">
         <v>1.2547</v>
       </c>
-      <c r="P26" s="9" t="n">
+      <c r="Q26" s="3" t="n">
         <v>1.3138</v>
       </c>
-      <c r="Q26" s="9" t="n">
+      <c r="R26" s="3" t="n">
         <v>1.3339</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="27" s="6" spans="1:17">
-      <c r="A27" s="9" t="s">
+      <c r="S26" s="3" t="n"/>
+      <c r="T26" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="27" s="1" spans="1:20">
+      <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="9" t="n">
+      <c r="B27" s="3" t="n">
         <v>0.8698101246</v>
       </c>
-      <c r="C27" s="9" t="n">
+      <c r="C27" s="3" t="n">
         <v>0.3279942129</v>
       </c>
-      <c r="D27" s="9" t="n">
+      <c r="D27" s="3" t="n">
         <v>0.1639971064</v>
       </c>
-      <c r="E27" s="9" t="n">
+      <c r="E27" s="3" t="n">
         <v>0.7776359814699531</v>
       </c>
-      <c r="F27" s="9" t="n">
+      <c r="F27" s="3" t="n">
         <v>0.53213894367218</v>
       </c>
-      <c r="G27" s="9" t="n">
+      <c r="G27" s="3" t="n">
         <v>1.08490993621096</v>
       </c>
-      <c r="H27" s="9" t="n">
+      <c r="H27" s="3" t="n">
         <v>1.34905758975175</v>
       </c>
-      <c r="I27" s="9" t="n">
+      <c r="I27" s="3" t="n">
         <v>1.169818066365053</v>
       </c>
-      <c r="J27" s="9" t="n">
-        <v>1.174369679167351</v>
-      </c>
-      <c r="K27" s="9" t="n">
+      <c r="J27" s="3" t="n">
+        <v>1.176518729463362</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>1.177837962864448</v>
+      </c>
+      <c r="L27" s="3" t="n">
         <v>0.889093</v>
       </c>
-      <c r="L27" s="9" t="n">
+      <c r="M27" s="3" t="n">
         <v>0.382927</v>
       </c>
-      <c r="M27" s="9" t="n">
+      <c r="N27" s="3" t="n">
         <v>0.5133</v>
       </c>
-      <c r="N27" s="9" t="n">
+      <c r="O27" s="3" t="n">
         <v>1.2218</v>
       </c>
-      <c r="O27" s="9" t="n">
+      <c r="P27" s="3" t="n">
         <v>1.2131</v>
       </c>
-      <c r="P27" s="9" t="n">
+      <c r="Q27" s="3" t="n">
         <v>1.2971</v>
       </c>
-      <c r="Q27" s="9" t="n">
+      <c r="R27" s="3" t="n">
         <v>1.264</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="28" s="6" spans="1:17">
-      <c r="A28" s="9" t="s">
+      <c r="S27" s="3" t="n"/>
+      <c r="T27" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="28" s="1" spans="1:20">
+      <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="9" t="n">
+      <c r="B28" s="3" t="n">
         <v>0.7104907897</v>
       </c>
-      <c r="C28" s="9" t="n">
+      <c r="C28" s="3" t="n">
         <v>0.2244776062</v>
       </c>
-      <c r="D28" s="9" t="n">
+      <c r="D28" s="3" t="n">
         <v>0.1122388031</v>
       </c>
-      <c r="E28" s="9" t="n">
+      <c r="E28" s="3" t="n">
         <v>1.36699849371264</v>
       </c>
-      <c r="F28" s="9" t="n">
+      <c r="F28" s="3" t="n">
         <v>0.562729060649872</v>
       </c>
-      <c r="G28" s="9" t="n">
+      <c r="G28" s="3" t="n">
         <v>1.07642896949866</v>
       </c>
-      <c r="H28" s="9" t="n">
+      <c r="H28" s="3" t="n">
         <v>1.34890537148814</v>
       </c>
-      <c r="I28" s="9" t="n">
+      <c r="I28" s="3" t="n">
         <v>1.127259907908112</v>
       </c>
-      <c r="J28" s="9" t="n">
-        <v>1.189880205588162</v>
-      </c>
-      <c r="K28" s="9" t="n">
+      <c r="J28" s="3" t="n">
+        <v>1.181374922669838</v>
+      </c>
+      <c r="K28" s="3" t="n">
+        <v>1.184329508482789</v>
+      </c>
+      <c r="L28" s="3" t="n">
         <v>0.762977</v>
       </c>
-      <c r="L28" s="9" t="n">
+      <c r="M28" s="3" t="n">
         <v>0.501748</v>
       </c>
-      <c r="M28" s="9" t="n">
+      <c r="N28" s="3" t="n">
         <v>0.4314</v>
       </c>
-      <c r="N28" s="9" t="n">
+      <c r="O28" s="3" t="n">
         <v>1.1879</v>
       </c>
-      <c r="O28" s="9" t="n">
+      <c r="P28" s="3" t="n">
         <v>1.2172</v>
       </c>
-      <c r="P28" s="9" t="n">
+      <c r="Q28" s="3" t="n">
         <v>1.2508</v>
       </c>
-      <c r="Q28" s="9" t="n">
+      <c r="R28" s="3" t="n">
         <v>1.4068</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="29" s="6" spans="1:17">
-      <c r="A29" s="9" t="s">
+      <c r="S28" s="3" t="n"/>
+      <c r="T28" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="29" s="1" spans="1:20">
+      <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="3" t="n">
         <v>0.7675282451</v>
       </c>
-      <c r="C29" s="9" t="n">
+      <c r="C29" s="3" t="n">
         <v>0.1688003433</v>
       </c>
-      <c r="D29" s="9" t="n">
+      <c r="D29" s="3" t="n">
         <v>0.08440017164999999</v>
       </c>
-      <c r="E29" s="9" t="n">
+      <c r="E29" s="3" t="n">
         <v>0.9148768294255361</v>
       </c>
-      <c r="F29" s="9" t="n">
+      <c r="F29" s="3" t="n">
         <v>0.346419274806976</v>
       </c>
-      <c r="G29" s="9" t="n">
+      <c r="G29" s="3" t="n">
         <v>1.12458000307655</v>
       </c>
-      <c r="H29" s="9" t="n">
+      <c r="H29" s="3" t="n">
         <v>1.23896931438286</v>
       </c>
-      <c r="I29" s="9" t="n">
+      <c r="I29" s="3" t="n">
         <v>1.10194153475621</v>
       </c>
-      <c r="J29" s="9" t="n">
-        <v>1.111631112794033</v>
-      </c>
-      <c r="K29" s="9" t="n">
+      <c r="J29" s="3" t="n">
+        <v>1.111006478884027</v>
+      </c>
+      <c r="K29" s="3" t="n">
+        <v>1.107125184575705</v>
+      </c>
+      <c r="L29" s="3" t="n">
         <v>0.788571</v>
       </c>
-      <c r="L29" s="9" t="n">
+      <c r="M29" s="3" t="n">
         <v>0.324919</v>
       </c>
-      <c r="M29" s="9" t="n">
+      <c r="N29" s="3" t="n">
         <v>0.3656</v>
       </c>
-      <c r="N29" s="9" t="n">
+      <c r="O29" s="3" t="n">
         <v>1.1553</v>
       </c>
-      <c r="O29" s="9" t="n">
+      <c r="P29" s="3" t="n">
         <v>1.0975</v>
       </c>
-      <c r="P29" s="9" t="n">
+      <c r="Q29" s="3" t="n">
         <v>1.137</v>
       </c>
-      <c r="Q29" s="9" t="n">
+      <c r="R29" s="3" t="n">
         <v>1.1603</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="30" s="6" spans="1:17">
-      <c r="A30" s="9" t="s">
+      <c r="S29" s="3" t="n"/>
+      <c r="T29" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="30" s="1" spans="1:20">
+      <c r="A30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="9" t="n">
+      <c r="B30" s="3" t="n">
         <v>0.7005559615</v>
       </c>
-      <c r="C30" s="9" t="n">
+      <c r="C30" s="3" t="n">
         <v>0.247410617</v>
       </c>
-      <c r="D30" s="9" t="n">
+      <c r="D30" s="3" t="n">
         <v>0.1237053085</v>
       </c>
-      <c r="E30" s="9" t="n">
+      <c r="E30" s="3" t="n">
         <v>1.34062873076931</v>
       </c>
-      <c r="F30" s="9" t="n">
+      <c r="F30" s="3" t="n">
         <v>0.608310103416443</v>
       </c>
-      <c r="G30" s="9" t="n">
+      <c r="G30" s="3" t="n">
         <v>1.06464325276091</v>
       </c>
-      <c r="H30" s="9" t="n">
+      <c r="H30" s="3" t="n">
         <v>1.29071618478865</v>
       </c>
-      <c r="I30" s="9" t="n">
+      <c r="I30" s="3" t="n">
         <v>1.105632523213553</v>
       </c>
-      <c r="J30" s="9" t="n">
-        <v>1.147416623360635</v>
-      </c>
-      <c r="K30" s="9" t="n">
+      <c r="J30" s="3" t="n">
+        <v>1.143428744670915</v>
+      </c>
+      <c r="K30" s="3" t="n">
+        <v>1.150321482875058</v>
+      </c>
+      <c r="L30" s="3" t="n">
         <v>0.7415</v>
       </c>
-      <c r="L30" s="9" t="n">
+      <c r="M30" s="3" t="n">
         <v>0.159188</v>
       </c>
-      <c r="M30" s="9" t="n">
+      <c r="N30" s="3" t="n">
         <v>0.4273</v>
       </c>
-      <c r="N30" s="9" t="n">
+      <c r="O30" s="3" t="n">
         <v>1.1371</v>
       </c>
-      <c r="O30" s="9" t="n">
+      <c r="P30" s="3" t="n">
         <v>1.1512</v>
       </c>
-      <c r="P30" s="9" t="n">
+      <c r="Q30" s="3" t="n">
         <v>1.1644</v>
       </c>
-      <c r="Q30" s="9" t="n">
+      <c r="R30" s="3" t="n">
         <v>1.3217</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="31" s="6" spans="1:17">
-      <c r="A31" s="9" t="s">
+      <c r="S30" s="3" t="n"/>
+      <c r="T30" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="31" s="1" spans="1:20">
+      <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="9" t="n">
+      <c r="B31" s="3" t="n">
         <v>0.6192480003</v>
       </c>
-      <c r="C31" s="9" t="n">
+      <c r="C31" s="3" t="n">
         <v>0.2637456713</v>
       </c>
-      <c r="D31" s="9" t="n">
+      <c r="D31" s="3" t="n">
         <v>0.1318728357</v>
       </c>
-      <c r="E31" s="9" t="n">
+      <c r="E31" s="3" t="n">
         <v>1.04508555197782</v>
       </c>
-      <c r="F31" s="9" t="n">
+      <c r="F31" s="3" t="n">
         <v>0.476095139980316</v>
       </c>
-      <c r="G31" s="9" t="n">
+      <c r="G31" s="3" t="n">
         <v>1.07032575340318</v>
       </c>
-      <c r="H31" s="9" t="n">
+      <c r="H31" s="3" t="n">
         <v>1.29880302459409</v>
       </c>
-      <c r="I31" s="9" t="n">
+      <c r="I31" s="3" t="n">
         <v>1.101128251541307</v>
       </c>
-      <c r="J31" s="9" t="n">
-        <v>1.241350089661932</v>
-      </c>
-      <c r="K31" s="9" t="n">
+      <c r="J31" s="3" t="n">
+        <v>1.231763385113485</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <v>1.232718980057309</v>
+      </c>
+      <c r="L31" s="3" t="n">
         <v>0.674964</v>
       </c>
-      <c r="L31" s="9" t="n">
+      <c r="M31" s="3" t="n">
         <v>0.399171</v>
       </c>
-      <c r="M31" s="9" t="n">
+      <c r="N31" s="3" t="n">
         <v>0.4304</v>
       </c>
-      <c r="N31" s="9" t="n">
+      <c r="O31" s="3" t="n">
         <v>1.1243</v>
       </c>
-      <c r="O31" s="9" t="n">
+      <c r="P31" s="3" t="n">
         <v>1.2119</v>
       </c>
-      <c r="P31" s="9" t="n">
+      <c r="Q31" s="3" t="n">
         <v>1.1823</v>
       </c>
-      <c r="Q31" s="9" t="n">
+      <c r="R31" s="3" t="n">
         <v>1.3658</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="32" s="6" spans="1:17">
-      <c r="A32" s="9" t="s">
+      <c r="S31" s="3" t="n"/>
+      <c r="T31" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="32" s="1" spans="1:20">
+      <c r="A32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="9" t="n">
+      <c r="B32" s="3" t="n">
         <v>0.8738287982</v>
       </c>
-      <c r="C32" s="9" t="n">
+      <c r="C32" s="3" t="n">
         <v>0.2493624683</v>
       </c>
-      <c r="D32" s="9" t="n">
+      <c r="D32" s="3" t="n">
         <v>0.1246812342</v>
       </c>
-      <c r="E32" s="9" t="n">
+      <c r="E32" s="3" t="n">
         <v>0.866893246462638</v>
       </c>
-      <c r="F32" s="9" t="n">
+      <c r="F32" s="3" t="n">
         <v>0.509001851081848</v>
       </c>
-      <c r="G32" s="9" t="n">
+      <c r="G32" s="3" t="n">
         <v>1.02230072847053</v>
       </c>
-      <c r="H32" s="9" t="n">
+      <c r="H32" s="3" t="n">
         <v>1.29095279559793</v>
       </c>
-      <c r="I32" s="9" t="n">
+      <c r="I32" s="3" t="n">
         <v>1.170826883364594</v>
       </c>
-      <c r="J32" s="9" t="n">
-        <v>1.16774303514559</v>
-      </c>
-      <c r="K32" s="9" t="n">
+      <c r="J32" s="3" t="n">
+        <v>1.162522701741329</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>1.164178285966227</v>
+      </c>
+      <c r="L32" s="3" t="n">
         <v>0.888363</v>
       </c>
-      <c r="L32" s="9" t="n">
+      <c r="M32" s="3" t="n">
         <v>0.582844</v>
       </c>
-      <c r="M32" s="9" t="n">
+      <c r="N32" s="3" t="n">
         <v>0.4882</v>
       </c>
-      <c r="N32" s="9" t="n">
+      <c r="O32" s="3" t="n">
         <v>1.2037</v>
       </c>
-      <c r="O32" s="9" t="n">
+      <c r="P32" s="3" t="n">
         <v>1.1918</v>
       </c>
-      <c r="P32" s="9" t="n">
+      <c r="Q32" s="3" t="n">
         <v>1.2723</v>
       </c>
-      <c r="Q32" s="9" t="n">
+      <c r="R32" s="3" t="n">
         <v>1.1946</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="33" s="6" spans="1:17">
-      <c r="A33" s="9" t="s">
+      <c r="S32" s="3" t="n"/>
+      <c r="T32" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="33" s="1" spans="1:20">
+      <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="9" t="n">
+      <c r="B33" s="3" t="n">
         <v>0.9016822462</v>
       </c>
-      <c r="C33" s="9" t="n">
+      <c r="C33" s="3" t="n">
         <v>0.3510256317</v>
       </c>
-      <c r="D33" s="9" t="n">
+      <c r="D33" s="3" t="n">
         <v>0.1755128158</v>
       </c>
-      <c r="E33" s="9" t="n">
+      <c r="E33" s="3" t="n">
         <v>0.919337388407329</v>
       </c>
-      <c r="F33" s="9" t="n">
+      <c r="F33" s="3" t="n">
         <v>0.553691267967224</v>
       </c>
-      <c r="G33" s="9" t="n">
+      <c r="G33" s="3" t="n">
         <v>1.23927964523633</v>
       </c>
-      <c r="H33" s="9" t="n">
+      <c r="H33" s="3" t="n">
         <v>1.32352035797926</v>
       </c>
-      <c r="I33" s="9" t="n">
+      <c r="I33" s="3" t="n">
         <v>1.144345693060551</v>
       </c>
-      <c r="J33" s="9" t="n">
-        <v>1.18930186196803</v>
-      </c>
-      <c r="K33" s="9" t="n">
+      <c r="J33" s="3" t="n">
+        <v>1.191452078663372</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>1.186491604879403</v>
+      </c>
+      <c r="L33" s="3" t="n">
         <v>0.9192979999999999</v>
       </c>
-      <c r="L33" s="9" t="n">
+      <c r="M33" s="3" t="n">
         <v>0.577555</v>
       </c>
-      <c r="M33" s="9" t="n">
+      <c r="N33" s="3" t="n">
         <v>0.5209</v>
       </c>
-      <c r="N33" s="9" t="n">
+      <c r="O33" s="3" t="n">
         <v>1.2508</v>
       </c>
-      <c r="O33" s="9" t="n">
+      <c r="P33" s="3" t="n">
         <v>1.222</v>
       </c>
-      <c r="P33" s="9" t="n">
+      <c r="Q33" s="3" t="n">
         <v>1.2334</v>
       </c>
-      <c r="Q33" s="9" t="n">
+      <c r="R33" s="3" t="n">
         <v>1.3312</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="34" s="6" spans="1:17">
-      <c r="A34" s="9" t="s">
+      <c r="S33" s="3" t="n"/>
+      <c r="T33" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="34" s="1" spans="1:20">
+      <c r="A34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="9" t="n">
+      <c r="B34" s="3" t="n">
         <v>0.9208260739</v>
       </c>
-      <c r="C34" s="9" t="n">
+      <c r="C34" s="3" t="n">
         <v>0.457298427</v>
       </c>
-      <c r="D34" s="9" t="n">
+      <c r="D34" s="3" t="n">
         <v>0.2286492135</v>
       </c>
-      <c r="E34" s="9" t="n">
+      <c r="E34" s="3" t="n">
         <v>1.1296291197368</v>
       </c>
-      <c r="F34" s="9" t="n">
+      <c r="F34" s="3" t="n">
         <v>0.549748003482819</v>
       </c>
-      <c r="G34" s="9" t="n">
+      <c r="G34" s="3" t="n">
         <v>1.22858217096419</v>
       </c>
-      <c r="H34" s="9" t="n">
+      <c r="H34" s="3" t="n">
         <v>1.39512122590262</v>
       </c>
-      <c r="I34" s="9" t="n">
+      <c r="I34" s="3" t="n">
         <v>1.199096732916644</v>
       </c>
-      <c r="J34" s="9" t="n">
-        <v>1.189289819326145</v>
-      </c>
-      <c r="K34" s="9" t="n">
+      <c r="J34" s="3" t="n">
+        <v>1.189594489431931</v>
+      </c>
+      <c r="K34" s="3" t="n">
+        <v>1.18870338885819</v>
+      </c>
+      <c r="L34" s="3" t="n">
         <v>0.933409</v>
       </c>
-      <c r="L34" s="9" t="n">
+      <c r="M34" s="3" t="n">
         <v>0.488927</v>
       </c>
-      <c r="M34" s="9" t="n">
+      <c r="N34" s="3" t="n">
         <v>0.5977</v>
       </c>
-      <c r="N34" s="9" t="n">
+      <c r="O34" s="3" t="n">
         <v>1.3032</v>
       </c>
-      <c r="O34" s="9" t="n">
+      <c r="P34" s="3" t="n">
         <v>1.2705</v>
       </c>
-      <c r="P34" s="9" t="n">
+      <c r="Q34" s="3" t="n">
         <v>1.3401</v>
       </c>
-      <c r="Q34" s="9" t="n">
+      <c r="R34" s="3" t="n">
         <v>1.3314</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="35" s="6" spans="1:17">
-      <c r="A35" s="9" t="s">
+      <c r="S34" s="3" t="n"/>
+      <c r="T34" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="35" s="1" spans="1:20">
+      <c r="A35" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="9" t="n">
+      <c r="B35" s="3" t="n">
         <v>0.9179811262999999</v>
       </c>
-      <c r="C35" s="9" t="n">
+      <c r="C35" s="3" t="n">
         <v>0.4226669346</v>
       </c>
-      <c r="D35" s="9" t="n">
+      <c r="D35" s="3" t="n">
         <v>0.2113334673</v>
       </c>
-      <c r="E35" s="9" t="n">
+      <c r="E35" s="3" t="n">
         <v>1.02552404056897</v>
       </c>
-      <c r="F35" s="9" t="n">
+      <c r="F35" s="3" t="n">
         <v>0.530213475227356</v>
       </c>
-      <c r="G35" s="9" t="n">
+      <c r="G35" s="3" t="n">
         <v>1.26709268547182</v>
       </c>
-      <c r="H35" s="9" t="n">
+      <c r="H35" s="3" t="n">
         <v>1.39200605426883</v>
       </c>
-      <c r="I35" s="9" t="n">
+      <c r="I35" s="3" t="n">
         <v>1.207789250151839</v>
       </c>
-      <c r="J35" s="9" t="n">
-        <v>1.262112868852251</v>
-      </c>
-      <c r="K35" s="9" t="n">
+      <c r="J35" s="3" t="n">
+        <v>1.256808603358957</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>1.260667345336449</v>
+      </c>
+      <c r="L35" s="3" t="n">
         <v>0.93057</v>
       </c>
-      <c r="L35" s="9" t="n">
+      <c r="M35" s="3" t="n">
         <v>0.450154</v>
       </c>
-      <c r="M35" s="9" t="n">
+      <c r="N35" s="3" t="n">
         <v>0.5625</v>
       </c>
-      <c r="N35" s="9" t="n">
+      <c r="O35" s="3" t="n">
         <v>1.2419</v>
       </c>
-      <c r="O35" s="9" t="n">
+      <c r="P35" s="3" t="n">
         <v>1.2761</v>
       </c>
-      <c r="P35" s="9" t="n">
+      <c r="Q35" s="3" t="n">
         <v>1.4374</v>
       </c>
-      <c r="Q35" s="9" t="n">
+      <c r="R35" s="3" t="n">
         <v>1.3861</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="36" s="6" spans="1:17">
-      <c r="A36" s="9" t="s">
+      <c r="S35" s="3" t="n"/>
+      <c r="T35" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="36" s="1" spans="1:20">
+      <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="9" t="n">
+      <c r="B36" s="3" t="n">
         <v>0.8425111919</v>
       </c>
-      <c r="C36" s="9" t="n">
+      <c r="C36" s="3" t="n">
         <v>0.4919261878</v>
       </c>
-      <c r="D36" s="9" t="n">
+      <c r="D36" s="3" t="n">
         <v>0.2459630939</v>
       </c>
-      <c r="E36" s="9" t="n">
+      <c r="E36" s="3" t="n">
         <v>1.14923046916283</v>
       </c>
-      <c r="F36" s="9" t="n">
+      <c r="F36" s="3" t="n">
         <v>0.630959272384644</v>
       </c>
-      <c r="G36" s="9" t="n">
+      <c r="G36" s="3" t="n">
         <v>1.09101733342458</v>
       </c>
-      <c r="H36" s="9" t="n">
+      <c r="H36" s="3" t="n">
         <v>1.39257586836353</v>
       </c>
-      <c r="I36" s="9" t="n">
+      <c r="I36" s="3" t="n">
         <v>1.217145921006195</v>
       </c>
-      <c r="J36" s="9" t="n">
-        <v>1.29561246408163</v>
-      </c>
-      <c r="K36" s="9" t="n">
+      <c r="J36" s="3" t="n">
+        <v>1.300553391337068</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>1.296117611391171</v>
+      </c>
+      <c r="L36" s="3" t="n">
         <v>0.869261</v>
       </c>
-      <c r="L36" s="9" t="n">
+      <c r="M36" s="3" t="n">
         <v>0.533749</v>
       </c>
-      <c r="M36" s="9" t="n">
+      <c r="N36" s="3" t="n">
         <v>0.5276999999999999</v>
       </c>
-      <c r="N36" s="9" t="n">
+      <c r="O36" s="3" t="n">
         <v>1.2339</v>
       </c>
-      <c r="O36" s="9" t="n">
+      <c r="P36" s="3" t="n">
         <v>1.28</v>
       </c>
-      <c r="P36" s="9" t="n">
+      <c r="Q36" s="3" t="n">
         <v>1.3244</v>
       </c>
-      <c r="Q36" s="9" t="n">
+      <c r="R36" s="3" t="n">
         <v>1.4912</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="37" s="6" spans="1:17">
-      <c r="A37" s="9" t="s">
+      <c r="S36" s="3" t="n"/>
+      <c r="T36" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="37" s="1" spans="1:20">
+      <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="9" t="n">
+      <c r="B37" s="3" t="n">
         <v>0.8898943257</v>
       </c>
-      <c r="C37" s="9" t="n">
+      <c r="C37" s="3" t="n">
         <v>0.4407751169</v>
       </c>
-      <c r="D37" s="9" t="n">
+      <c r="D37" s="3" t="n">
         <v>0.2203875584</v>
       </c>
-      <c r="E37" s="9" t="n">
+      <c r="E37" s="3" t="n">
         <v>0.9851113739720631</v>
       </c>
-      <c r="F37" s="9" t="n">
+      <c r="F37" s="3" t="n">
         <v>0.49182915687561</v>
       </c>
-      <c r="G37" s="9" t="n">
+      <c r="G37" s="3" t="n">
         <v>1.19971025903581</v>
       </c>
-      <c r="H37" s="9" t="n">
+      <c r="H37" s="3" t="n">
         <v>1.32505185446763</v>
       </c>
-      <c r="I37" s="9" t="n">
+      <c r="I37" s="3" t="n">
         <v>1.216866170410768</v>
       </c>
-      <c r="J37" s="9" t="n">
-        <v>1.242184507410135</v>
-      </c>
-      <c r="K37" s="9" t="n">
+      <c r="J37" s="3" t="n">
+        <v>1.24613211366932</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>1.249377477245341</v>
+      </c>
+      <c r="L37" s="3" t="n">
         <v>0.912504</v>
       </c>
-      <c r="L37" s="9" t="n">
+      <c r="M37" s="3" t="n">
         <v>0.558214</v>
       </c>
-      <c r="M37" s="9" t="n">
+      <c r="N37" s="3" t="n">
         <v>0.5461</v>
       </c>
-      <c r="N37" s="9" t="n">
+      <c r="O37" s="3" t="n">
         <v>1.2487</v>
       </c>
-      <c r="O37" s="9" t="n">
+      <c r="P37" s="3" t="n">
         <v>1.2836</v>
       </c>
-      <c r="P37" s="9" t="n">
+      <c r="Q37" s="3" t="n">
         <v>1.302</v>
       </c>
-      <c r="Q37" s="9" t="n">
+      <c r="R37" s="3" t="n">
         <v>1.4548</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="38" s="6" spans="1:17">
-      <c r="A38" s="9" t="s">
+      <c r="S37" s="3" t="n"/>
+      <c r="T37" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="38" s="1" spans="1:20">
+      <c r="A38" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="9" t="n">
+      <c r="B38" s="3" t="n">
         <v>0.8875605051</v>
       </c>
-      <c r="C38" s="9" t="n">
+      <c r="C38" s="3" t="n">
         <v>0.3048876411</v>
       </c>
-      <c r="D38" s="9" t="n">
+      <c r="D38" s="3" t="n">
         <v>0.1524438205</v>
       </c>
-      <c r="E38" s="9" t="n">
+      <c r="E38" s="3" t="n">
         <v>1.1768956954402</v>
       </c>
-      <c r="F38" s="9" t="n">
+      <c r="F38" s="3" t="n">
         <v>0.472600281238556</v>
       </c>
-      <c r="G38" s="9" t="n">
+      <c r="G38" s="3" t="n">
         <v>1.22295522463376</v>
       </c>
-      <c r="H38" s="9" t="n">
+      <c r="H38" s="3" t="n">
         <v>1.35692757597898</v>
       </c>
-      <c r="I38" s="9" t="n">
+      <c r="I38" s="3" t="n">
         <v>1.202599107565262</v>
       </c>
-      <c r="J38" s="9" t="n">
-        <v>1.214878838841833</v>
-      </c>
-      <c r="K38" s="9" t="n">
+      <c r="J38" s="3" t="n">
+        <v>1.217845238768291</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>1.222121544584395</v>
+      </c>
+      <c r="L38" s="3" t="n">
         <v>0.904311</v>
       </c>
-      <c r="L38" s="9" t="n">
+      <c r="M38" s="3" t="n">
         <v>0.464757</v>
       </c>
-      <c r="M38" s="9" t="n">
+      <c r="N38" s="3" t="n">
         <v>0.5326</v>
       </c>
-      <c r="N38" s="9" t="n">
+      <c r="O38" s="3" t="n">
         <v>1.2812</v>
       </c>
-      <c r="O38" s="9" t="n">
+      <c r="P38" s="3" t="n">
         <v>1.2401</v>
       </c>
-      <c r="P38" s="9" t="n">
+      <c r="Q38" s="3" t="n">
         <v>1.3295</v>
       </c>
-      <c r="Q38" s="9" t="n">
+      <c r="R38" s="3" t="n">
         <v>1.3687</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="39" s="6" spans="1:17">
-      <c r="A39" s="9" t="s">
+      <c r="S38" s="3" t="n"/>
+      <c r="T38" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="39" s="1" spans="1:20">
+      <c r="A39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="9" t="n">
+      <c r="B39" s="3" t="n">
         <v>0.8809819091</v>
       </c>
-      <c r="C39" s="9" t="n">
+      <c r="C39" s="3" t="n">
         <v>0.7576847575</v>
       </c>
-      <c r="D39" s="9" t="n">
+      <c r="D39" s="3" t="n">
         <v>0.3788423788</v>
       </c>
-      <c r="E39" s="9" t="n">
+      <c r="E39" s="3" t="n">
         <v>0.881664766923866</v>
       </c>
-      <c r="F39" s="9" t="n">
+      <c r="F39" s="3" t="n">
         <v>0.619803011417389</v>
       </c>
-      <c r="G39" s="9" t="n">
+      <c r="G39" s="3" t="n">
         <v>1.24843284349338</v>
       </c>
-      <c r="H39" s="9" t="n">
+      <c r="H39" s="3" t="n">
         <v>1.45187811690631</v>
       </c>
-      <c r="I39" s="9" t="n">
+      <c r="I39" s="3" t="n">
         <v>1.225940312668669</v>
       </c>
-      <c r="J39" s="9" t="n">
-        <v>1.280382279889419</v>
-      </c>
-      <c r="K39" s="9" t="n">
+      <c r="J39" s="3" t="n">
+        <v>1.280303848850205</v>
+      </c>
+      <c r="K39" s="3" t="n">
+        <v>1.280949123296978</v>
+      </c>
+      <c r="L39" s="3" t="n">
         <v>0.904236</v>
       </c>
-      <c r="L39" s="9" t="n">
+      <c r="M39" s="3" t="n">
         <v>0.526381</v>
       </c>
-      <c r="M39" s="9" t="n">
+      <c r="N39" s="3" t="n">
         <v>0.4999</v>
       </c>
-      <c r="N39" s="9" t="n">
+      <c r="O39" s="3" t="n">
         <v>1.228</v>
       </c>
-      <c r="O39" s="9" t="n">
+      <c r="P39" s="3" t="n">
         <v>1.2817</v>
       </c>
-      <c r="P39" s="9" t="n">
+      <c r="Q39" s="3" t="n">
         <v>1.408</v>
       </c>
-      <c r="Q39" s="9" t="n">
+      <c r="R39" s="3" t="n">
         <v>1.4546</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="40" s="6" spans="1:17">
-      <c r="A40" s="9" t="s">
+      <c r="S39" s="3" t="n"/>
+      <c r="T39" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="40" s="1" spans="1:20">
+      <c r="A40" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="9" t="n">
+      <c r="B40" s="3" t="n">
         <v>0.7009904213</v>
       </c>
-      <c r="C40" s="9" t="n">
+      <c r="C40" s="3" t="n">
         <v>0.3897183036</v>
       </c>
-      <c r="D40" s="9" t="n">
+      <c r="D40" s="3" t="n">
         <v>0.1948591518</v>
       </c>
-      <c r="E40" s="9" t="n">
+      <c r="E40" s="3" t="n">
         <v>0.8793050181165259</v>
       </c>
-      <c r="F40" s="9" t="n">
+      <c r="F40" s="3" t="n">
         <v>0.31920975446701</v>
       </c>
-      <c r="G40" s="9" t="n">
+      <c r="G40" s="3" t="n">
         <v>1.22365399876976</v>
       </c>
-      <c r="H40" s="9" t="n">
+      <c r="H40" s="3" t="n">
         <v>1.33671338705715</v>
       </c>
-      <c r="I40" s="9" t="n">
+      <c r="I40" s="3" t="n">
         <v>1.144678993242659</v>
       </c>
-      <c r="J40" s="9" t="n">
-        <v>1.290308600347911</v>
-      </c>
-      <c r="K40" s="9" t="n">
+      <c r="J40" s="3" t="n">
+        <v>1.293664436761167</v>
+      </c>
+      <c r="K40" s="3" t="n">
+        <v>1.290777886299628</v>
+      </c>
+      <c r="L40" s="3" t="n">
         <v>0.747117</v>
       </c>
-      <c r="L40" s="9" t="n">
+      <c r="M40" s="3" t="n">
         <v>0.363322</v>
       </c>
-      <c r="M40" s="9" t="n">
+      <c r="N40" s="3" t="n">
         <v>0.4076</v>
       </c>
-      <c r="N40" s="9" t="n">
+      <c r="O40" s="3" t="n">
         <v>1.1793</v>
       </c>
-      <c r="O40" s="9" t="n">
+      <c r="P40" s="3" t="n">
         <v>1.2536</v>
       </c>
-      <c r="P40" s="9" t="n">
+      <c r="Q40" s="3" t="n">
         <v>1.2726</v>
       </c>
-      <c r="Q40" s="9" t="n">
+      <c r="R40" s="3" t="n">
         <v>1.5242</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="41" s="6" spans="1:17">
-      <c r="A41" s="9" t="s">
+      <c r="S40" s="3" t="n"/>
+      <c r="T40" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="41" s="1" spans="1:20">
+      <c r="A41" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="9" t="n">
+      <c r="B41" s="3" t="n">
         <v>0.8843842385</v>
       </c>
-      <c r="C41" s="9" t="n">
+      <c r="C41" s="3" t="n">
         <v>0.3571211871</v>
       </c>
-      <c r="D41" s="9" t="n">
+      <c r="D41" s="3" t="n">
         <v>0.1785605935</v>
       </c>
-      <c r="E41" s="9" t="n">
+      <c r="E41" s="3" t="n">
         <v>0.821254390481568</v>
       </c>
-      <c r="F41" s="9" t="n">
+      <c r="F41" s="3" t="n">
         <v>0.535002589225769</v>
       </c>
-      <c r="G41" s="9" t="n">
+      <c r="G41" s="3" t="n">
         <v>1.11912994847503</v>
       </c>
-      <c r="H41" s="9" t="n">
+      <c r="H41" s="3" t="n">
         <v>1.34622074852229</v>
       </c>
-      <c r="I41" s="9" t="n">
+      <c r="I41" s="3" t="n">
         <v>1.221468758392748</v>
       </c>
-      <c r="J41" s="9" t="n">
-        <v>1.259612770195679</v>
-      </c>
-      <c r="K41" s="9" t="n">
+      <c r="J41" s="3" t="n">
+        <v>1.263133873326937</v>
+      </c>
+      <c r="K41" s="3" t="n">
+        <v>1.263812313192778</v>
+      </c>
+      <c r="L41" s="3" t="n">
         <v>0.898734</v>
       </c>
-      <c r="L41" s="9" t="n">
+      <c r="M41" s="3" t="n">
         <v>0.57441</v>
       </c>
-      <c r="M41" s="9" t="n">
+      <c r="N41" s="3" t="n">
         <v>0.5115</v>
       </c>
-      <c r="N41" s="9" t="n">
+      <c r="O41" s="3" t="n">
         <v>1.2873</v>
       </c>
-      <c r="O41" s="9" t="n">
+      <c r="P41" s="3" t="n">
         <v>1.2278</v>
       </c>
-      <c r="P41" s="9" t="n">
+      <c r="Q41" s="3" t="n">
         <v>1.4454</v>
       </c>
-      <c r="Q41" s="9" t="n">
+      <c r="R41" s="3" t="n">
         <v>1.4145</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="42" s="6" spans="1:17">
-      <c r="A42" s="9" t="s">
+      <c r="S41" s="3" t="n"/>
+      <c r="T41" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="42" s="1" spans="1:20">
+      <c r="A42" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="9" t="n">
+      <c r="B42" s="3" t="n">
         <v>0.8330094555000001</v>
       </c>
-      <c r="C42" s="9" t="n">
+      <c r="C42" s="3" t="n">
         <v>0.3387096216</v>
       </c>
-      <c r="D42" s="9" t="n">
+      <c r="D42" s="3" t="n">
         <v>0.1693548108</v>
       </c>
-      <c r="E42" s="9" t="n">
+      <c r="E42" s="3" t="n">
         <v>0.520859829374955</v>
       </c>
-      <c r="F42" s="9" t="n">
+      <c r="F42" s="3" t="n">
         <v>0.515375196933746</v>
       </c>
-      <c r="G42" s="9" t="n">
+      <c r="G42" s="3" t="n">
         <v>1.0952259211669</v>
       </c>
-      <c r="H42" s="9" t="n">
+      <c r="H42" s="3" t="n">
         <v>1.29162212979657</v>
       </c>
-      <c r="I42" s="9" t="n">
+      <c r="I42" s="3" t="n">
         <v>1.153336673390978</v>
       </c>
-      <c r="J42" s="9" t="n">
-        <v>1.195402242925121</v>
-      </c>
-      <c r="K42" s="9" t="n">
+      <c r="J42" s="3" t="n">
+        <v>1.194919895417426</v>
+      </c>
+      <c r="K42" s="3" t="n">
+        <v>1.196095919980325</v>
+      </c>
+      <c r="L42" s="3" t="n">
         <v>0.859006</v>
       </c>
-      <c r="L42" s="9" t="n">
+      <c r="M42" s="3" t="n">
         <v>0.531775</v>
       </c>
-      <c r="M42" s="9" t="n">
+      <c r="N42" s="3" t="n">
         <v>0.4761</v>
       </c>
-      <c r="N42" s="9" t="n">
+      <c r="O42" s="3" t="n">
         <v>1.174</v>
       </c>
-      <c r="O42" s="9" t="n">
+      <c r="P42" s="3" t="n">
         <v>1.1947</v>
       </c>
-      <c r="P42" s="9" t="n">
+      <c r="Q42" s="3" t="n">
         <v>1.2817</v>
       </c>
-      <c r="Q42" s="9" t="n">
+      <c r="R42" s="3" t="n">
         <v>1.2705</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="43" s="6" spans="1:17">
-      <c r="A43" s="9" t="s">
+      <c r="S42" s="3" t="n"/>
+      <c r="T42" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="43" s="1" spans="1:20">
+      <c r="A43" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="9" t="n">
+      <c r="B43" s="3" t="n">
         <v>0.6873762823</v>
       </c>
-      <c r="C43" s="9" t="n">
+      <c r="C43" s="3" t="n">
         <v>0.2308256962</v>
       </c>
-      <c r="D43" s="9" t="n">
+      <c r="D43" s="3" t="n">
         <v>0.1154128481</v>
       </c>
-      <c r="E43" s="9" t="n">
+      <c r="E43" s="3" t="n">
         <v>1.05717904498446</v>
       </c>
-      <c r="F43" s="9" t="n">
+      <c r="F43" s="3" t="n">
         <v>0.417900681495667</v>
       </c>
-      <c r="G43" s="9" t="n">
+      <c r="G43" s="3" t="n">
         <v>1.14510033367987</v>
       </c>
-      <c r="H43" s="9" t="n">
+      <c r="H43" s="3" t="n">
         <v>1.25706363575035</v>
       </c>
-      <c r="I43" s="9" t="n">
+      <c r="I43" s="3" t="n">
         <v>1.116550950819231</v>
       </c>
-      <c r="J43" s="9" t="n">
-        <v>1.197583100674697</v>
-      </c>
-      <c r="K43" s="9" t="n">
+      <c r="J43" s="3" t="n">
+        <v>1.197255219609276</v>
+      </c>
+      <c r="K43" s="3" t="n">
+        <v>1.196840001633145</v>
+      </c>
+      <c r="L43" s="3" t="n">
         <v>0.727048</v>
       </c>
-      <c r="L43" s="9" t="n">
+      <c r="M43" s="3" t="n">
         <v>0.288678</v>
       </c>
-      <c r="M43" s="9" t="n">
+      <c r="N43" s="3" t="n">
         <v>0.399</v>
       </c>
-      <c r="N43" s="9" t="n">
+      <c r="O43" s="3" t="n">
         <v>1.1383</v>
       </c>
-      <c r="O43" s="9" t="n">
+      <c r="P43" s="3" t="n">
         <v>1.1147</v>
       </c>
-      <c r="P43" s="9" t="n">
+      <c r="Q43" s="3" t="n">
         <v>1.1921</v>
       </c>
-      <c r="Q43" s="9" t="n">
+      <c r="R43" s="3" t="n">
         <v>1.3239</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="44" s="6" spans="1:17">
-      <c r="A44" s="9" t="s">
+      <c r="S43" s="3" t="n"/>
+      <c r="T43" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="44" s="1" spans="1:20">
+      <c r="A44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="9" t="n">
+      <c r="B44" s="3" t="n">
         <v>0.613901001</v>
       </c>
-      <c r="C44" s="9" t="n">
+      <c r="C44" s="3" t="n">
         <v>0.3077673791</v>
       </c>
-      <c r="D44" s="9" t="n">
+      <c r="D44" s="3" t="n">
         <v>0.1538836896</v>
       </c>
-      <c r="E44" s="9" t="n">
+      <c r="E44" s="3" t="n">
         <v>1.09831678657802</v>
       </c>
-      <c r="F44" s="9" t="n">
+      <c r="F44" s="3" t="n">
         <v>0.279654383659363</v>
       </c>
-      <c r="G44" s="9" t="n">
+      <c r="G44" s="3" t="n">
         <v>1.01678987283816</v>
       </c>
-      <c r="H44" s="9" t="n">
+      <c r="H44" s="3" t="n">
         <v>1.20692583207877</v>
       </c>
-      <c r="I44" s="9" t="n">
+      <c r="I44" s="3" t="n">
         <v>1.076240127659567</v>
       </c>
-      <c r="J44" s="9" t="n">
-        <v>1.123262955158403</v>
-      </c>
-      <c r="K44" s="9" t="n">
+      <c r="J44" s="3" t="n">
+        <v>1.126557661975352</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>1.121317024550977</v>
+      </c>
+      <c r="L44" s="3" t="n">
         <v>0.645937</v>
       </c>
-      <c r="L44" s="9" t="n">
+      <c r="M44" s="3" t="n">
         <v>0.290303</v>
       </c>
-      <c r="M44" s="9" t="n">
+      <c r="N44" s="3" t="n">
         <v>0.3341</v>
       </c>
-      <c r="N44" s="9" t="n">
+      <c r="O44" s="3" t="n">
         <v>1.0877</v>
       </c>
-      <c r="O44" s="9" t="n">
+      <c r="P44" s="3" t="n">
         <v>1.0701</v>
       </c>
-      <c r="P44" s="9" t="n">
+      <c r="Q44" s="3" t="n">
         <v>1.0617</v>
       </c>
-      <c r="Q44" s="9" t="n">
+      <c r="R44" s="3" t="n">
         <v>1.181</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="45" s="6" spans="1:17">
-      <c r="A45" s="9" t="s">
+      <c r="S44" s="3" t="n"/>
+      <c r="T44" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="45" s="1" spans="1:20">
+      <c r="A45" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="9" t="n">
+      <c r="B45" s="3" t="n">
         <v>0.9995173045</v>
       </c>
-      <c r="C45" s="9" t="n">
+      <c r="C45" s="3" t="n">
         <v>1.087122913</v>
       </c>
-      <c r="D45" s="9" t="n">
+      <c r="D45" s="3" t="n">
         <v>0.5435614564</v>
       </c>
-      <c r="E45" s="9" t="n">
+      <c r="E45" s="3" t="n">
         <v>1.00932162081763</v>
       </c>
-      <c r="F45" s="9" t="n">
+      <c r="F45" s="3" t="n">
         <v>0.524128794670105</v>
       </c>
-      <c r="G45" s="9" t="n">
+      <c r="G45" s="3" t="n">
         <v>1.28756100844149</v>
       </c>
-      <c r="H45" s="9" t="n">
+      <c r="H45" s="3" t="n">
         <v>1.46713137562876</v>
       </c>
-      <c r="I45" s="9" t="n">
+      <c r="I45" s="3" t="n">
         <v>1.236426784388507</v>
       </c>
-      <c r="J45" s="9" t="n">
-        <v>1.255027721077095</v>
-      </c>
-      <c r="K45" s="9" t="n">
+      <c r="J45" s="3" t="n">
+        <v>1.252077387179894</v>
+      </c>
+      <c r="K45" s="3" t="n">
+        <v>1.255650088317846</v>
+      </c>
+      <c r="L45" s="3" t="n">
         <v>0.912624</v>
       </c>
-      <c r="L45" s="9" t="n">
+      <c r="M45" s="3" t="n">
         <v>0.488782</v>
       </c>
-      <c r="M45" s="9" t="n">
+      <c r="N45" s="3" t="n">
         <v>0.5628</v>
       </c>
-      <c r="N45" s="9" t="n">
+      <c r="O45" s="3" t="n">
         <v>1.2759</v>
       </c>
-      <c r="O45" s="9" t="n">
+      <c r="P45" s="3" t="n">
         <v>1.3548</v>
       </c>
-      <c r="P45" s="9" t="n">
+      <c r="Q45" s="3" t="n">
         <v>1.3624</v>
       </c>
-      <c r="Q45" s="9" t="n">
+      <c r="R45" s="3" t="n">
         <v>1.4581</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="46" s="6" spans="1:17">
-      <c r="A46" s="9" t="s">
+      <c r="S45" s="3" t="n"/>
+      <c r="T45" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="46" s="1" spans="1:20">
+      <c r="A46" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="9" t="n">
+      <c r="B46" s="3" t="n">
         <v>0.8309410285</v>
       </c>
-      <c r="C46" s="9" t="n">
+      <c r="C46" s="3" t="n">
         <v>0.2490188303</v>
       </c>
-      <c r="D46" s="9" t="n">
+      <c r="D46" s="3" t="n">
         <v>0.1245094151</v>
       </c>
-      <c r="E46" s="9" t="n">
+      <c r="E46" s="3" t="n">
         <v>0.81094753915872</v>
       </c>
-      <c r="F46" s="9" t="n">
+      <c r="F46" s="3" t="n">
         <v>0.427817404270172</v>
       </c>
-      <c r="G46" s="9" t="n">
+      <c r="G46" s="3" t="n">
         <v>1.09636564299667</v>
       </c>
-      <c r="H46" s="9" t="n">
+      <c r="H46" s="3" t="n">
         <v>1.28017345957386</v>
       </c>
-      <c r="I46" s="9" t="n">
+      <c r="I46" s="3" t="n">
         <v>1.160801067290985</v>
       </c>
-      <c r="J46" s="9" t="n">
-        <v>1.246965238287864</v>
-      </c>
-      <c r="K46" s="9" t="n">
+      <c r="J46" s="3" t="n">
+        <v>1.243739742347263</v>
+      </c>
+      <c r="K46" s="3" t="n">
+        <v>1.244389503319166</v>
+      </c>
+      <c r="L46" s="3" t="n">
         <v>0.8525740000000001</v>
       </c>
-      <c r="L46" s="9" t="n">
+      <c r="M46" s="3" t="n">
         <v>0.465703</v>
       </c>
-      <c r="M46" s="9" t="n">
+      <c r="N46" s="3" t="n">
         <v>0.4948</v>
       </c>
-      <c r="N46" s="9" t="n">
+      <c r="O46" s="3" t="n">
         <v>1.1489</v>
       </c>
-      <c r="O46" s="9" t="n">
+      <c r="P46" s="3" t="n">
         <v>1.239</v>
       </c>
-      <c r="P46" s="9" t="n">
+      <c r="Q46" s="3" t="n">
         <v>1.2679</v>
       </c>
-      <c r="Q46" s="9" t="n">
+      <c r="R46" s="3" t="n">
         <v>1.278</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="47" s="6" spans="1:17">
-      <c r="A47" s="9" t="s">
+      <c r="S46" s="3" t="n"/>
+      <c r="T46" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="47" s="1" spans="1:20">
+      <c r="A47" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="9" t="n">
+      <c r="B47" s="3" t="n">
         <v>0.9063845743</v>
       </c>
-      <c r="C47" s="9" t="n">
+      <c r="C47" s="3" t="n">
         <v>0.6276159867</v>
       </c>
-      <c r="D47" s="9" t="n">
+      <c r="D47" s="3" t="n">
         <v>0.3138079933</v>
       </c>
-      <c r="E47" s="9" t="n">
+      <c r="E47" s="3" t="n">
         <v>1.35856416210413</v>
       </c>
-      <c r="F47" s="9" t="n">
+      <c r="F47" s="3" t="n">
         <v>0.686562657356262</v>
       </c>
-      <c r="G47" s="9" t="n">
+      <c r="G47" s="3" t="n">
         <v>1.23601173943582</v>
       </c>
-      <c r="H47" s="9" t="n">
+      <c r="H47" s="3" t="n">
         <v>1.47312541343442</v>
       </c>
-      <c r="I47" s="9" t="n">
+      <c r="I47" s="3" t="n">
         <v>1.236787360934856</v>
       </c>
-      <c r="J47" s="9" t="n">
-        <v>1.257327445105974</v>
-      </c>
-      <c r="K47" s="9" t="n">
+      <c r="J47" s="3" t="n">
+        <v>1.260030454719661</v>
+      </c>
+      <c r="K47" s="3" t="n">
+        <v>1.261772389729815</v>
+      </c>
+      <c r="L47" s="3" t="n">
         <v>0.925098</v>
       </c>
-      <c r="L47" s="9" t="n">
+      <c r="M47" s="3" t="n">
         <v>0.578667</v>
       </c>
-      <c r="M47" s="9" t="n">
+      <c r="N47" s="3" t="n">
         <v>0.5814</v>
       </c>
-      <c r="N47" s="9" t="n">
+      <c r="O47" s="3" t="n">
         <v>1.2847</v>
       </c>
-      <c r="O47" s="9" t="n">
+      <c r="P47" s="3" t="n">
         <v>1.3702</v>
       </c>
-      <c r="P47" s="9" t="n">
+      <c r="Q47" s="3" t="n">
         <v>1.4716</v>
       </c>
-      <c r="Q47" s="9" t="n">
+      <c r="R47" s="3" t="n">
         <v>1.4698</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="48" s="6" spans="1:17">
-      <c r="A48" s="9" t="s">
+      <c r="S47" s="3" t="n"/>
+      <c r="T47" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="48" s="1" spans="1:20">
+      <c r="A48" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="9" t="n">
+      <c r="B48" s="3" t="n">
         <v>0.8336618220000001</v>
       </c>
-      <c r="C48" s="9" t="n">
+      <c r="C48" s="3" t="n">
         <v>0.3502371421</v>
       </c>
-      <c r="D48" s="9" t="n">
+      <c r="D48" s="3" t="n">
         <v>0.175118571</v>
       </c>
-      <c r="E48" s="9" t="n">
+      <c r="E48" s="3" t="n">
         <v>0.97713981349954</v>
       </c>
-      <c r="F48" s="9" t="n">
+      <c r="F48" s="3" t="n">
         <v>0.414229989051819</v>
       </c>
-      <c r="G48" s="9" t="n">
+      <c r="G48" s="3" t="n">
         <v>1.09538362992689</v>
       </c>
-      <c r="H48" s="9" t="n">
+      <c r="H48" s="3" t="n">
         <v>1.32053881817136</v>
       </c>
-      <c r="I48" s="9" t="n">
+      <c r="I48" s="3" t="n">
         <v>1.15829958466634</v>
       </c>
-      <c r="J48" s="9" t="n">
-        <v>1.186045049973613</v>
-      </c>
-      <c r="K48" s="9" t="n">
+      <c r="J48" s="3" t="n">
+        <v>1.194418230259457</v>
+      </c>
+      <c r="K48" s="3" t="n">
+        <v>1.18912000698615</v>
+      </c>
+      <c r="L48" s="3" t="n">
         <v>0.86177</v>
       </c>
-      <c r="L48" s="9" t="n">
+      <c r="M48" s="3" t="n">
         <v>0.463975</v>
       </c>
-      <c r="M48" s="9" t="n">
+      <c r="N48" s="3" t="n">
         <v>0.4899</v>
       </c>
-      <c r="N48" s="9" t="n">
+      <c r="O48" s="3" t="n">
         <v>1.1891</v>
       </c>
-      <c r="O48" s="9" t="n">
+      <c r="P48" s="3" t="n">
         <v>1.1946</v>
       </c>
-      <c r="P48" s="9" t="n">
+      <c r="Q48" s="3" t="n">
         <v>1.2477</v>
       </c>
-      <c r="Q48" s="9" t="n">
+      <c r="R48" s="3" t="n">
         <v>1.3713</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="49" s="6" spans="1:17">
-      <c r="A49" s="9" t="s">
+      <c r="S48" s="3" t="n"/>
+      <c r="T48" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="49" s="1" spans="1:20">
+      <c r="A49" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="9" t="n">
+      <c r="B49" s="3" t="n">
         <v>0.916096663</v>
       </c>
-      <c r="C49" s="9" t="n">
+      <c r="C49" s="3" t="n">
         <v>0.5437302459</v>
       </c>
-      <c r="D49" s="9" t="n">
+      <c r="D49" s="3" t="n">
         <v>0.271865123</v>
       </c>
-      <c r="E49" s="9" t="n">
+      <c r="E49" s="3" t="n">
         <v>1.03169960319153</v>
       </c>
-      <c r="F49" s="9" t="n">
+      <c r="F49" s="3" t="n">
         <v>0.5217161178588871</v>
       </c>
-      <c r="G49" s="9" t="n">
+      <c r="G49" s="3" t="n">
         <v>1.24877579378198</v>
       </c>
-      <c r="H49" s="9" t="n">
+      <c r="H49" s="3" t="n">
         <v>1.36179922195235</v>
       </c>
-      <c r="I49" s="9" t="n">
+      <c r="I49" s="3" t="n">
         <v>1.204663130161461</v>
       </c>
-      <c r="J49" s="9" t="n">
-        <v>1.228297479997554</v>
-      </c>
-      <c r="K49" s="9" t="n">
+      <c r="J49" s="3" t="n">
+        <v>1.2330505975819</v>
+      </c>
+      <c r="K49" s="3" t="n">
+        <v>1.229276363616764</v>
+      </c>
+      <c r="L49" s="3" t="n">
         <v>0.926806</v>
       </c>
-      <c r="L49" s="9" t="n">
+      <c r="M49" s="3" t="n">
         <v>0.502066</v>
       </c>
-      <c r="M49" s="9" t="n">
+      <c r="N49" s="3" t="n">
         <v>0.5753</v>
       </c>
-      <c r="N49" s="9" t="n">
+      <c r="O49" s="3" t="n">
         <v>1.2796</v>
       </c>
-      <c r="O49" s="9" t="n">
+      <c r="P49" s="3" t="n">
         <v>1.2654</v>
       </c>
-      <c r="P49" s="9" t="n">
+      <c r="Q49" s="3" t="n">
         <v>1.3727</v>
       </c>
-      <c r="Q49" s="9" t="n">
+      <c r="R49" s="3" t="n">
         <v>1.3448</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="50" s="6" spans="1:17">
-      <c r="A50" s="9" t="s">
+      <c r="S49" s="3" t="n"/>
+      <c r="T49" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="50" s="1" spans="1:20">
+      <c r="A50" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="9" t="n">
+      <c r="B50" s="3" t="n">
         <v>0.8545684086999999</v>
       </c>
-      <c r="C50" s="9" t="n">
+      <c r="C50" s="3" t="n">
         <v>0.4209695351</v>
       </c>
-      <c r="D50" s="9" t="n">
+      <c r="D50" s="3" t="n">
         <v>0.2104847676</v>
       </c>
-      <c r="E50" s="9" t="n">
+      <c r="E50" s="3" t="n">
         <v>0.465461240992264</v>
       </c>
-      <c r="F50" s="9" t="n">
+      <c r="F50" s="3" t="n">
         <v>0.490794241428375</v>
       </c>
-      <c r="G50" s="9" t="n">
+      <c r="G50" s="3" t="n">
         <v>1.14076215062514</v>
       </c>
-      <c r="H50" s="9" t="n">
+      <c r="H50" s="3" t="n">
         <v>1.34631885732465</v>
       </c>
-      <c r="I50" s="9" t="n">
+      <c r="I50" s="3" t="n">
         <v>1.176531994663349</v>
       </c>
-      <c r="J50" s="9" t="n">
-        <v>1.191397907091953</v>
-      </c>
-      <c r="K50" s="9" t="n">
+      <c r="J50" s="3" t="n">
+        <v>1.19436577471789</v>
+      </c>
+      <c r="K50" s="3" t="n">
+        <v>1.194113280614512</v>
+      </c>
+      <c r="L50" s="3" t="n">
         <v>0.8805269999999999</v>
       </c>
-      <c r="L50" s="9" t="n">
+      <c r="M50" s="3" t="n">
         <v>0.620149</v>
       </c>
-      <c r="M50" s="9" t="n">
+      <c r="N50" s="3" t="n">
         <v>0.5259</v>
       </c>
-      <c r="N50" s="9" t="n">
+      <c r="O50" s="3" t="n">
         <v>1.2203</v>
       </c>
-      <c r="O50" s="9" t="n">
+      <c r="P50" s="3" t="n">
         <v>1.2355</v>
       </c>
-      <c r="P50" s="9" t="n">
+      <c r="Q50" s="3" t="n">
         <v>1.3562</v>
       </c>
-      <c r="Q50" s="9" t="n">
+      <c r="R50" s="3" t="n">
         <v>1.414</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="51" s="6" spans="1:17">
-      <c r="A51" s="9" t="s">
+      <c r="S50" s="3" t="n"/>
+      <c r="T50" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="51" s="1" spans="1:20">
+      <c r="A51" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="9" t="n">
+      <c r="B51" s="3" t="n">
         <v>0.8137780192</v>
       </c>
-      <c r="C51" s="9" t="n">
+      <c r="C51" s="3" t="n">
         <v>0.2843659114</v>
       </c>
-      <c r="D51" s="9" t="n">
+      <c r="D51" s="3" t="n">
         <v>0.1421829557</v>
       </c>
-      <c r="E51" s="9" t="n">
+      <c r="E51" s="3" t="n">
         <v>0.938029219760499</v>
       </c>
-      <c r="F51" s="9" t="n">
+      <c r="F51" s="3" t="n">
         <v>0.513155579566956</v>
       </c>
-      <c r="G51" s="9" t="n">
+      <c r="G51" s="3" t="n">
         <v>1.17448732493266</v>
       </c>
-      <c r="H51" s="9" t="n">
+      <c r="H51" s="3" t="n">
         <v>1.35038740085033</v>
       </c>
-      <c r="I51" s="9" t="n">
+      <c r="I51" s="3" t="n">
         <v>1.191430883531765</v>
       </c>
-      <c r="J51" s="9" t="n">
-        <v>1.239757634512764</v>
-      </c>
-      <c r="K51" s="9" t="n">
+      <c r="J51" s="3" t="n">
+        <v>1.233387624218192</v>
+      </c>
+      <c r="K51" s="3" t="n">
+        <v>1.240965069123599</v>
+      </c>
+      <c r="L51" s="3" t="n">
         <v>0.840001</v>
       </c>
-      <c r="L51" s="9" t="n">
+      <c r="M51" s="3" t="n">
         <v>0.547784</v>
       </c>
-      <c r="M51" s="9" t="n">
+      <c r="N51" s="3" t="n">
         <v>0.4989</v>
       </c>
-      <c r="N51" s="9" t="n">
+      <c r="O51" s="3" t="n">
         <v>1.1901</v>
       </c>
-      <c r="O51" s="9" t="n">
+      <c r="P51" s="3" t="n">
         <v>1.2433</v>
       </c>
-      <c r="P51" s="9" t="n">
+      <c r="Q51" s="3" t="n">
         <v>1.3272</v>
       </c>
-      <c r="Q51" s="9" t="n">
+      <c r="R51" s="3" t="n">
         <v>1.3233</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="52" s="6" spans="1:17">
-      <c r="A52" s="9" t="s">
+      <c r="S51" s="3" t="n"/>
+      <c r="T51" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="52" s="1" spans="1:20">
+      <c r="A52" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="9" t="n">
+      <c r="B52" s="3" t="n">
         <v>0.9394116338</v>
       </c>
-      <c r="C52" s="9" t="n">
+      <c r="C52" s="3" t="n">
         <v>0.461600928</v>
       </c>
-      <c r="D52" s="9" t="n">
+      <c r="D52" s="3" t="n">
         <v>0.230800464</v>
       </c>
-      <c r="E52" s="9" t="n">
+      <c r="E52" s="3" t="n">
         <v>1.08091572845651</v>
       </c>
-      <c r="F52" s="9" t="n">
+      <c r="F52" s="3" t="n">
         <v>0.545015275478363</v>
       </c>
-      <c r="G52" s="9" t="n">
+      <c r="G52" s="3" t="n">
         <v>1.20750324346954</v>
       </c>
-      <c r="H52" s="9" t="n">
+      <c r="H52" s="3" t="n">
         <v>1.26859718585703</v>
       </c>
-      <c r="I52" s="9" t="n">
+      <c r="I52" s="3" t="n">
         <v>1.203146476956209</v>
       </c>
-      <c r="J52" s="9" t="n">
-        <v>1.15272661916902</v>
-      </c>
-      <c r="K52" s="9" t="n">
+      <c r="J52" s="3" t="n">
+        <v>1.150875410693671</v>
+      </c>
+      <c r="K52" s="3" t="n">
+        <v>1.151950299812955</v>
+      </c>
+      <c r="L52" s="3" t="n">
         <v>0.950831</v>
       </c>
-      <c r="L52" s="9" t="n">
+      <c r="M52" s="3" t="n">
         <v>0.437713</v>
       </c>
-      <c r="M52" s="9" t="n">
+      <c r="N52" s="3" t="n">
         <v>0.474</v>
       </c>
-      <c r="N52" s="9" t="n">
+      <c r="O52" s="3" t="n">
         <v>1.2574</v>
       </c>
-      <c r="O52" s="9" t="n">
+      <c r="P52" s="3" t="n">
         <v>1.1182</v>
       </c>
-      <c r="P52" s="9" t="n">
+      <c r="Q52" s="3" t="n">
         <v>1.2976</v>
       </c>
-      <c r="Q52" s="9" t="n">
+      <c r="R52" s="3" t="n">
         <v>1.2685</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="53" s="6" spans="1:17">
-      <c r="A53" s="9" t="s">
+      <c r="S52" s="3" t="n"/>
+      <c r="T52" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="53" s="1" spans="1:20">
+      <c r="A53" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="9" t="n">
+      <c r="B53" s="3" t="n">
         <v>0.9172441351</v>
       </c>
-      <c r="C53" s="9" t="n">
+      <c r="C53" s="3" t="n">
         <v>0.8236895232</v>
       </c>
-      <c r="D53" s="9" t="n">
+      <c r="D53" s="3" t="n">
         <v>0.4118447616</v>
       </c>
-      <c r="E53" s="9" t="n">
+      <c r="E53" s="3" t="n">
         <v>1.15357286735139</v>
       </c>
-      <c r="F53" s="9" t="n">
+      <c r="F53" s="3" t="n">
         <v>0.360203206539154</v>
       </c>
-      <c r="G53" s="9" t="n">
+      <c r="G53" s="3" t="n">
         <v>1.23316241047996</v>
       </c>
-      <c r="H53" s="9" t="n">
+      <c r="H53" s="3" t="n">
         <v>1.33853553155773</v>
       </c>
-      <c r="I53" s="9" t="n">
+      <c r="I53" s="3" t="n">
         <v>1.263404476816938</v>
       </c>
-      <c r="J53" s="9" t="n">
-        <v>1.290639420025714</v>
-      </c>
-      <c r="K53" s="9" t="n">
+      <c r="J53" s="3" t="n">
+        <v>1.300885552565498</v>
+      </c>
+      <c r="K53" s="3" t="n">
+        <v>1.295329211184073</v>
+      </c>
+      <c r="L53" s="3" t="n">
         <v>0.9346449999999999</v>
       </c>
-      <c r="L53" s="9" t="n">
+      <c r="M53" s="3" t="n">
         <v>0.463629</v>
       </c>
-      <c r="M53" s="9" t="n">
+      <c r="N53" s="3" t="n">
         <v>0.4938</v>
       </c>
-      <c r="N53" s="9" t="n">
+      <c r="O53" s="3" t="n">
         <v>1.2759</v>
       </c>
-      <c r="O53" s="9" t="n">
+      <c r="P53" s="3" t="n">
         <v>1.3121</v>
       </c>
-      <c r="P53" s="9" t="n">
+      <c r="Q53" s="3" t="n">
         <v>1.3009</v>
       </c>
-      <c r="Q53" s="9" t="n">
+      <c r="R53" s="3" t="n">
         <v>1.4096</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="54" s="6" spans="1:17">
-      <c r="A54" s="9" t="s">
+      <c r="S53" s="3" t="n"/>
+      <c r="T53" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="54" s="1" spans="1:20">
+      <c r="A54" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="9" t="n">
+      <c r="B54" s="3" t="n">
         <v>0.7592613518</v>
       </c>
-      <c r="C54" s="9" t="n">
+      <c r="C54" s="3" t="n">
         <v>0.2340304846</v>
       </c>
-      <c r="D54" s="9" t="n">
+      <c r="D54" s="3" t="n">
         <v>0.1170152423</v>
       </c>
-      <c r="E54" s="9" t="n">
+      <c r="E54" s="3" t="n">
         <v>0.901864892440453</v>
       </c>
-      <c r="F54" s="9" t="n">
+      <c r="F54" s="3" t="n">
         <v>0.306501388549805</v>
       </c>
-      <c r="G54" s="9" t="n">
+      <c r="G54" s="4" t="n">
         <v>1.14611226344309</v>
       </c>
-      <c r="H54" s="9" t="n">
+      <c r="H54" s="4" t="n">
         <v>1.23729227511344</v>
       </c>
-      <c r="I54" s="10" t="n">
+      <c r="I54" s="4" t="n">
         <v>1.138140670014708</v>
       </c>
-      <c r="J54" s="10" t="n">
-        <v>1.167171063021328</v>
-      </c>
-      <c r="K54" s="10" t="n">
+      <c r="J54" s="4" t="n">
+        <v>1.166807032422018</v>
+      </c>
+      <c r="K54" s="4" t="n">
+        <v>1.169512185820596</v>
+      </c>
+      <c r="L54" s="4" t="n">
         <v>0.79074</v>
       </c>
-      <c r="L54" s="10" t="n">
+      <c r="M54" s="4" t="n">
         <v>0.325364</v>
       </c>
-      <c r="M54" s="9" t="n">
+      <c r="N54" s="4" t="n">
         <v>0.3913</v>
       </c>
-      <c r="N54" s="10" t="n">
+      <c r="O54" s="4" t="n">
         <v>1.1495</v>
       </c>
-      <c r="O54" s="10" t="n">
+      <c r="P54" s="4" t="n">
         <v>1.1355</v>
       </c>
-      <c r="P54" s="10" t="n">
+      <c r="Q54" s="4" t="n">
         <v>1.2323</v>
       </c>
-      <c r="Q54" s="10" t="n">
+      <c r="R54" s="4" t="n">
         <v>1.2699</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="55" s="6" spans="1:17">
-      <c r="A55" s="10" t="s">
+      <c r="S54" s="4" t="n"/>
+      <c r="T54" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="55" s="1" spans="1:20">
+      <c r="A55" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="10" t="n">
+      <c r="B55" s="4" t="n">
         <v>0.7869068601</v>
       </c>
-      <c r="C55" s="10" t="n">
+      <c r="C55" s="4" t="n">
         <v>0.2854061894</v>
       </c>
-      <c r="D55" s="10" t="n">
+      <c r="D55" s="4" t="n">
         <v>0.1427030947</v>
       </c>
-      <c r="E55" s="10" t="n">
+      <c r="E55" s="4" t="n">
         <v>1.10032351999865</v>
       </c>
-      <c r="F55" s="10" t="n">
+      <c r="F55" s="4" t="n">
         <v>0.33602899312973</v>
       </c>
-      <c r="G55" s="10" t="n">
+      <c r="G55" s="3" t="n">
         <v>1.10807221613308</v>
       </c>
-      <c r="H55" s="10" t="n">
+      <c r="H55" s="3" t="n">
         <v>1.31659695460053</v>
       </c>
-      <c r="I55" s="9" t="n">
+      <c r="I55" s="3" t="n">
         <v>1.163054997816191</v>
       </c>
-      <c r="J55" s="9" t="n">
-        <v>1.181791305318305</v>
-      </c>
-      <c r="K55" s="9" t="n">
+      <c r="J55" s="3" t="n">
+        <v>1.180684210459378</v>
+      </c>
+      <c r="K55" s="3" t="n">
+        <v>1.190326399942596</v>
+      </c>
+      <c r="L55" s="3" t="n">
         <v>0.821589</v>
       </c>
-      <c r="L55" s="9" t="n">
+      <c r="M55" s="3" t="n">
         <v>0.396803</v>
       </c>
-      <c r="M55" s="10" t="n">
+      <c r="N55" s="3" t="n">
         <v>0.4465</v>
       </c>
-      <c r="N55" s="9" t="n">
+      <c r="O55" s="3" t="n">
         <v>1.1474</v>
       </c>
-      <c r="O55" s="9" t="n">
+      <c r="P55" s="3" t="n">
         <v>1.2065</v>
       </c>
-      <c r="P55" s="9" t="n">
+      <c r="Q55" s="3" t="n">
         <v>1.2087</v>
       </c>
-      <c r="Q55" s="9" t="n">
+      <c r="R55" s="3" t="n">
         <v>1.2201</v>
       </c>
-    </row>
-    <row customHeight="1" ht="13.9" r="56" s="6" spans="1:17">
-      <c r="A56" s="11" t="n"/>
-      <c r="B56" s="11" t="n"/>
-      <c r="C56" s="11" t="n"/>
-      <c r="D56" s="11" t="n"/>
-      <c r="E56" s="11" t="n"/>
-      <c r="F56" s="11" t="n"/>
-      <c r="G56" s="11" t="n"/>
-      <c r="H56" s="11" t="n"/>
-      <c r="I56" s="11" t="n"/>
-      <c r="J56" s="11" t="n"/>
-      <c r="K56" s="11" t="n"/>
-      <c r="L56" s="11" t="n"/>
-      <c r="M56" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.9" r="57" s="6" spans="1:17"/>
-    <row customHeight="1" ht="13.9" r="58" s="6" spans="1:17"/>
+      <c r="S55" s="3" t="n"/>
+      <c r="T55" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="56" s="1" spans="1:20">
+      <c r="A56" s="5" t="n"/>
+      <c r="B56" s="5" t="n"/>
+      <c r="C56" s="5" t="n"/>
+      <c r="D56" s="5" t="n"/>
+      <c r="E56" s="5" t="n"/>
+      <c r="F56" s="5" t="n"/>
+      <c r="G56" s="5" t="n"/>
+      <c r="H56" s="5" t="n"/>
+      <c r="I56" s="5" t="n"/>
+      <c r="J56" s="5" t="n"/>
+      <c r="K56" s="5" t="n"/>
+      <c r="L56" s="5" t="n"/>
+      <c r="M56" s="5" t="n"/>
+      <c r="N56" s="5" t="n"/>
+      <c r="O56" s="5" t="n"/>
+      <c r="P56" s="5" t="n"/>
+      <c r="Q56" s="5" t="n"/>
+      <c r="R56" s="5" t="n"/>
+      <c r="S56" s="5" t="n"/>
+      <c r="T56" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.9" r="57" s="1" spans="1:20"/>
+    <row customHeight="1" ht="13.9" r="58" s="1" spans="1:20"/>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>